--- a/Resources/Variable_description_full.xlsx
+++ b/Resources/Variable_description_full.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C34E25D-91D1-4A16-9BB3-35B082C6CE5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F0FE4F-DF72-44F1-849F-84389217BF9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48594,8 +48594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Resources/Variable_description_full.xlsx
+++ b/Resources/Variable_description_full.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F0FE4F-DF72-44F1-849F-84389217BF9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D14E5E-F476-45BE-9422-600D3D140919}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="819" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge_cs" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5693" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5732" uniqueCount="1203">
   <si>
     <t>LI-7700</t>
   </si>
@@ -3622,6 +3622,24 @@
   </si>
   <si>
     <t>RMYoung 05103</t>
+  </si>
+  <si>
+    <t>wind_xspeed_var</t>
+  </si>
+  <si>
+    <t>wind_yspeed_var</t>
+  </si>
+  <si>
+    <t>wind_zspeed_var</t>
+  </si>
+  <si>
+    <t>Variance of the wind speed in the x direction</t>
+  </si>
+  <si>
+    <t>Variance of the wind speed in the y direction</t>
+  </si>
+  <si>
+    <t>Variance of the wind speed in the z direction</t>
   </si>
 </sst>
 </file>
@@ -4059,7 +4077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -7489,7 +7507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8378,8 +8396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9327,83 +9345,83 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="B70" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="C70" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="D70" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>980</v>
+      <c r="A71" s="3" t="s">
+        <v>979</v>
       </c>
       <c r="B71" t="s">
-        <v>772</v>
+        <v>729</v>
       </c>
       <c r="C71" t="s">
-        <v>994</v>
+        <v>888</v>
       </c>
       <c r="D71" t="s">
-        <v>674</v>
+        <v>724</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>978</v>
+      <c r="A72" t="s">
+        <v>1197</v>
       </c>
       <c r="B72" t="s">
-        <v>728</v>
+        <v>809</v>
       </c>
       <c r="C72" t="s">
-        <v>887</v>
+        <v>1200</v>
       </c>
       <c r="D72" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>975</v>
+      <c r="A73" t="s">
+        <v>1198</v>
       </c>
       <c r="B73" t="s">
-        <v>725</v>
+        <v>810</v>
       </c>
       <c r="C73" t="s">
-        <v>884</v>
+        <v>1201</v>
       </c>
       <c r="D73" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>981</v>
+        <v>1199</v>
       </c>
       <c r="B74" t="s">
-        <v>773</v>
+        <v>811</v>
       </c>
       <c r="C74" t="s">
-        <v>993</v>
+        <v>1202</v>
       </c>
       <c r="D74" t="s">
-        <v>674</v>
+        <v>736</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B75" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C75" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="D75" t="s">
         <v>724</v>
@@ -9411,66 +9429,69 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B76" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C76" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D76" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>982</v>
+      <c r="A77" s="3" t="s">
+        <v>976</v>
       </c>
       <c r="B77" t="s">
-        <v>774</v>
+        <v>726</v>
       </c>
       <c r="C77" t="s">
-        <v>995</v>
+        <v>885</v>
       </c>
       <c r="D77" t="s">
-        <v>674</v>
+        <v>724</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>980</v>
       </c>
       <c r="B78" t="s">
-        <v>668</v>
+        <v>772</v>
       </c>
       <c r="C78" t="s">
-        <v>821</v>
+        <v>994</v>
+      </c>
+      <c r="D78" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>226</v>
+        <v>981</v>
       </c>
       <c r="B79" t="s">
-        <v>670</v>
+        <v>773</v>
       </c>
       <c r="C79" t="s">
-        <v>842</v>
+        <v>993</v>
       </c>
       <c r="D79" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>226</v>
+        <v>982</v>
       </c>
       <c r="B80" t="s">
-        <v>673</v>
+        <v>774</v>
       </c>
       <c r="C80" t="s">
-        <v>832</v>
+        <v>995</v>
       </c>
       <c r="D80" t="s">
         <v>674</v>
@@ -9481,13 +9502,10 @@
         <v>226</v>
       </c>
       <c r="B81" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="C81" t="s">
-        <v>847</v>
-      </c>
-      <c r="D81" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -9495,13 +9513,13 @@
         <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="C82" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D82" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -9509,13 +9527,13 @@
         <v>226</v>
       </c>
       <c r="B83" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="C83" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="D83" t="s">
-        <v>839</v>
+        <v>674</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -9523,7 +9541,7 @@
         <v>226</v>
       </c>
       <c r="B84" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C84" t="s">
         <v>847</v>
@@ -9537,13 +9555,13 @@
         <v>226</v>
       </c>
       <c r="B85" t="s">
-        <v>1056</v>
+        <v>687</v>
       </c>
       <c r="C85" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D85" t="s">
-        <v>839</v>
+        <v>674</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -9551,13 +9569,13 @@
         <v>226</v>
       </c>
       <c r="B86" t="s">
-        <v>1071</v>
+        <v>688</v>
       </c>
       <c r="C86" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="D86" t="s">
-        <v>685</v>
+        <v>839</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -9565,10 +9583,10 @@
         <v>226</v>
       </c>
       <c r="B87" t="s">
-        <v>1041</v>
+        <v>691</v>
       </c>
       <c r="C87" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="D87" t="s">
         <v>839</v>
@@ -9579,10 +9597,10 @@
         <v>226</v>
       </c>
       <c r="B88" t="s">
-        <v>692</v>
+        <v>1056</v>
       </c>
       <c r="C88" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="D88" t="s">
         <v>839</v>
@@ -9593,13 +9611,13 @@
         <v>226</v>
       </c>
       <c r="B89" t="s">
-        <v>1057</v>
+        <v>1071</v>
       </c>
       <c r="C89" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D89" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -9607,13 +9625,13 @@
         <v>226</v>
       </c>
       <c r="B90" t="s">
-        <v>1058</v>
+        <v>1041</v>
       </c>
       <c r="C90" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D90" t="s">
-        <v>695</v>
+        <v>839</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -9621,13 +9639,13 @@
         <v>226</v>
       </c>
       <c r="B91" t="s">
-        <v>1072</v>
+        <v>692</v>
       </c>
       <c r="C91" t="s">
-        <v>864</v>
+        <v>847</v>
       </c>
       <c r="D91" t="s">
-        <v>694</v>
+        <v>839</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -9635,13 +9653,13 @@
         <v>226</v>
       </c>
       <c r="B92" t="s">
-        <v>1073</v>
+        <v>1057</v>
       </c>
       <c r="C92" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D92" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -9649,13 +9667,13 @@
         <v>226</v>
       </c>
       <c r="B93" t="s">
-        <v>1042</v>
+        <v>1058</v>
       </c>
       <c r="C93" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="D93" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -9663,13 +9681,13 @@
         <v>226</v>
       </c>
       <c r="B94" t="s">
-        <v>1043</v>
+        <v>1072</v>
       </c>
       <c r="C94" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="D94" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -9677,13 +9695,13 @@
         <v>226</v>
       </c>
       <c r="B95" t="s">
-        <v>698</v>
+        <v>1073</v>
       </c>
       <c r="C95" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="D95" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -9691,13 +9709,13 @@
         <v>226</v>
       </c>
       <c r="B96" t="s">
-        <v>699</v>
+        <v>1042</v>
       </c>
       <c r="C96" t="s">
-        <v>847</v>
+        <v>868</v>
       </c>
       <c r="D96" t="s">
-        <v>840</v>
+        <v>694</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -9705,13 +9723,13 @@
         <v>226</v>
       </c>
       <c r="B97" t="s">
-        <v>700</v>
+        <v>1043</v>
       </c>
       <c r="C97" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="D97" t="s">
-        <v>841</v>
+        <v>695</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -9719,13 +9737,13 @@
         <v>226</v>
       </c>
       <c r="B98" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C98" t="s">
         <v>847</v>
       </c>
       <c r="D98" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -9733,13 +9751,13 @@
         <v>226</v>
       </c>
       <c r="B99" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C99" t="s">
         <v>847</v>
       </c>
       <c r="D99" t="s">
-        <v>695</v>
+        <v>840</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -9747,13 +9765,13 @@
         <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C100" t="s">
-        <v>869</v>
+        <v>847</v>
       </c>
       <c r="D100" t="s">
-        <v>704</v>
+        <v>841</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -9761,13 +9779,13 @@
         <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>701</v>
       </c>
       <c r="C101" t="s">
-        <v>891</v>
+        <v>847</v>
       </c>
       <c r="D101" t="s">
-        <v>734</v>
+        <v>694</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -9775,13 +9793,13 @@
         <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>702</v>
       </c>
       <c r="C102" t="s">
-        <v>892</v>
+        <v>847</v>
       </c>
       <c r="D102" t="s">
-        <v>734</v>
+        <v>695</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -9789,13 +9807,13 @@
         <v>226</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>703</v>
       </c>
       <c r="C103" t="s">
-        <v>897</v>
+        <v>869</v>
       </c>
       <c r="D103" t="s">
-        <v>734</v>
+        <v>704</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -9803,13 +9821,13 @@
         <v>226</v>
       </c>
       <c r="B104" t="s">
-        <v>742</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="D104" t="s">
-        <v>674</v>
+        <v>734</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -9817,13 +9835,13 @@
         <v>226</v>
       </c>
       <c r="B105" t="s">
-        <v>743</v>
+        <v>31</v>
       </c>
       <c r="C105" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="D105" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -9831,13 +9849,13 @@
         <v>226</v>
       </c>
       <c r="B106" t="s">
-        <v>744</v>
+        <v>30</v>
       </c>
       <c r="C106" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D106" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -9845,13 +9863,13 @@
         <v>226</v>
       </c>
       <c r="B107" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C107" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D107" t="s">
-        <v>738</v>
+        <v>674</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -9859,10 +9877,10 @@
         <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C108" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D108" t="s">
         <v>738</v>
@@ -9873,10 +9891,10 @@
         <v>226</v>
       </c>
       <c r="B109" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C109" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D109" t="s">
         <v>738</v>
@@ -9887,10 +9905,10 @@
         <v>226</v>
       </c>
       <c r="B110" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C110" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D110" t="s">
         <v>738</v>
@@ -9901,10 +9919,10 @@
         <v>226</v>
       </c>
       <c r="B111" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C111" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D111" t="s">
         <v>738</v>
@@ -9915,13 +9933,13 @@
         <v>226</v>
       </c>
       <c r="B112" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C112" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D112" t="s">
-        <v>677</v>
+        <v>738</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -9929,13 +9947,13 @@
         <v>226</v>
       </c>
       <c r="B113" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C113" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D113" t="s">
-        <v>674</v>
+        <v>738</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -9943,13 +9961,13 @@
         <v>226</v>
       </c>
       <c r="B114" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C114" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D114" t="s">
-        <v>680</v>
+        <v>738</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -9957,13 +9975,13 @@
         <v>226</v>
       </c>
       <c r="B115" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C115" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D115" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -9971,13 +9989,13 @@
         <v>226</v>
       </c>
       <c r="B116" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C116" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D116" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -9985,13 +10003,13 @@
         <v>226</v>
       </c>
       <c r="B117" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C117" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D117" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -9999,13 +10017,13 @@
         <v>226</v>
       </c>
       <c r="B118" t="s">
-        <v>1059</v>
+        <v>753</v>
       </c>
       <c r="C118" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D118" t="s">
-        <v>839</v>
+        <v>674</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -10013,13 +10031,13 @@
         <v>226</v>
       </c>
       <c r="B119" t="s">
-        <v>1060</v>
+        <v>754</v>
       </c>
       <c r="C119" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D119" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -10027,13 +10045,13 @@
         <v>226</v>
       </c>
       <c r="B120" t="s">
-        <v>1074</v>
+        <v>755</v>
       </c>
       <c r="C120" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D120" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -10041,13 +10059,13 @@
         <v>226</v>
       </c>
       <c r="B121" t="s">
-        <v>1075</v>
+        <v>1059</v>
       </c>
       <c r="C121" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D121" t="s">
-        <v>674</v>
+        <v>839</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -10055,13 +10073,13 @@
         <v>226</v>
       </c>
       <c r="B122" t="s">
-        <v>1044</v>
+        <v>1060</v>
       </c>
       <c r="C122" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D122" t="s">
-        <v>839</v>
+        <v>674</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -10069,13 +10087,13 @@
         <v>226</v>
       </c>
       <c r="B123" t="s">
-        <v>1045</v>
+        <v>1074</v>
       </c>
       <c r="C123" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D123" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -10083,13 +10101,13 @@
         <v>226</v>
       </c>
       <c r="B124" t="s">
-        <v>756</v>
+        <v>1075</v>
       </c>
       <c r="C124" t="s">
-        <v>847</v>
+        <v>913</v>
       </c>
       <c r="D124" t="s">
-        <v>839</v>
+        <v>674</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -10097,13 +10115,13 @@
         <v>226</v>
       </c>
       <c r="B125" t="s">
-        <v>757</v>
+        <v>1044</v>
       </c>
       <c r="C125" t="s">
-        <v>847</v>
+        <v>912</v>
       </c>
       <c r="D125" t="s">
-        <v>674</v>
+        <v>839</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -10111,11 +10129,13 @@
         <v>226</v>
       </c>
       <c r="B126" t="s">
-        <v>758</v>
-      </c>
-      <c r="C126" s="3"/>
+        <v>1045</v>
+      </c>
+      <c r="C126" t="s">
+        <v>913</v>
+      </c>
       <c r="D126" t="s">
-        <v>967</v>
+        <v>674</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -10123,11 +10143,13 @@
         <v>226</v>
       </c>
       <c r="B127" t="s">
-        <v>759</v>
-      </c>
-      <c r="C127" s="3"/>
+        <v>756</v>
+      </c>
+      <c r="C127" t="s">
+        <v>847</v>
+      </c>
       <c r="D127" t="s">
-        <v>967</v>
+        <v>839</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -10135,11 +10157,13 @@
         <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>760</v>
-      </c>
-      <c r="C128" s="3"/>
+        <v>757</v>
+      </c>
+      <c r="C128" t="s">
+        <v>847</v>
+      </c>
       <c r="D128" t="s">
-        <v>967</v>
+        <v>674</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -10147,7 +10171,7 @@
         <v>226</v>
       </c>
       <c r="B129" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" t="s">
@@ -10159,7 +10183,7 @@
         <v>226</v>
       </c>
       <c r="B130" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" t="s">
@@ -10171,7 +10195,7 @@
         <v>226</v>
       </c>
       <c r="B131" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" t="s">
@@ -10183,7 +10207,7 @@
         <v>226</v>
       </c>
       <c r="B132" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" t="s">
@@ -10195,7 +10219,7 @@
         <v>226</v>
       </c>
       <c r="B133" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" t="s">
@@ -10207,11 +10231,11 @@
         <v>226</v>
       </c>
       <c r="B134" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -10219,11 +10243,11 @@
         <v>226</v>
       </c>
       <c r="B135" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -10231,11 +10255,11 @@
         <v>226</v>
       </c>
       <c r="B136" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" t="s">
-        <v>769</v>
+        <v>967</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -10243,11 +10267,11 @@
         <v>226</v>
       </c>
       <c r="B137" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" t="s">
-        <v>771</v>
+        <v>968</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -10255,11 +10279,11 @@
         <v>226</v>
       </c>
       <c r="B138" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" t="s">
-        <v>674</v>
+        <v>968</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -10267,10 +10291,11 @@
         <v>226</v>
       </c>
       <c r="B139" t="s">
-        <v>777</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="C139" s="3"/>
       <c r="D139" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -10278,10 +10303,11 @@
         <v>226</v>
       </c>
       <c r="B140" t="s">
-        <v>779</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="C140" s="3"/>
       <c r="D140" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -10289,10 +10315,11 @@
         <v>226</v>
       </c>
       <c r="B141" t="s">
-        <v>780</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="C141" s="3"/>
       <c r="D141" t="s">
-        <v>778</v>
+        <v>674</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -10300,7 +10327,7 @@
         <v>226</v>
       </c>
       <c r="B142" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D142" t="s">
         <v>778</v>
@@ -10311,7 +10338,7 @@
         <v>226</v>
       </c>
       <c r="B143" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D143" t="s">
         <v>778</v>
@@ -10322,7 +10349,7 @@
         <v>226</v>
       </c>
       <c r="B144" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D144" t="s">
         <v>778</v>
@@ -10333,7 +10360,7 @@
         <v>226</v>
       </c>
       <c r="B145" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D145" t="s">
         <v>778</v>
@@ -10344,7 +10371,7 @@
         <v>226</v>
       </c>
       <c r="B146" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D146" t="s">
         <v>778</v>
@@ -10355,7 +10382,7 @@
         <v>226</v>
       </c>
       <c r="B147" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D147" t="s">
         <v>778</v>
@@ -10366,7 +10393,7 @@
         <v>226</v>
       </c>
       <c r="B148" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D148" t="s">
         <v>778</v>
@@ -10377,7 +10404,7 @@
         <v>226</v>
       </c>
       <c r="B149" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D149" t="s">
         <v>778</v>
@@ -10388,7 +10415,7 @@
         <v>226</v>
       </c>
       <c r="B150" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D150" t="s">
         <v>778</v>
@@ -10399,7 +10426,7 @@
         <v>226</v>
       </c>
       <c r="B151" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D151" t="s">
         <v>778</v>
@@ -10410,7 +10437,7 @@
         <v>226</v>
       </c>
       <c r="B152" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D152" t="s">
         <v>778</v>
@@ -10421,7 +10448,7 @@
         <v>226</v>
       </c>
       <c r="B153" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D153" t="s">
         <v>778</v>
@@ -10432,7 +10459,7 @@
         <v>226</v>
       </c>
       <c r="B154" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D154" t="s">
         <v>778</v>
@@ -10443,7 +10470,7 @@
         <v>226</v>
       </c>
       <c r="B155" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D155" t="s">
         <v>778</v>
@@ -10454,7 +10481,7 @@
         <v>226</v>
       </c>
       <c r="B156" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D156" t="s">
         <v>778</v>
@@ -10465,7 +10492,7 @@
         <v>226</v>
       </c>
       <c r="B157" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D157" t="s">
         <v>778</v>
@@ -10476,7 +10503,7 @@
         <v>226</v>
       </c>
       <c r="B158" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D158" t="s">
         <v>778</v>
@@ -10487,7 +10514,7 @@
         <v>226</v>
       </c>
       <c r="B159" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D159" t="s">
         <v>778</v>
@@ -10498,7 +10525,7 @@
         <v>226</v>
       </c>
       <c r="B160" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D160" t="s">
         <v>778</v>
@@ -10509,7 +10536,7 @@
         <v>226</v>
       </c>
       <c r="B161" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D161" t="s">
         <v>778</v>
@@ -10520,7 +10547,7 @@
         <v>226</v>
       </c>
       <c r="B162" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D162" t="s">
         <v>778</v>
@@ -10531,7 +10558,7 @@
         <v>226</v>
       </c>
       <c r="B163" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D163" t="s">
         <v>778</v>
@@ -10542,7 +10569,7 @@
         <v>226</v>
       </c>
       <c r="B164" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D164" t="s">
         <v>778</v>
@@ -10553,7 +10580,7 @@
         <v>226</v>
       </c>
       <c r="B165" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D165" t="s">
         <v>778</v>
@@ -10564,7 +10591,7 @@
         <v>226</v>
       </c>
       <c r="B166" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D166" t="s">
         <v>778</v>
@@ -10575,10 +10602,10 @@
         <v>226</v>
       </c>
       <c r="B167" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D167" t="s">
-        <v>674</v>
+        <v>778</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -10586,10 +10613,10 @@
         <v>226</v>
       </c>
       <c r="B168" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D168" t="s">
-        <v>674</v>
+        <v>778</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -10597,10 +10624,10 @@
         <v>226</v>
       </c>
       <c r="B169" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D169" t="s">
-        <v>736</v>
+        <v>778</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -10608,10 +10635,10 @@
         <v>226</v>
       </c>
       <c r="B170" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D170" t="s">
-        <v>736</v>
+        <v>674</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -10619,10 +10646,10 @@
         <v>226</v>
       </c>
       <c r="B171" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D171" t="s">
-        <v>736</v>
+        <v>674</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -10766,7 +10793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFA310"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -46569,10 +46596,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L153"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47401,83 +47428,83 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="B61" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="C61" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="D61" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>980</v>
+      <c r="A62" s="3" t="s">
+        <v>979</v>
       </c>
       <c r="B62" t="s">
-        <v>772</v>
+        <v>729</v>
       </c>
       <c r="C62" t="s">
-        <v>994</v>
+        <v>888</v>
       </c>
       <c r="D62" t="s">
-        <v>674</v>
+        <v>724</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>978</v>
+      <c r="A63" t="s">
+        <v>1197</v>
       </c>
       <c r="B63" t="s">
-        <v>728</v>
+        <v>809</v>
       </c>
       <c r="C63" t="s">
-        <v>887</v>
+        <v>1200</v>
       </c>
       <c r="D63" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>975</v>
+      <c r="A64" t="s">
+        <v>1198</v>
       </c>
       <c r="B64" t="s">
-        <v>725</v>
+        <v>810</v>
       </c>
       <c r="C64" t="s">
-        <v>884</v>
+        <v>1201</v>
       </c>
       <c r="D64" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>981</v>
+        <v>1199</v>
       </c>
       <c r="B65" t="s">
-        <v>773</v>
+        <v>811</v>
       </c>
       <c r="C65" t="s">
-        <v>993</v>
+        <v>1202</v>
       </c>
       <c r="D65" t="s">
-        <v>674</v>
+        <v>736</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B66" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C66" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="D66" t="s">
         <v>724</v>
@@ -47485,66 +47512,69 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B67" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C67" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D67" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>982</v>
+      <c r="A68" s="3" t="s">
+        <v>976</v>
       </c>
       <c r="B68" t="s">
-        <v>774</v>
+        <v>726</v>
       </c>
       <c r="C68" t="s">
-        <v>995</v>
+        <v>885</v>
       </c>
       <c r="D68" t="s">
-        <v>674</v>
+        <v>724</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>226</v>
+        <v>980</v>
       </c>
       <c r="B69" t="s">
-        <v>668</v>
+        <v>772</v>
       </c>
       <c r="C69" t="s">
-        <v>821</v>
+        <v>994</v>
+      </c>
+      <c r="D69" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>226</v>
+        <v>981</v>
       </c>
       <c r="B70" t="s">
-        <v>670</v>
+        <v>773</v>
       </c>
       <c r="C70" t="s">
-        <v>842</v>
+        <v>993</v>
       </c>
       <c r="D70" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>226</v>
+        <v>982</v>
       </c>
       <c r="B71" t="s">
-        <v>673</v>
+        <v>774</v>
       </c>
       <c r="C71" t="s">
-        <v>832</v>
+        <v>995</v>
       </c>
       <c r="D71" t="s">
         <v>674</v>
@@ -47555,13 +47585,10 @@
         <v>226</v>
       </c>
       <c r="B72" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="C72" t="s">
-        <v>847</v>
-      </c>
-      <c r="D72" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -47569,13 +47596,13 @@
         <v>226</v>
       </c>
       <c r="B73" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="C73" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D73" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -47583,13 +47610,13 @@
         <v>226</v>
       </c>
       <c r="B74" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="C74" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="D74" t="s">
-        <v>839</v>
+        <v>674</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -47597,7 +47624,7 @@
         <v>226</v>
       </c>
       <c r="B75" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C75" t="s">
         <v>847</v>
@@ -47611,13 +47638,13 @@
         <v>226</v>
       </c>
       <c r="B76" t="s">
-        <v>1056</v>
+        <v>687</v>
       </c>
       <c r="C76" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D76" t="s">
-        <v>839</v>
+        <v>674</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -47625,13 +47652,13 @@
         <v>226</v>
       </c>
       <c r="B77" t="s">
-        <v>1071</v>
+        <v>688</v>
       </c>
       <c r="C77" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="D77" t="s">
-        <v>685</v>
+        <v>839</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -47639,7 +47666,7 @@
         <v>226</v>
       </c>
       <c r="B78" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C78" t="s">
         <v>847</v>
@@ -47653,13 +47680,13 @@
         <v>226</v>
       </c>
       <c r="B79" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C79" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="D79" t="s">
-        <v>694</v>
+        <v>839</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -47667,13 +47694,13 @@
         <v>226</v>
       </c>
       <c r="B80" t="s">
-        <v>1058</v>
+        <v>1071</v>
       </c>
       <c r="C80" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D80" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -47681,13 +47708,13 @@
         <v>226</v>
       </c>
       <c r="B81" t="s">
-        <v>1072</v>
+        <v>692</v>
       </c>
       <c r="C81" t="s">
-        <v>864</v>
+        <v>847</v>
       </c>
       <c r="D81" t="s">
-        <v>694</v>
+        <v>839</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -47695,13 +47722,13 @@
         <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>1073</v>
+        <v>1057</v>
       </c>
       <c r="C82" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D82" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -47709,13 +47736,13 @@
         <v>226</v>
       </c>
       <c r="B83" t="s">
-        <v>698</v>
+        <v>1058</v>
       </c>
       <c r="C83" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="D83" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -47723,13 +47750,13 @@
         <v>226</v>
       </c>
       <c r="B84" t="s">
-        <v>699</v>
+        <v>1072</v>
       </c>
       <c r="C84" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="D84" t="s">
-        <v>840</v>
+        <v>694</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -47737,13 +47764,13 @@
         <v>226</v>
       </c>
       <c r="B85" t="s">
-        <v>700</v>
+        <v>1073</v>
       </c>
       <c r="C85" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="D85" t="s">
-        <v>841</v>
+        <v>695</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -47751,13 +47778,13 @@
         <v>226</v>
       </c>
       <c r="B86" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C86" t="s">
         <v>847</v>
       </c>
       <c r="D86" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -47765,13 +47792,13 @@
         <v>226</v>
       </c>
       <c r="B87" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C87" t="s">
         <v>847</v>
       </c>
       <c r="D87" t="s">
-        <v>695</v>
+        <v>840</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -47779,13 +47806,13 @@
         <v>226</v>
       </c>
       <c r="B88" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C88" t="s">
-        <v>869</v>
+        <v>847</v>
       </c>
       <c r="D88" t="s">
-        <v>704</v>
+        <v>841</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -47793,13 +47820,13 @@
         <v>226</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>701</v>
       </c>
       <c r="C89" t="s">
-        <v>891</v>
+        <v>847</v>
       </c>
       <c r="D89" t="s">
-        <v>734</v>
+        <v>694</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -47807,13 +47834,13 @@
         <v>226</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>702</v>
       </c>
       <c r="C90" t="s">
-        <v>892</v>
+        <v>847</v>
       </c>
       <c r="D90" t="s">
-        <v>734</v>
+        <v>695</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -47821,13 +47848,13 @@
         <v>226</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>703</v>
       </c>
       <c r="C91" t="s">
-        <v>897</v>
+        <v>869</v>
       </c>
       <c r="D91" t="s">
-        <v>734</v>
+        <v>704</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -47835,13 +47862,13 @@
         <v>226</v>
       </c>
       <c r="B92" t="s">
-        <v>742</v>
+        <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="D92" t="s">
-        <v>674</v>
+        <v>734</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -47849,13 +47876,13 @@
         <v>226</v>
       </c>
       <c r="B93" t="s">
-        <v>743</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="D93" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -47863,13 +47890,13 @@
         <v>226</v>
       </c>
       <c r="B94" t="s">
-        <v>744</v>
+        <v>30</v>
       </c>
       <c r="C94" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D94" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -47877,13 +47904,13 @@
         <v>226</v>
       </c>
       <c r="B95" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C95" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D95" t="s">
-        <v>738</v>
+        <v>674</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -47891,10 +47918,10 @@
         <v>226</v>
       </c>
       <c r="B96" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C96" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D96" t="s">
         <v>738</v>
@@ -47905,10 +47932,10 @@
         <v>226</v>
       </c>
       <c r="B97" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C97" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D97" t="s">
         <v>738</v>
@@ -47919,10 +47946,10 @@
         <v>226</v>
       </c>
       <c r="B98" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C98" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D98" t="s">
         <v>738</v>
@@ -47933,10 +47960,10 @@
         <v>226</v>
       </c>
       <c r="B99" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C99" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D99" t="s">
         <v>738</v>
@@ -47947,13 +47974,13 @@
         <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C100" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D100" t="s">
-        <v>677</v>
+        <v>738</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -47961,13 +47988,13 @@
         <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C101" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D101" t="s">
-        <v>674</v>
+        <v>738</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -47975,13 +48002,13 @@
         <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C102" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D102" t="s">
-        <v>680</v>
+        <v>738</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -47989,13 +48016,13 @@
         <v>226</v>
       </c>
       <c r="B103" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C103" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D103" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -48003,13 +48030,13 @@
         <v>226</v>
       </c>
       <c r="B104" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C104" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D104" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -48017,13 +48044,13 @@
         <v>226</v>
       </c>
       <c r="B105" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C105" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D105" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -48031,13 +48058,13 @@
         <v>226</v>
       </c>
       <c r="B106" t="s">
-        <v>1059</v>
+        <v>753</v>
       </c>
       <c r="C106" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D106" t="s">
-        <v>839</v>
+        <v>674</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -48045,13 +48072,13 @@
         <v>226</v>
       </c>
       <c r="B107" t="s">
-        <v>1060</v>
+        <v>754</v>
       </c>
       <c r="C107" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D107" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -48059,13 +48086,13 @@
         <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>1074</v>
+        <v>755</v>
       </c>
       <c r="C108" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D108" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -48073,13 +48100,13 @@
         <v>226</v>
       </c>
       <c r="B109" t="s">
-        <v>1075</v>
+        <v>1059</v>
       </c>
       <c r="C109" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D109" t="s">
-        <v>674</v>
+        <v>839</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -48087,13 +48114,13 @@
         <v>226</v>
       </c>
       <c r="B110" t="s">
-        <v>756</v>
+        <v>1060</v>
       </c>
       <c r="C110" t="s">
-        <v>847</v>
+        <v>913</v>
       </c>
       <c r="D110" t="s">
-        <v>839</v>
+        <v>674</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -48101,13 +48128,13 @@
         <v>226</v>
       </c>
       <c r="B111" t="s">
-        <v>757</v>
+        <v>1074</v>
       </c>
       <c r="C111" t="s">
-        <v>847</v>
+        <v>912</v>
       </c>
       <c r="D111" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -48115,11 +48142,13 @@
         <v>226</v>
       </c>
       <c r="B112" t="s">
-        <v>758</v>
-      </c>
-      <c r="C112" s="3"/>
+        <v>1075</v>
+      </c>
+      <c r="C112" t="s">
+        <v>913</v>
+      </c>
       <c r="D112" t="s">
-        <v>967</v>
+        <v>674</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -48127,11 +48156,13 @@
         <v>226</v>
       </c>
       <c r="B113" t="s">
-        <v>759</v>
-      </c>
-      <c r="C113" s="3"/>
+        <v>756</v>
+      </c>
+      <c r="C113" t="s">
+        <v>847</v>
+      </c>
       <c r="D113" t="s">
-        <v>967</v>
+        <v>839</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -48139,11 +48170,13 @@
         <v>226</v>
       </c>
       <c r="B114" t="s">
-        <v>760</v>
-      </c>
-      <c r="C114" s="3"/>
+        <v>757</v>
+      </c>
+      <c r="C114" t="s">
+        <v>847</v>
+      </c>
       <c r="D114" t="s">
-        <v>967</v>
+        <v>674</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -48151,7 +48184,7 @@
         <v>226</v>
       </c>
       <c r="B115" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" t="s">
@@ -48163,7 +48196,7 @@
         <v>226</v>
       </c>
       <c r="B116" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" t="s">
@@ -48175,7 +48208,7 @@
         <v>226</v>
       </c>
       <c r="B117" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" t="s">
@@ -48187,7 +48220,7 @@
         <v>226</v>
       </c>
       <c r="B118" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" t="s">
@@ -48199,7 +48232,7 @@
         <v>226</v>
       </c>
       <c r="B119" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" t="s">
@@ -48211,11 +48244,11 @@
         <v>226</v>
       </c>
       <c r="B120" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -48223,11 +48256,11 @@
         <v>226</v>
       </c>
       <c r="B121" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -48235,11 +48268,11 @@
         <v>226</v>
       </c>
       <c r="B122" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" t="s">
-        <v>769</v>
+        <v>967</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -48247,11 +48280,11 @@
         <v>226</v>
       </c>
       <c r="B123" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" t="s">
-        <v>771</v>
+        <v>968</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -48259,11 +48292,11 @@
         <v>226</v>
       </c>
       <c r="B124" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" t="s">
-        <v>674</v>
+        <v>968</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -48271,10 +48304,11 @@
         <v>226</v>
       </c>
       <c r="B125" t="s">
-        <v>777</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="C125" s="3"/>
       <c r="D125" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -48282,10 +48316,11 @@
         <v>226</v>
       </c>
       <c r="B126" t="s">
-        <v>779</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="C126" s="3"/>
       <c r="D126" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -48293,10 +48328,11 @@
         <v>226</v>
       </c>
       <c r="B127" t="s">
-        <v>780</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="C127" s="3"/>
       <c r="D127" t="s">
-        <v>778</v>
+        <v>674</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -48304,7 +48340,7 @@
         <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D128" t="s">
         <v>778</v>
@@ -48315,7 +48351,7 @@
         <v>226</v>
       </c>
       <c r="B129" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D129" t="s">
         <v>778</v>
@@ -48326,7 +48362,7 @@
         <v>226</v>
       </c>
       <c r="B130" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D130" t="s">
         <v>778</v>
@@ -48337,7 +48373,7 @@
         <v>226</v>
       </c>
       <c r="B131" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D131" t="s">
         <v>778</v>
@@ -48348,7 +48384,7 @@
         <v>226</v>
       </c>
       <c r="B132" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D132" t="s">
         <v>778</v>
@@ -48359,7 +48395,7 @@
         <v>226</v>
       </c>
       <c r="B133" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D133" t="s">
         <v>778</v>
@@ -48370,7 +48406,7 @@
         <v>226</v>
       </c>
       <c r="B134" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D134" t="s">
         <v>778</v>
@@ -48381,7 +48417,7 @@
         <v>226</v>
       </c>
       <c r="B135" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D135" t="s">
         <v>778</v>
@@ -48392,7 +48428,7 @@
         <v>226</v>
       </c>
       <c r="B136" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D136" t="s">
         <v>778</v>
@@ -48403,7 +48439,7 @@
         <v>226</v>
       </c>
       <c r="B137" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D137" t="s">
         <v>778</v>
@@ -48414,10 +48450,10 @@
         <v>226</v>
       </c>
       <c r="B138" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="D138" t="s">
-        <v>674</v>
+        <v>778</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -48425,10 +48461,10 @@
         <v>226</v>
       </c>
       <c r="B139" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="D139" t="s">
-        <v>674</v>
+        <v>778</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -48436,10 +48472,10 @@
         <v>226</v>
       </c>
       <c r="B140" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="D140" t="s">
-        <v>736</v>
+        <v>778</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -48447,10 +48483,10 @@
         <v>226</v>
       </c>
       <c r="B141" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D141" t="s">
-        <v>736</v>
+        <v>674</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -48458,10 +48494,10 @@
         <v>226</v>
       </c>
       <c r="B142" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D142" t="s">
-        <v>736</v>
+        <v>674</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -48469,10 +48505,10 @@
         <v>226</v>
       </c>
       <c r="B143" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D143" t="s">
-        <v>813</v>
+        <v>736</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -48480,10 +48516,10 @@
         <v>226</v>
       </c>
       <c r="B144" t="s">
-        <v>1061</v>
+        <v>810</v>
       </c>
       <c r="D144" t="s">
-        <v>814</v>
+        <v>736</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -48491,10 +48527,10 @@
         <v>226</v>
       </c>
       <c r="B145" t="s">
-        <v>1076</v>
+        <v>811</v>
       </c>
       <c r="D145" t="s">
-        <v>814</v>
+        <v>736</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -48502,10 +48538,10 @@
         <v>226</v>
       </c>
       <c r="B146" t="s">
-        <v>1046</v>
+        <v>812</v>
       </c>
       <c r="D146" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -48513,7 +48549,7 @@
         <v>226</v>
       </c>
       <c r="B147" t="s">
-        <v>815</v>
+        <v>1061</v>
       </c>
       <c r="D147" t="s">
         <v>814</v>
@@ -48524,10 +48560,10 @@
         <v>226</v>
       </c>
       <c r="B148" t="s">
-        <v>816</v>
+        <v>1076</v>
       </c>
       <c r="D148" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -48535,7 +48571,7 @@
         <v>226</v>
       </c>
       <c r="B149" t="s">
-        <v>1062</v>
+        <v>1046</v>
       </c>
       <c r="D149" t="s">
         <v>814</v>
@@ -48546,7 +48582,7 @@
         <v>226</v>
       </c>
       <c r="B150" t="s">
-        <v>1077</v>
+        <v>815</v>
       </c>
       <c r="D150" t="s">
         <v>814</v>
@@ -48557,10 +48593,10 @@
         <v>226</v>
       </c>
       <c r="B151" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D151" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -48568,7 +48604,7 @@
         <v>226</v>
       </c>
       <c r="B152" t="s">
-        <v>819</v>
+        <v>1062</v>
       </c>
       <c r="D152" t="s">
         <v>814</v>
@@ -48579,9 +48615,42 @@
         <v>226</v>
       </c>
       <c r="B153" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D153" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>226</v>
+      </c>
+      <c r="B154" t="s">
+        <v>818</v>
+      </c>
+      <c r="D154" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>226</v>
+      </c>
+      <c r="B155" t="s">
+        <v>819</v>
+      </c>
+      <c r="D155" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>226</v>
+      </c>
+      <c r="B156" t="s">
         <v>820</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D156" t="s">
         <v>814</v>
       </c>
     </row>
@@ -48594,7 +48663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
@@ -50853,9 +50922,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L162"/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:A80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -51821,83 +51892,83 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="B70" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="C70" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="D70" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>980</v>
+      <c r="A71" s="3" t="s">
+        <v>979</v>
       </c>
       <c r="B71" t="s">
-        <v>772</v>
+        <v>729</v>
       </c>
       <c r="C71" t="s">
-        <v>994</v>
+        <v>888</v>
       </c>
       <c r="D71" t="s">
-        <v>674</v>
+        <v>724</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>978</v>
+      <c r="A72" t="s">
+        <v>1197</v>
       </c>
       <c r="B72" t="s">
-        <v>728</v>
+        <v>809</v>
       </c>
       <c r="C72" t="s">
-        <v>887</v>
+        <v>1200</v>
       </c>
       <c r="D72" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>975</v>
+      <c r="A73" t="s">
+        <v>1198</v>
       </c>
       <c r="B73" t="s">
-        <v>725</v>
+        <v>810</v>
       </c>
       <c r="C73" t="s">
-        <v>884</v>
+        <v>1201</v>
       </c>
       <c r="D73" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>981</v>
+        <v>1199</v>
       </c>
       <c r="B74" t="s">
-        <v>773</v>
+        <v>811</v>
       </c>
       <c r="C74" t="s">
-        <v>993</v>
+        <v>1202</v>
       </c>
       <c r="D74" t="s">
-        <v>674</v>
+        <v>736</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B75" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C75" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="D75" t="s">
         <v>724</v>
@@ -51905,66 +51976,69 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B76" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C76" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D76" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>982</v>
+      <c r="A77" s="3" t="s">
+        <v>976</v>
       </c>
       <c r="B77" t="s">
-        <v>774</v>
+        <v>726</v>
       </c>
       <c r="C77" t="s">
-        <v>995</v>
+        <v>885</v>
       </c>
       <c r="D77" t="s">
-        <v>674</v>
+        <v>724</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>980</v>
       </c>
       <c r="B78" t="s">
-        <v>668</v>
+        <v>772</v>
       </c>
       <c r="C78" t="s">
-        <v>821</v>
+        <v>994</v>
+      </c>
+      <c r="D78" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>226</v>
+        <v>981</v>
       </c>
       <c r="B79" t="s">
-        <v>670</v>
+        <v>773</v>
       </c>
       <c r="C79" t="s">
-        <v>842</v>
+        <v>993</v>
       </c>
       <c r="D79" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>226</v>
+        <v>982</v>
       </c>
       <c r="B80" t="s">
-        <v>673</v>
+        <v>774</v>
       </c>
       <c r="C80" t="s">
-        <v>832</v>
+        <v>995</v>
       </c>
       <c r="D80" t="s">
         <v>674</v>
@@ -51975,13 +52049,10 @@
         <v>226</v>
       </c>
       <c r="B81" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="C81" t="s">
-        <v>847</v>
-      </c>
-      <c r="D81" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -51989,13 +52060,13 @@
         <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="C82" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D82" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -52003,13 +52074,13 @@
         <v>226</v>
       </c>
       <c r="B83" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="C83" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="D83" t="s">
-        <v>839</v>
+        <v>674</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -52017,7 +52088,7 @@
         <v>226</v>
       </c>
       <c r="B84" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C84" t="s">
         <v>847</v>
@@ -52031,13 +52102,13 @@
         <v>226</v>
       </c>
       <c r="B85" t="s">
-        <v>1056</v>
+        <v>687</v>
       </c>
       <c r="C85" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D85" t="s">
-        <v>839</v>
+        <v>674</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -52045,13 +52116,13 @@
         <v>226</v>
       </c>
       <c r="B86" t="s">
-        <v>1071</v>
+        <v>688</v>
       </c>
       <c r="C86" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="D86" t="s">
-        <v>685</v>
+        <v>839</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -52059,7 +52130,7 @@
         <v>226</v>
       </c>
       <c r="B87" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C87" t="s">
         <v>847</v>
@@ -52073,13 +52144,13 @@
         <v>226</v>
       </c>
       <c r="B88" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C88" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="D88" t="s">
-        <v>694</v>
+        <v>839</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -52087,13 +52158,13 @@
         <v>226</v>
       </c>
       <c r="B89" t="s">
-        <v>1058</v>
+        <v>1071</v>
       </c>
       <c r="C89" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D89" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -52101,13 +52172,13 @@
         <v>226</v>
       </c>
       <c r="B90" t="s">
-        <v>1072</v>
+        <v>692</v>
       </c>
       <c r="C90" t="s">
-        <v>864</v>
+        <v>847</v>
       </c>
       <c r="D90" t="s">
-        <v>694</v>
+        <v>839</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -52115,13 +52186,13 @@
         <v>226</v>
       </c>
       <c r="B91" t="s">
-        <v>1073</v>
+        <v>1057</v>
       </c>
       <c r="C91" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D91" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -52129,13 +52200,13 @@
         <v>226</v>
       </c>
       <c r="B92" t="s">
-        <v>698</v>
+        <v>1058</v>
       </c>
       <c r="C92" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="D92" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -52143,13 +52214,13 @@
         <v>226</v>
       </c>
       <c r="B93" t="s">
-        <v>699</v>
+        <v>1072</v>
       </c>
       <c r="C93" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="D93" t="s">
-        <v>840</v>
+        <v>694</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -52157,13 +52228,13 @@
         <v>226</v>
       </c>
       <c r="B94" t="s">
-        <v>700</v>
+        <v>1073</v>
       </c>
       <c r="C94" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="D94" t="s">
-        <v>841</v>
+        <v>695</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -52171,13 +52242,13 @@
         <v>226</v>
       </c>
       <c r="B95" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C95" t="s">
         <v>847</v>
       </c>
       <c r="D95" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -52185,13 +52256,13 @@
         <v>226</v>
       </c>
       <c r="B96" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C96" t="s">
         <v>847</v>
       </c>
       <c r="D96" t="s">
-        <v>695</v>
+        <v>840</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -52199,13 +52270,13 @@
         <v>226</v>
       </c>
       <c r="B97" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C97" t="s">
-        <v>869</v>
+        <v>847</v>
       </c>
       <c r="D97" t="s">
-        <v>704</v>
+        <v>841</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -52213,13 +52284,13 @@
         <v>226</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>701</v>
       </c>
       <c r="C98" t="s">
-        <v>891</v>
+        <v>847</v>
       </c>
       <c r="D98" t="s">
-        <v>734</v>
+        <v>694</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -52227,13 +52298,13 @@
         <v>226</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>702</v>
       </c>
       <c r="C99" t="s">
-        <v>892</v>
+        <v>847</v>
       </c>
       <c r="D99" t="s">
-        <v>734</v>
+        <v>695</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -52241,13 +52312,13 @@
         <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>703</v>
       </c>
       <c r="C100" t="s">
-        <v>897</v>
+        <v>869</v>
       </c>
       <c r="D100" t="s">
-        <v>734</v>
+        <v>704</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -52255,13 +52326,13 @@
         <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>742</v>
+        <v>32</v>
       </c>
       <c r="C101" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="D101" t="s">
-        <v>674</v>
+        <v>734</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -52269,13 +52340,13 @@
         <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>743</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="D102" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -52283,13 +52354,13 @@
         <v>226</v>
       </c>
       <c r="B103" t="s">
-        <v>744</v>
+        <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D103" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -52297,13 +52368,13 @@
         <v>226</v>
       </c>
       <c r="B104" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C104" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D104" t="s">
-        <v>738</v>
+        <v>674</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -52311,10 +52382,10 @@
         <v>226</v>
       </c>
       <c r="B105" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C105" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D105" t="s">
         <v>738</v>
@@ -52325,10 +52396,10 @@
         <v>226</v>
       </c>
       <c r="B106" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C106" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D106" t="s">
         <v>738</v>
@@ -52339,10 +52410,10 @@
         <v>226</v>
       </c>
       <c r="B107" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C107" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D107" t="s">
         <v>738</v>
@@ -52353,10 +52424,10 @@
         <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C108" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D108" t="s">
         <v>738</v>
@@ -52367,13 +52438,13 @@
         <v>226</v>
       </c>
       <c r="B109" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C109" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D109" t="s">
-        <v>677</v>
+        <v>738</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -52381,13 +52452,13 @@
         <v>226</v>
       </c>
       <c r="B110" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C110" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D110" t="s">
-        <v>674</v>
+        <v>738</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -52395,13 +52466,13 @@
         <v>226</v>
       </c>
       <c r="B111" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C111" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D111" t="s">
-        <v>680</v>
+        <v>738</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -52409,13 +52480,13 @@
         <v>226</v>
       </c>
       <c r="B112" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C112" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D112" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -52423,13 +52494,13 @@
         <v>226</v>
       </c>
       <c r="B113" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C113" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D113" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -52437,13 +52508,13 @@
         <v>226</v>
       </c>
       <c r="B114" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C114" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D114" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -52451,13 +52522,13 @@
         <v>226</v>
       </c>
       <c r="B115" t="s">
-        <v>1059</v>
+        <v>753</v>
       </c>
       <c r="C115" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D115" t="s">
-        <v>839</v>
+        <v>674</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -52465,13 +52536,13 @@
         <v>226</v>
       </c>
       <c r="B116" t="s">
-        <v>1060</v>
+        <v>754</v>
       </c>
       <c r="C116" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D116" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -52479,13 +52550,13 @@
         <v>226</v>
       </c>
       <c r="B117" t="s">
-        <v>1074</v>
+        <v>755</v>
       </c>
       <c r="C117" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D117" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -52493,13 +52564,13 @@
         <v>226</v>
       </c>
       <c r="B118" t="s">
-        <v>1075</v>
+        <v>1059</v>
       </c>
       <c r="C118" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D118" t="s">
-        <v>674</v>
+        <v>839</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -52507,13 +52578,13 @@
         <v>226</v>
       </c>
       <c r="B119" t="s">
-        <v>756</v>
+        <v>1060</v>
       </c>
       <c r="C119" t="s">
-        <v>847</v>
+        <v>913</v>
       </c>
       <c r="D119" t="s">
-        <v>839</v>
+        <v>674</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -52521,13 +52592,13 @@
         <v>226</v>
       </c>
       <c r="B120" t="s">
-        <v>757</v>
+        <v>1074</v>
       </c>
       <c r="C120" t="s">
-        <v>847</v>
+        <v>912</v>
       </c>
       <c r="D120" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -52535,11 +52606,13 @@
         <v>226</v>
       </c>
       <c r="B121" t="s">
-        <v>758</v>
-      </c>
-      <c r="C121" s="3"/>
+        <v>1075</v>
+      </c>
+      <c r="C121" t="s">
+        <v>913</v>
+      </c>
       <c r="D121" t="s">
-        <v>967</v>
+        <v>674</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -52547,11 +52620,13 @@
         <v>226</v>
       </c>
       <c r="B122" t="s">
-        <v>759</v>
-      </c>
-      <c r="C122" s="3"/>
+        <v>756</v>
+      </c>
+      <c r="C122" t="s">
+        <v>847</v>
+      </c>
       <c r="D122" t="s">
-        <v>967</v>
+        <v>839</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -52559,11 +52634,13 @@
         <v>226</v>
       </c>
       <c r="B123" t="s">
-        <v>760</v>
-      </c>
-      <c r="C123" s="3"/>
+        <v>757</v>
+      </c>
+      <c r="C123" t="s">
+        <v>847</v>
+      </c>
       <c r="D123" t="s">
-        <v>967</v>
+        <v>674</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -52571,7 +52648,7 @@
         <v>226</v>
       </c>
       <c r="B124" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" t="s">
@@ -52583,7 +52660,7 @@
         <v>226</v>
       </c>
       <c r="B125" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" t="s">
@@ -52595,7 +52672,7 @@
         <v>226</v>
       </c>
       <c r="B126" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" t="s">
@@ -52607,7 +52684,7 @@
         <v>226</v>
       </c>
       <c r="B127" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" t="s">
@@ -52619,7 +52696,7 @@
         <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" t="s">
@@ -52631,11 +52708,11 @@
         <v>226</v>
       </c>
       <c r="B129" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -52643,11 +52720,11 @@
         <v>226</v>
       </c>
       <c r="B130" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -52655,11 +52732,11 @@
         <v>226</v>
       </c>
       <c r="B131" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" t="s">
-        <v>769</v>
+        <v>967</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -52667,11 +52744,11 @@
         <v>226</v>
       </c>
       <c r="B132" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" t="s">
-        <v>771</v>
+        <v>968</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -52679,11 +52756,11 @@
         <v>226</v>
       </c>
       <c r="B133" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" t="s">
-        <v>674</v>
+        <v>968</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -52691,10 +52768,11 @@
         <v>226</v>
       </c>
       <c r="B134" t="s">
-        <v>777</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="C134" s="3"/>
       <c r="D134" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -52702,10 +52780,11 @@
         <v>226</v>
       </c>
       <c r="B135" t="s">
-        <v>779</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="C135" s="3"/>
       <c r="D135" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -52713,10 +52792,11 @@
         <v>226</v>
       </c>
       <c r="B136" t="s">
-        <v>780</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="C136" s="3"/>
       <c r="D136" t="s">
-        <v>778</v>
+        <v>674</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -52724,7 +52804,7 @@
         <v>226</v>
       </c>
       <c r="B137" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D137" t="s">
         <v>778</v>
@@ -52735,7 +52815,7 @@
         <v>226</v>
       </c>
       <c r="B138" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D138" t="s">
         <v>778</v>
@@ -52746,7 +52826,7 @@
         <v>226</v>
       </c>
       <c r="B139" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D139" t="s">
         <v>778</v>
@@ -52757,7 +52837,7 @@
         <v>226</v>
       </c>
       <c r="B140" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D140" t="s">
         <v>778</v>
@@ -52768,7 +52848,7 @@
         <v>226</v>
       </c>
       <c r="B141" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D141" t="s">
         <v>778</v>
@@ -52779,7 +52859,7 @@
         <v>226</v>
       </c>
       <c r="B142" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D142" t="s">
         <v>778</v>
@@ -52790,7 +52870,7 @@
         <v>226</v>
       </c>
       <c r="B143" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D143" t="s">
         <v>778</v>
@@ -52801,7 +52881,7 @@
         <v>226</v>
       </c>
       <c r="B144" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D144" t="s">
         <v>778</v>
@@ -52812,7 +52892,7 @@
         <v>226</v>
       </c>
       <c r="B145" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D145" t="s">
         <v>778</v>
@@ -52823,7 +52903,7 @@
         <v>226</v>
       </c>
       <c r="B146" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D146" t="s">
         <v>778</v>
@@ -52834,10 +52914,10 @@
         <v>226</v>
       </c>
       <c r="B147" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="D147" t="s">
-        <v>674</v>
+        <v>778</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -52845,10 +52925,10 @@
         <v>226</v>
       </c>
       <c r="B148" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="D148" t="s">
-        <v>674</v>
+        <v>778</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -52856,10 +52936,10 @@
         <v>226</v>
       </c>
       <c r="B149" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="D149" t="s">
-        <v>736</v>
+        <v>778</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -52867,10 +52947,10 @@
         <v>226</v>
       </c>
       <c r="B150" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D150" t="s">
-        <v>736</v>
+        <v>674</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -52878,10 +52958,10 @@
         <v>226</v>
       </c>
       <c r="B151" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D151" t="s">
-        <v>736</v>
+        <v>674</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -52889,10 +52969,10 @@
         <v>226</v>
       </c>
       <c r="B152" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D152" t="s">
-        <v>813</v>
+        <v>736</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -52900,10 +52980,10 @@
         <v>226</v>
       </c>
       <c r="B153" t="s">
-        <v>1061</v>
+        <v>810</v>
       </c>
       <c r="D153" t="s">
-        <v>814</v>
+        <v>736</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -52911,10 +52991,10 @@
         <v>226</v>
       </c>
       <c r="B154" t="s">
-        <v>1076</v>
+        <v>811</v>
       </c>
       <c r="D154" t="s">
-        <v>814</v>
+        <v>736</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -52922,10 +53002,10 @@
         <v>226</v>
       </c>
       <c r="B155" t="s">
-        <v>1046</v>
+        <v>812</v>
       </c>
       <c r="D155" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -52933,7 +53013,7 @@
         <v>226</v>
       </c>
       <c r="B156" t="s">
-        <v>815</v>
+        <v>1061</v>
       </c>
       <c r="D156" t="s">
         <v>814</v>
@@ -52944,10 +53024,10 @@
         <v>226</v>
       </c>
       <c r="B157" t="s">
-        <v>816</v>
+        <v>1076</v>
       </c>
       <c r="D157" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -52955,7 +53035,7 @@
         <v>226</v>
       </c>
       <c r="B158" t="s">
-        <v>1062</v>
+        <v>1046</v>
       </c>
       <c r="D158" t="s">
         <v>814</v>
@@ -52966,7 +53046,7 @@
         <v>226</v>
       </c>
       <c r="B159" t="s">
-        <v>1077</v>
+        <v>815</v>
       </c>
       <c r="D159" t="s">
         <v>814</v>
@@ -52977,10 +53057,10 @@
         <v>226</v>
       </c>
       <c r="B160" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D160" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -52988,7 +53068,7 @@
         <v>226</v>
       </c>
       <c r="B161" t="s">
-        <v>819</v>
+        <v>1062</v>
       </c>
       <c r="D161" t="s">
         <v>814</v>
@@ -52999,9 +53079,42 @@
         <v>226</v>
       </c>
       <c r="B162" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D162" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>226</v>
+      </c>
+      <c r="B163" t="s">
+        <v>818</v>
+      </c>
+      <c r="D163" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>226</v>
+      </c>
+      <c r="B164" t="s">
+        <v>819</v>
+      </c>
+      <c r="D164" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>226</v>
+      </c>
+      <c r="B165" t="s">
         <v>820</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D165" t="s">
         <v>814</v>
       </c>
     </row>
@@ -54944,9 +55057,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L153"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A71" sqref="A60:XFD71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -55776,83 +55891,83 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="B61" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="C61" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="D61" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>980</v>
+      <c r="A62" s="3" t="s">
+        <v>979</v>
       </c>
       <c r="B62" t="s">
-        <v>772</v>
+        <v>729</v>
       </c>
       <c r="C62" t="s">
-        <v>994</v>
+        <v>888</v>
       </c>
       <c r="D62" t="s">
-        <v>674</v>
+        <v>724</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>978</v>
+      <c r="A63" t="s">
+        <v>1197</v>
       </c>
       <c r="B63" t="s">
-        <v>728</v>
+        <v>809</v>
       </c>
       <c r="C63" t="s">
-        <v>887</v>
+        <v>1200</v>
       </c>
       <c r="D63" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>975</v>
+      <c r="A64" t="s">
+        <v>1198</v>
       </c>
       <c r="B64" t="s">
-        <v>725</v>
+        <v>810</v>
       </c>
       <c r="C64" t="s">
-        <v>884</v>
+        <v>1201</v>
       </c>
       <c r="D64" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>981</v>
+        <v>1199</v>
       </c>
       <c r="B65" t="s">
-        <v>773</v>
+        <v>811</v>
       </c>
       <c r="C65" t="s">
-        <v>993</v>
+        <v>1202</v>
       </c>
       <c r="D65" t="s">
-        <v>674</v>
+        <v>736</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B66" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="C66" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="D66" t="s">
         <v>724</v>
@@ -55860,66 +55975,69 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B67" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C67" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D67" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>982</v>
+      <c r="A68" s="3" t="s">
+        <v>976</v>
       </c>
       <c r="B68" t="s">
-        <v>774</v>
+        <v>726</v>
       </c>
       <c r="C68" t="s">
-        <v>995</v>
+        <v>885</v>
       </c>
       <c r="D68" t="s">
-        <v>674</v>
+        <v>724</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>226</v>
+        <v>980</v>
       </c>
       <c r="B69" t="s">
-        <v>668</v>
+        <v>772</v>
       </c>
       <c r="C69" t="s">
-        <v>821</v>
+        <v>994</v>
+      </c>
+      <c r="D69" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>226</v>
+        <v>981</v>
       </c>
       <c r="B70" t="s">
-        <v>670</v>
+        <v>773</v>
       </c>
       <c r="C70" t="s">
-        <v>842</v>
+        <v>993</v>
       </c>
       <c r="D70" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>226</v>
+        <v>982</v>
       </c>
       <c r="B71" t="s">
-        <v>673</v>
+        <v>774</v>
       </c>
       <c r="C71" t="s">
-        <v>832</v>
+        <v>995</v>
       </c>
       <c r="D71" t="s">
         <v>674</v>
@@ -55930,13 +56048,10 @@
         <v>226</v>
       </c>
       <c r="B72" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="C72" t="s">
-        <v>847</v>
-      </c>
-      <c r="D72" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -55944,13 +56059,13 @@
         <v>226</v>
       </c>
       <c r="B73" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="C73" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D73" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -55958,13 +56073,13 @@
         <v>226</v>
       </c>
       <c r="B74" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="C74" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="D74" t="s">
-        <v>839</v>
+        <v>674</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -55972,7 +56087,7 @@
         <v>226</v>
       </c>
       <c r="B75" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C75" t="s">
         <v>847</v>
@@ -55986,13 +56101,13 @@
         <v>226</v>
       </c>
       <c r="B76" t="s">
-        <v>1056</v>
+        <v>687</v>
       </c>
       <c r="C76" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D76" t="s">
-        <v>839</v>
+        <v>674</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -56000,13 +56115,13 @@
         <v>226</v>
       </c>
       <c r="B77" t="s">
-        <v>1071</v>
+        <v>688</v>
       </c>
       <c r="C77" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="D77" t="s">
-        <v>685</v>
+        <v>839</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -56014,7 +56129,7 @@
         <v>226</v>
       </c>
       <c r="B78" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C78" t="s">
         <v>847</v>
@@ -56028,13 +56143,13 @@
         <v>226</v>
       </c>
       <c r="B79" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C79" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="D79" t="s">
-        <v>694</v>
+        <v>839</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -56042,13 +56157,13 @@
         <v>226</v>
       </c>
       <c r="B80" t="s">
-        <v>1058</v>
+        <v>1071</v>
       </c>
       <c r="C80" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D80" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -56056,13 +56171,13 @@
         <v>226</v>
       </c>
       <c r="B81" t="s">
-        <v>1072</v>
+        <v>692</v>
       </c>
       <c r="C81" t="s">
-        <v>864</v>
+        <v>847</v>
       </c>
       <c r="D81" t="s">
-        <v>694</v>
+        <v>839</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -56070,13 +56185,13 @@
         <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>1073</v>
+        <v>1057</v>
       </c>
       <c r="C82" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D82" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -56084,13 +56199,13 @@
         <v>226</v>
       </c>
       <c r="B83" t="s">
-        <v>698</v>
+        <v>1058</v>
       </c>
       <c r="C83" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="D83" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -56098,13 +56213,13 @@
         <v>226</v>
       </c>
       <c r="B84" t="s">
-        <v>699</v>
+        <v>1072</v>
       </c>
       <c r="C84" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="D84" t="s">
-        <v>840</v>
+        <v>694</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -56112,13 +56227,13 @@
         <v>226</v>
       </c>
       <c r="B85" t="s">
-        <v>700</v>
+        <v>1073</v>
       </c>
       <c r="C85" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="D85" t="s">
-        <v>841</v>
+        <v>695</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -56126,13 +56241,13 @@
         <v>226</v>
       </c>
       <c r="B86" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C86" t="s">
         <v>847</v>
       </c>
       <c r="D86" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -56140,13 +56255,13 @@
         <v>226</v>
       </c>
       <c r="B87" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C87" t="s">
         <v>847</v>
       </c>
       <c r="D87" t="s">
-        <v>695</v>
+        <v>840</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -56154,13 +56269,13 @@
         <v>226</v>
       </c>
       <c r="B88" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C88" t="s">
-        <v>869</v>
+        <v>847</v>
       </c>
       <c r="D88" t="s">
-        <v>704</v>
+        <v>841</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -56168,13 +56283,13 @@
         <v>226</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>701</v>
       </c>
       <c r="C89" t="s">
-        <v>891</v>
+        <v>847</v>
       </c>
       <c r="D89" t="s">
-        <v>734</v>
+        <v>694</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -56182,13 +56297,13 @@
         <v>226</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>702</v>
       </c>
       <c r="C90" t="s">
-        <v>892</v>
+        <v>847</v>
       </c>
       <c r="D90" t="s">
-        <v>734</v>
+        <v>695</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -56196,13 +56311,13 @@
         <v>226</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>703</v>
       </c>
       <c r="C91" t="s">
-        <v>897</v>
+        <v>869</v>
       </c>
       <c r="D91" t="s">
-        <v>734</v>
+        <v>704</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -56210,13 +56325,13 @@
         <v>226</v>
       </c>
       <c r="B92" t="s">
-        <v>742</v>
+        <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="D92" t="s">
-        <v>674</v>
+        <v>734</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -56224,13 +56339,13 @@
         <v>226</v>
       </c>
       <c r="B93" t="s">
-        <v>743</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="D93" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -56238,13 +56353,13 @@
         <v>226</v>
       </c>
       <c r="B94" t="s">
-        <v>744</v>
+        <v>30</v>
       </c>
       <c r="C94" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D94" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -56252,13 +56367,13 @@
         <v>226</v>
       </c>
       <c r="B95" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C95" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D95" t="s">
-        <v>738</v>
+        <v>674</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -56266,10 +56381,10 @@
         <v>226</v>
       </c>
       <c r="B96" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C96" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D96" t="s">
         <v>738</v>
@@ -56280,10 +56395,10 @@
         <v>226</v>
       </c>
       <c r="B97" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C97" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D97" t="s">
         <v>738</v>
@@ -56294,10 +56409,10 @@
         <v>226</v>
       </c>
       <c r="B98" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C98" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D98" t="s">
         <v>738</v>
@@ -56308,10 +56423,10 @@
         <v>226</v>
       </c>
       <c r="B99" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C99" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D99" t="s">
         <v>738</v>
@@ -56322,13 +56437,13 @@
         <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C100" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D100" t="s">
-        <v>677</v>
+        <v>738</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -56336,13 +56451,13 @@
         <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C101" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D101" t="s">
-        <v>674</v>
+        <v>738</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -56350,13 +56465,13 @@
         <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C102" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D102" t="s">
-        <v>680</v>
+        <v>738</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -56364,13 +56479,13 @@
         <v>226</v>
       </c>
       <c r="B103" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C103" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D103" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -56378,13 +56493,13 @@
         <v>226</v>
       </c>
       <c r="B104" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C104" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D104" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -56392,13 +56507,13 @@
         <v>226</v>
       </c>
       <c r="B105" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C105" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D105" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -56406,13 +56521,13 @@
         <v>226</v>
       </c>
       <c r="B106" t="s">
-        <v>1059</v>
+        <v>753</v>
       </c>
       <c r="C106" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D106" t="s">
-        <v>839</v>
+        <v>674</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -56420,13 +56535,13 @@
         <v>226</v>
       </c>
       <c r="B107" t="s">
-        <v>1060</v>
+        <v>754</v>
       </c>
       <c r="C107" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D107" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -56434,13 +56549,13 @@
         <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>1074</v>
+        <v>755</v>
       </c>
       <c r="C108" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D108" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -56448,13 +56563,13 @@
         <v>226</v>
       </c>
       <c r="B109" t="s">
-        <v>1075</v>
+        <v>1059</v>
       </c>
       <c r="C109" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D109" t="s">
-        <v>674</v>
+        <v>839</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -56462,13 +56577,13 @@
         <v>226</v>
       </c>
       <c r="B110" t="s">
-        <v>756</v>
+        <v>1060</v>
       </c>
       <c r="C110" t="s">
-        <v>847</v>
+        <v>913</v>
       </c>
       <c r="D110" t="s">
-        <v>839</v>
+        <v>674</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -56476,13 +56591,13 @@
         <v>226</v>
       </c>
       <c r="B111" t="s">
-        <v>757</v>
+        <v>1074</v>
       </c>
       <c r="C111" t="s">
-        <v>847</v>
+        <v>912</v>
       </c>
       <c r="D111" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -56490,11 +56605,13 @@
         <v>226</v>
       </c>
       <c r="B112" t="s">
-        <v>758</v>
-      </c>
-      <c r="C112" s="3"/>
+        <v>1075</v>
+      </c>
+      <c r="C112" t="s">
+        <v>913</v>
+      </c>
       <c r="D112" t="s">
-        <v>967</v>
+        <v>674</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -56502,11 +56619,13 @@
         <v>226</v>
       </c>
       <c r="B113" t="s">
-        <v>759</v>
-      </c>
-      <c r="C113" s="3"/>
+        <v>756</v>
+      </c>
+      <c r="C113" t="s">
+        <v>847</v>
+      </c>
       <c r="D113" t="s">
-        <v>967</v>
+        <v>839</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -56514,11 +56633,13 @@
         <v>226</v>
       </c>
       <c r="B114" t="s">
-        <v>760</v>
-      </c>
-      <c r="C114" s="3"/>
+        <v>757</v>
+      </c>
+      <c r="C114" t="s">
+        <v>847</v>
+      </c>
       <c r="D114" t="s">
-        <v>967</v>
+        <v>674</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -56526,7 +56647,7 @@
         <v>226</v>
       </c>
       <c r="B115" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" t="s">
@@ -56538,7 +56659,7 @@
         <v>226</v>
       </c>
       <c r="B116" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" t="s">
@@ -56550,7 +56671,7 @@
         <v>226</v>
       </c>
       <c r="B117" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" t="s">
@@ -56562,7 +56683,7 @@
         <v>226</v>
       </c>
       <c r="B118" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" t="s">
@@ -56574,7 +56695,7 @@
         <v>226</v>
       </c>
       <c r="B119" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" t="s">
@@ -56586,11 +56707,11 @@
         <v>226</v>
       </c>
       <c r="B120" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -56598,11 +56719,11 @@
         <v>226</v>
       </c>
       <c r="B121" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -56610,11 +56731,11 @@
         <v>226</v>
       </c>
       <c r="B122" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" t="s">
-        <v>769</v>
+        <v>967</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -56622,11 +56743,11 @@
         <v>226</v>
       </c>
       <c r="B123" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" t="s">
-        <v>771</v>
+        <v>968</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -56634,11 +56755,11 @@
         <v>226</v>
       </c>
       <c r="B124" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" t="s">
-        <v>674</v>
+        <v>968</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -56646,10 +56767,11 @@
         <v>226</v>
       </c>
       <c r="B125" t="s">
-        <v>777</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="C125" s="3"/>
       <c r="D125" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -56657,10 +56779,11 @@
         <v>226</v>
       </c>
       <c r="B126" t="s">
-        <v>779</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="C126" s="3"/>
       <c r="D126" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -56668,10 +56791,11 @@
         <v>226</v>
       </c>
       <c r="B127" t="s">
-        <v>780</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="C127" s="3"/>
       <c r="D127" t="s">
-        <v>778</v>
+        <v>674</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -56679,7 +56803,7 @@
         <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D128" t="s">
         <v>778</v>
@@ -56690,7 +56814,7 @@
         <v>226</v>
       </c>
       <c r="B129" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D129" t="s">
         <v>778</v>
@@ -56701,7 +56825,7 @@
         <v>226</v>
       </c>
       <c r="B130" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D130" t="s">
         <v>778</v>
@@ -56712,7 +56836,7 @@
         <v>226</v>
       </c>
       <c r="B131" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D131" t="s">
         <v>778</v>
@@ -56723,7 +56847,7 @@
         <v>226</v>
       </c>
       <c r="B132" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D132" t="s">
         <v>778</v>
@@ -56734,7 +56858,7 @@
         <v>226</v>
       </c>
       <c r="B133" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D133" t="s">
         <v>778</v>
@@ -56745,7 +56869,7 @@
         <v>226</v>
       </c>
       <c r="B134" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D134" t="s">
         <v>778</v>
@@ -56756,7 +56880,7 @@
         <v>226</v>
       </c>
       <c r="B135" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D135" t="s">
         <v>778</v>
@@ -56767,7 +56891,7 @@
         <v>226</v>
       </c>
       <c r="B136" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D136" t="s">
         <v>778</v>
@@ -56778,7 +56902,7 @@
         <v>226</v>
       </c>
       <c r="B137" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D137" t="s">
         <v>778</v>
@@ -56789,10 +56913,10 @@
         <v>226</v>
       </c>
       <c r="B138" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="D138" t="s">
-        <v>674</v>
+        <v>778</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -56800,10 +56924,10 @@
         <v>226</v>
       </c>
       <c r="B139" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="D139" t="s">
-        <v>674</v>
+        <v>778</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -56811,10 +56935,10 @@
         <v>226</v>
       </c>
       <c r="B140" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="D140" t="s">
-        <v>736</v>
+        <v>778</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -56822,10 +56946,10 @@
         <v>226</v>
       </c>
       <c r="B141" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D141" t="s">
-        <v>736</v>
+        <v>674</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -56833,10 +56957,10 @@
         <v>226</v>
       </c>
       <c r="B142" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D142" t="s">
-        <v>736</v>
+        <v>674</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -56844,10 +56968,10 @@
         <v>226</v>
       </c>
       <c r="B143" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D143" t="s">
-        <v>813</v>
+        <v>736</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -56855,10 +56979,10 @@
         <v>226</v>
       </c>
       <c r="B144" t="s">
-        <v>1061</v>
+        <v>810</v>
       </c>
       <c r="D144" t="s">
-        <v>814</v>
+        <v>736</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -56866,10 +56990,10 @@
         <v>226</v>
       </c>
       <c r="B145" t="s">
-        <v>1076</v>
+        <v>811</v>
       </c>
       <c r="D145" t="s">
-        <v>814</v>
+        <v>736</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -56877,10 +57001,10 @@
         <v>226</v>
       </c>
       <c r="B146" t="s">
-        <v>1046</v>
+        <v>812</v>
       </c>
       <c r="D146" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -56888,7 +57012,7 @@
         <v>226</v>
       </c>
       <c r="B147" t="s">
-        <v>815</v>
+        <v>1061</v>
       </c>
       <c r="D147" t="s">
         <v>814</v>
@@ -56899,10 +57023,10 @@
         <v>226</v>
       </c>
       <c r="B148" t="s">
-        <v>816</v>
+        <v>1076</v>
       </c>
       <c r="D148" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -56910,7 +57034,7 @@
         <v>226</v>
       </c>
       <c r="B149" t="s">
-        <v>1062</v>
+        <v>1046</v>
       </c>
       <c r="D149" t="s">
         <v>814</v>
@@ -56921,7 +57045,7 @@
         <v>226</v>
       </c>
       <c r="B150" t="s">
-        <v>1077</v>
+        <v>815</v>
       </c>
       <c r="D150" t="s">
         <v>814</v>
@@ -56932,10 +57056,10 @@
         <v>226</v>
       </c>
       <c r="B151" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D151" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -56943,7 +57067,7 @@
         <v>226</v>
       </c>
       <c r="B152" t="s">
-        <v>819</v>
+        <v>1062</v>
       </c>
       <c r="D152" t="s">
         <v>814</v>
@@ -56954,9 +57078,42 @@
         <v>226</v>
       </c>
       <c r="B153" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D153" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>226</v>
+      </c>
+      <c r="B154" t="s">
+        <v>818</v>
+      </c>
+      <c r="D154" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>226</v>
+      </c>
+      <c r="B155" t="s">
+        <v>819</v>
+      </c>
+      <c r="D155" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>226</v>
+      </c>
+      <c r="B156" t="s">
         <v>820</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D156" t="s">
         <v>814</v>
       </c>
     </row>

--- a/Resources/Variable_description_full.xlsx
+++ b/Resources/Variable_description_full.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{D9D14E5E-F476-45BE-9422-600D3D140919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1DF97C2-3166-4015-86EC-339441F9990E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="819" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="819" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge_cs" sheetId="1" r:id="rId1"/>
@@ -8427,7 +8427,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Resources/Variable_description_full.xlsx
+++ b/Resources/Variable_description_full.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{D9D14E5E-F476-45BE-9422-600D3D140919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1DF97C2-3166-4015-86EC-339441F9990E}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{D9D14E5E-F476-45BE-9422-600D3D140919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CB7EB46-1617-4C83-B35A-A8B30FB257E9}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="819" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="819" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge_cs" sheetId="1" r:id="rId1"/>
@@ -3288,18 +3288,12 @@
     <t>CO2_density_IRGASON</t>
   </si>
   <si>
-    <t>H20_density_IRGASON</t>
-  </si>
-  <si>
     <t>air_temp_dewPoint_IRGASON</t>
   </si>
   <si>
     <t>wind_speed_max_IRGASON</t>
   </si>
   <si>
-    <t>H20_density_IRGASON107probe</t>
-  </si>
-  <si>
     <t>air_temp_CR6</t>
   </si>
   <si>
@@ -3673,6 +3667,12 @@
   </si>
   <si>
     <t>rssi_h2o_mean</t>
+  </si>
+  <si>
+    <t>H2O_density_IRGASON</t>
+  </si>
+  <si>
+    <t>H2O_density_IRGASON107probe</t>
   </si>
 </sst>
 </file>
@@ -5440,7 +5440,7 @@
         <v>534</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="F77" t="s">
         <v>537</v>
@@ -5460,7 +5460,7 @@
         <v>534</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="F78" t="s">
         <v>537</v>
@@ -5480,7 +5480,7 @@
         <v>5</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="F79" t="s">
         <v>537</v>
@@ -7727,7 +7727,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B14" t="s">
         <v>1003</v>
@@ -7790,7 +7790,7 @@
         <v>917</v>
       </c>
       <c r="B17" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C17" t="s">
         <v>516</v>
@@ -7810,7 +7810,7 @@
         <v>918</v>
       </c>
       <c r="B18" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C18" t="s">
         <v>517</v>
@@ -8427,8 +8427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8459,7 +8459,7 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>169</v>
@@ -9236,44 +9236,44 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D60" t="s">
         <v>1203</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B61" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C61" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D61" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B62" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C62" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D62" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -9446,13 +9446,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B75" t="s">
         <v>809</v>
       </c>
       <c r="C75" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D75" t="s">
         <v>736</v>
@@ -9460,13 +9460,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B76" t="s">
         <v>810</v>
       </c>
       <c r="C76" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D76" t="s">
         <v>736</v>
@@ -9474,13 +9474,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B77" t="s">
         <v>811</v>
       </c>
       <c r="C77" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D77" t="s">
         <v>736</v>
@@ -10866,7 +10866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFA310"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -11355,7 +11357,7 @@
         <v>634</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>34</v>
@@ -11375,7 +11377,7 @@
         <v>635</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>34</v>
@@ -11395,7 +11397,7 @@
         <v>636</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>34</v>
@@ -11415,7 +11417,7 @@
         <v>30</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>34</v>
@@ -11435,7 +11437,7 @@
         <v>31</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>34</v>
@@ -11455,7 +11457,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>34</v>
@@ -44345,7 +44347,7 @@
     </row>
     <row r="45" spans="1:16381" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B45" t="s">
         <v>64</v>
@@ -44407,7 +44409,7 @@
     </row>
     <row r="48" spans="1:16381" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B48" t="s">
         <v>115</v>
@@ -44428,7 +44430,7 @@
     </row>
     <row r="49" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B49" t="s">
         <v>75</v>
@@ -44646,7 +44648,7 @@
     </row>
     <row r="58" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>1085</v>
+        <v>1212</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
@@ -44667,7 +44669,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>1088</v>
+        <v>1213</v>
       </c>
       <c r="B59" t="s">
         <v>78</v>
@@ -44924,7 +44926,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B70" t="s">
         <v>92</v>
@@ -46702,7 +46704,7 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>169</v>
@@ -47357,30 +47359,30 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B51" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C51" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D51" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B52" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C52" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D52" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -47553,13 +47555,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B65" t="s">
         <v>809</v>
       </c>
       <c r="C65" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D65" t="s">
         <v>736</v>
@@ -47567,13 +47569,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B66" t="s">
         <v>810</v>
       </c>
       <c r="C66" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D66" t="s">
         <v>736</v>
@@ -47581,13 +47583,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B67" t="s">
         <v>811</v>
       </c>
       <c r="C67" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D67" t="s">
         <v>736</v>
@@ -48870,7 +48872,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F10" t="s">
         <v>188</v>
@@ -48890,7 +48892,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F11" t="s">
         <v>188</v>
@@ -48910,7 +48912,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F12" t="s">
         <v>188</v>
@@ -48930,7 +48932,7 @@
         <v>142</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F13" t="s">
         <v>188</v>
@@ -48953,7 +48955,7 @@
         <v>203</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F14" t="s">
         <v>188</v>
@@ -48967,7 +48969,7 @@
         <v>226</v>
       </c>
       <c r="B15" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C15" t="s">
         <v>210</v>
@@ -48976,7 +48978,7 @@
         <v>200</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="F15" t="s">
         <v>215</v>
@@ -48987,7 +48989,7 @@
         <v>226</v>
       </c>
       <c r="B16" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C16" t="s">
         <v>211</v>
@@ -48996,7 +48998,7 @@
         <v>79</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="F16" t="s">
         <v>215</v>
@@ -49007,7 +49009,7 @@
         <v>226</v>
       </c>
       <c r="B17" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C17" t="s">
         <v>217</v>
@@ -49016,7 +49018,7 @@
         <v>19</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="F17" t="s">
         <v>215</v>
@@ -49027,16 +49029,16 @@
         <v>226</v>
       </c>
       <c r="B18" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>215</v>
@@ -49193,7 +49195,7 @@
         <v>916</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C33" t="s">
         <v>515</v>
@@ -49210,10 +49212,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C34" t="s">
         <v>217</v>
@@ -49222,15 +49224,15 @@
         <v>19</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C35" t="s">
         <v>217</v>
@@ -49239,7 +49241,7 @@
         <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F35" t="s">
         <v>223</v>
@@ -49331,7 +49333,7 @@
         <v>407</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>541</v>
@@ -49431,7 +49433,7 @@
         <v>410</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>415</v>
@@ -49451,7 +49453,7 @@
         <v>412</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>417</v>
@@ -49471,7 +49473,7 @@
         <v>413</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>421</v>
@@ -49491,7 +49493,7 @@
         <v>433</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>431</v>
@@ -49511,7 +49513,7 @@
         <v>414</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>422</v>
@@ -49531,7 +49533,7 @@
         <v>434</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>432</v>
@@ -49551,7 +49553,7 @@
         <v>933</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C51" t="s">
         <v>496</v>
@@ -49571,7 +49573,7 @@
         <v>929</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>447</v>
@@ -49592,7 +49594,7 @@
         <v>445</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>437</v>
@@ -49612,7 +49614,7 @@
         <v>444</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>438</v>
@@ -49632,7 +49634,7 @@
         <v>930</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>932</v>
@@ -49650,85 +49652,85 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="24" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>364</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G56" s="24"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="24" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>1186</v>
       </c>
-      <c r="B57" s="24" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>1188</v>
-      </c>
       <c r="D57" s="24" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="24" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>203</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="24" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>203</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G59" s="24"/>
     </row>
@@ -49834,25 +49836,25 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C65" t="s">
         <v>1177</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1179</v>
       </c>
       <c r="D65" t="s">
         <v>203</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="F65" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G65" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -49869,7 +49871,7 @@
         <v>534</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="F66" t="s">
         <v>537</v>
@@ -49909,7 +49911,7 @@
         <v>534</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="F68" t="s">
         <v>537</v>
@@ -49949,7 +49951,7 @@
         <v>5</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="F70" t="s">
         <v>537</v>
@@ -50040,7 +50042,7 @@
         <v>226</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>418</v>
@@ -50060,7 +50062,7 @@
         <v>226</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>419</v>
@@ -50080,7 +50082,7 @@
         <v>226</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>420</v>
@@ -50120,7 +50122,7 @@
         <v>226</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>429</v>
@@ -50160,7 +50162,7 @@
         <v>226</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>439</v>
@@ -50180,7 +50182,7 @@
         <v>226</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>440</v>
@@ -50200,7 +50202,7 @@
         <v>226</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>441</v>
@@ -50220,7 +50222,7 @@
         <v>226</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C84" s="22" t="s">
         <v>442</v>
@@ -50262,7 +50264,7 @@
         <v>226</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>443</v>
@@ -50283,7 +50285,7 @@
         <v>226</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C87" s="24" t="s">
         <v>931</v>
@@ -50304,7 +50306,7 @@
         <v>226</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C88" t="s">
         <v>506</v>
@@ -50444,7 +50446,7 @@
         <v>226</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C95" t="s">
         <v>525</v>
@@ -50453,7 +50455,7 @@
         <v>51</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F95" t="s">
         <v>449</v>
@@ -50630,7 +50632,7 @@
         <v>226</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C104" t="s">
         <v>542</v>
@@ -50650,7 +50652,7 @@
         <v>226</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C105" t="s">
         <v>543</v>
@@ -50670,7 +50672,7 @@
         <v>226</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C106" t="s">
         <v>544</v>
@@ -50690,7 +50692,7 @@
         <v>226</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C107" t="s">
         <v>545</v>
@@ -50992,17 +50994,17 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B123" s="2" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B124" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B125" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
@@ -51052,7 +51054,7 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>169</v>
@@ -51845,44 +51847,44 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D60" t="s">
         <v>1203</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B61" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C61" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D61" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B62" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C62" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D62" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -52055,13 +52057,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B75" t="s">
         <v>809</v>
       </c>
       <c r="C75" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D75" t="s">
         <v>736</v>
@@ -52069,13 +52071,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B76" t="s">
         <v>810</v>
       </c>
       <c r="C76" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D76" t="s">
         <v>736</v>
@@ -52083,13 +52085,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B77" t="s">
         <v>811</v>
       </c>
       <c r="C77" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D77" t="s">
         <v>736</v>
@@ -53372,7 +53374,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F10" t="s">
         <v>188</v>
@@ -53392,7 +53394,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F11" t="s">
         <v>188</v>
@@ -53412,7 +53414,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F12" t="s">
         <v>188</v>
@@ -53432,7 +53434,7 @@
         <v>142</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F13" t="s">
         <v>188</v>
@@ -53455,7 +53457,7 @@
         <v>203</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F14" t="s">
         <v>188</v>
@@ -53469,7 +53471,7 @@
         <v>226</v>
       </c>
       <c r="B15" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C15" t="s">
         <v>210</v>
@@ -53478,7 +53480,7 @@
         <v>200</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="F15" t="s">
         <v>215</v>
@@ -53489,7 +53491,7 @@
         <v>226</v>
       </c>
       <c r="B16" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C16" t="s">
         <v>211</v>
@@ -53498,7 +53500,7 @@
         <v>79</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="F16" t="s">
         <v>215</v>
@@ -53509,7 +53511,7 @@
         <v>226</v>
       </c>
       <c r="B17" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C17" t="s">
         <v>217</v>
@@ -53518,7 +53520,7 @@
         <v>19</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="F17" t="s">
         <v>215</v>
@@ -53529,14 +53531,14 @@
         <v>226</v>
       </c>
       <c r="B18" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>215</v>
@@ -53613,7 +53615,7 @@
         <v>916</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C29" t="s">
         <v>515</v>
@@ -53630,10 +53632,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C30" t="s">
         <v>217</v>
@@ -53642,7 +53644,7 @@
         <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F30" t="s">
         <v>223</v>
@@ -53673,7 +53675,7 @@
         <v>407</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>541</v>
@@ -53690,19 +53692,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B33" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C33" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D33" t="s">
         <v>142</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F33" t="s">
         <v>461</v>
@@ -53710,19 +53712,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B34" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C34" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F34" t="s">
         <v>462</v>
@@ -53730,19 +53732,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B35" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C35" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D35" t="s">
         <v>142</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F35" t="s">
         <v>461</v>
@@ -53750,19 +53752,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B36" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C36" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F36" t="s">
         <v>462</v>
@@ -53770,19 +53772,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B37" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C37" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D37" t="s">
         <v>142</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F37" t="s">
         <v>461</v>
@@ -53790,19 +53792,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C38" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F38" t="s">
         <v>462</v>
@@ -53810,19 +53812,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B39" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C39" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D39" t="s">
         <v>142</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F39" t="s">
         <v>461</v>
@@ -53830,19 +53832,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B40" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C40" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D40" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F40" t="s">
         <v>462</v>
@@ -53873,7 +53875,7 @@
         <v>410</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>415</v>
@@ -53893,7 +53895,7 @@
         <v>412</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>417</v>
@@ -53913,7 +53915,7 @@
         <v>413</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>421</v>
@@ -53933,7 +53935,7 @@
         <v>433</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>431</v>
@@ -53953,7 +53955,7 @@
         <v>414</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>422</v>
@@ -53973,7 +53975,7 @@
         <v>434</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>432</v>
@@ -53993,7 +53995,7 @@
         <v>933</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C48" t="s">
         <v>496</v>
@@ -54013,7 +54015,7 @@
         <v>929</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>447</v>
@@ -54034,7 +54036,7 @@
         <v>445</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>437</v>
@@ -54054,7 +54056,7 @@
         <v>444</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>438</v>
@@ -54074,7 +54076,7 @@
         <v>930</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>932</v>
@@ -54215,7 +54217,7 @@
         <v>226</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>418</v>
@@ -54235,7 +54237,7 @@
         <v>226</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>419</v>
@@ -54255,7 +54257,7 @@
         <v>226</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>420</v>
@@ -54295,7 +54297,7 @@
         <v>226</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>429</v>
@@ -54335,7 +54337,7 @@
         <v>226</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>439</v>
@@ -54355,7 +54357,7 @@
         <v>226</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>440</v>
@@ -54375,7 +54377,7 @@
         <v>226</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>441</v>
@@ -54395,7 +54397,7 @@
         <v>226</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C68" s="22" t="s">
         <v>442</v>
@@ -54437,7 +54439,7 @@
         <v>226</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C70" s="24" t="s">
         <v>443</v>
@@ -54458,7 +54460,7 @@
         <v>226</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C71" s="24" t="s">
         <v>931</v>
@@ -54479,7 +54481,7 @@
         <v>226</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C72" t="s">
         <v>506</v>
@@ -54619,7 +54621,7 @@
         <v>226</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C79" t="s">
         <v>525</v>
@@ -54628,7 +54630,7 @@
         <v>51</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F79" t="s">
         <v>449</v>
@@ -54805,7 +54807,7 @@
         <v>226</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C88" t="s">
         <v>542</v>
@@ -54825,7 +54827,7 @@
         <v>226</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C89" t="s">
         <v>543</v>
@@ -54845,7 +54847,7 @@
         <v>226</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C90" t="s">
         <v>544</v>
@@ -54865,7 +54867,7 @@
         <v>226</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C91" t="s">
         <v>545</v>
@@ -55167,17 +55169,17 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B107" s="2" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B108" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -55227,7 +55229,7 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>169</v>
@@ -55884,30 +55886,30 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B51" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C51" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D51" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B52" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C52" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D52" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -56080,13 +56082,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B65" t="s">
         <v>809</v>
       </c>
       <c r="C65" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D65" t="s">
         <v>736</v>
@@ -56094,13 +56096,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B66" t="s">
         <v>810</v>
       </c>
       <c r="C66" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D66" t="s">
         <v>736</v>
@@ -56108,13 +56110,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B67" t="s">
         <v>811</v>
       </c>
       <c r="C67" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D67" t="s">
         <v>736</v>
@@ -57401,7 +57403,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B11" t="s">
         <v>115</v>
@@ -57445,7 +57447,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B13" t="s">
         <v>133</v>
@@ -57466,7 +57468,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B14" t="s">
         <v>134</v>
@@ -57487,7 +57489,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B15" t="s">
         <v>137</v>
@@ -57508,7 +57510,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B16" t="s">
         <v>138</v>
@@ -57529,7 +57531,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B17" t="s">
         <v>135</v>
@@ -57549,7 +57551,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B18" t="s">
         <v>136</v>
@@ -57569,7 +57571,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B19" t="s">
         <v>141</v>
@@ -57589,7 +57591,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B20" t="s">
         <v>128</v>
@@ -57609,7 +57611,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B21" t="s">
         <v>131</v>
@@ -57629,7 +57631,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B22" t="s">
         <v>132</v>

--- a/Resources/Variable_description_full.xlsx
+++ b/Resources/Variable_description_full.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{D9D14E5E-F476-45BE-9422-600D3D140919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CB7EB46-1617-4C83-B35A-A8B30FB257E9}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="819" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="819" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge_cs" sheetId="1" r:id="rId1"/>
@@ -8427,8 +8427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10866,7 +10866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFA310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>

--- a/Resources/Variable_description_full.xlsx
+++ b/Resources/Variable_description_full.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{D9D14E5E-F476-45BE-9422-600D3D140919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CB7EB46-1617-4C83-B35A-A8B30FB257E9}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{D9D14E5E-F476-45BE-9422-600D3D140919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58F40D81-C8F8-4CAC-B5FA-FCCEB40AA915}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="819" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="819" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge_cs" sheetId="1" r:id="rId1"/>
@@ -3441,12 +3441,6 @@
     <t>soil_watercontent_CS650_2</t>
   </si>
   <si>
-    <t>soil_eletricconductivity_CS650_1</t>
-  </si>
-  <si>
-    <t>soil_eletricconductivity_CS650_2</t>
-  </si>
-  <si>
     <t>soil_temp_CS650_1</t>
   </si>
   <si>
@@ -3673,6 +3667,12 @@
   </si>
   <si>
     <t>H2O_density_IRGASON107probe</t>
+  </si>
+  <si>
+    <t>soil_electricconductivity_CS650_1</t>
+  </si>
+  <si>
+    <t>soil_electricconductivity_CS650_2</t>
   </si>
 </sst>
 </file>
@@ -5440,7 +5440,7 @@
         <v>534</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="F77" t="s">
         <v>537</v>
@@ -5460,7 +5460,7 @@
         <v>534</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="F78" t="s">
         <v>537</v>
@@ -5480,7 +5480,7 @@
         <v>5</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="F79" t="s">
         <v>537</v>
@@ -7727,7 +7727,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B14" t="s">
         <v>1003</v>
@@ -7790,7 +7790,7 @@
         <v>917</v>
       </c>
       <c r="B17" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C17" t="s">
         <v>516</v>
@@ -7810,7 +7810,7 @@
         <v>918</v>
       </c>
       <c r="B18" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C18" t="s">
         <v>517</v>
@@ -8427,7 +8427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -8459,7 +8459,7 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>169</v>
@@ -9236,44 +9236,44 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D60" t="s">
         <v>1201</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B61" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C61" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D61" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B62" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C62" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D62" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -9446,13 +9446,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B75" t="s">
         <v>809</v>
       </c>
       <c r="C75" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D75" t="s">
         <v>736</v>
@@ -9460,13 +9460,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B76" t="s">
         <v>810</v>
       </c>
       <c r="C76" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D76" t="s">
         <v>736</v>
@@ -9474,13 +9474,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B77" t="s">
         <v>811</v>
       </c>
       <c r="C77" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D77" t="s">
         <v>736</v>
@@ -11357,7 +11357,7 @@
         <v>634</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>34</v>
@@ -11377,7 +11377,7 @@
         <v>635</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>34</v>
@@ -11397,7 +11397,7 @@
         <v>636</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>34</v>
@@ -11417,7 +11417,7 @@
         <v>30</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>34</v>
@@ -11437,7 +11437,7 @@
         <v>31</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>34</v>
@@ -11457,7 +11457,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>34</v>
@@ -44648,7 +44648,7 @@
     </row>
     <row r="58" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
@@ -44669,7 +44669,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B59" t="s">
         <v>78</v>
@@ -46704,7 +46704,7 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>169</v>
@@ -47359,30 +47359,30 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B51" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C51" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D51" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B52" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C52" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D52" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -47555,13 +47555,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B65" t="s">
         <v>809</v>
       </c>
       <c r="C65" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D65" t="s">
         <v>736</v>
@@ -47569,13 +47569,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B66" t="s">
         <v>810</v>
       </c>
       <c r="C66" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D66" t="s">
         <v>736</v>
@@ -47583,13 +47583,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B67" t="s">
         <v>811</v>
       </c>
       <c r="C67" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D67" t="s">
         <v>736</v>
@@ -49032,7 +49032,7 @@
         <v>1092</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>203</v>
@@ -49652,85 +49652,85 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="24" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>364</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G56" s="24"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="24" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>1184</v>
       </c>
-      <c r="B57" s="24" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>1186</v>
-      </c>
       <c r="D57" s="24" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="24" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>203</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="24" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>203</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G59" s="24"/>
     </row>
@@ -49836,25 +49836,25 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C65" t="s">
         <v>1175</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1177</v>
       </c>
       <c r="D65" t="s">
         <v>203</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="F65" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G65" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -49871,7 +49871,7 @@
         <v>534</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="F66" t="s">
         <v>537</v>
@@ -49911,7 +49911,7 @@
         <v>534</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="F68" t="s">
         <v>537</v>
@@ -49951,7 +49951,7 @@
         <v>5</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="F70" t="s">
         <v>537</v>
@@ -51054,7 +51054,7 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>169</v>
@@ -51847,44 +51847,44 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D60" t="s">
         <v>1201</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B61" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C61" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D61" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B62" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C62" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D62" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -52057,13 +52057,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B75" t="s">
         <v>809</v>
       </c>
       <c r="C75" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D75" t="s">
         <v>736</v>
@@ -52071,13 +52071,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B76" t="s">
         <v>810</v>
       </c>
       <c r="C76" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D76" t="s">
         <v>736</v>
@@ -52085,13 +52085,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B77" t="s">
         <v>811</v>
       </c>
       <c r="C77" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D77" t="s">
         <v>736</v>
@@ -53692,19 +53692,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B33" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C33" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D33" t="s">
         <v>142</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F33" t="s">
         <v>461</v>
@@ -53712,19 +53712,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B34" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C34" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F34" t="s">
         <v>462</v>
@@ -53732,19 +53732,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B35" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C35" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D35" t="s">
         <v>142</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F35" t="s">
         <v>461</v>
@@ -53752,19 +53752,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B36" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C36" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F36" t="s">
         <v>462</v>
@@ -53772,19 +53772,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B37" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C37" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D37" t="s">
         <v>142</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F37" t="s">
         <v>461</v>
@@ -53792,19 +53792,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B38" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C38" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F38" t="s">
         <v>462</v>
@@ -53812,19 +53812,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B39" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C39" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D39" t="s">
         <v>142</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F39" t="s">
         <v>461</v>
@@ -53832,19 +53832,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B40" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C40" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D40" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F40" t="s">
         <v>462</v>
@@ -55229,7 +55229,7 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>169</v>
@@ -55886,30 +55886,30 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B51" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C51" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D51" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B52" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C52" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D52" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -56082,13 +56082,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B65" t="s">
         <v>809</v>
       </c>
       <c r="C65" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D65" t="s">
         <v>736</v>
@@ -56096,13 +56096,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B66" t="s">
         <v>810</v>
       </c>
       <c r="C66" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D66" t="s">
         <v>736</v>
@@ -56110,13 +56110,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B67" t="s">
         <v>811</v>
       </c>
       <c r="C67" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D67" t="s">
         <v>736</v>
@@ -57289,7 +57289,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -57403,7 +57405,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B11" t="s">
         <v>115</v>
@@ -57447,7 +57449,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1136</v>
+        <v>1212</v>
       </c>
       <c r="B13" t="s">
         <v>133</v>
@@ -57468,7 +57470,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1137</v>
+        <v>1213</v>
       </c>
       <c r="B14" t="s">
         <v>134</v>
@@ -57489,7 +57491,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B15" t="s">
         <v>137</v>
@@ -57510,7 +57512,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B16" t="s">
         <v>138</v>
@@ -57531,7 +57533,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B17" t="s">
         <v>135</v>
@@ -57551,7 +57553,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B18" t="s">
         <v>136</v>

--- a/Resources/Variable_description_full.xlsx
+++ b/Resources/Variable_description_full.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{D9D14E5E-F476-45BE-9422-600D3D140919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58F40D81-C8F8-4CAC-B5FA-FCCEB40AA915}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{D9D14E5E-F476-45BE-9422-600D3D140919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA533C4B-8866-4C42-89CE-D718BC5C70B0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="819" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="819" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge_cs" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5772" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5928" uniqueCount="1216">
   <si>
     <t>LI-7700</t>
   </si>
@@ -3673,6 +3673,12 @@
   </si>
   <si>
     <t>soil_electricconductivity_CS650_2</t>
+  </si>
+  <si>
+    <t>diag_77</t>
+  </si>
+  <si>
+    <t>CSAT/IRGASON</t>
   </si>
 </sst>
 </file>
@@ -4110,7 +4116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5487,83 +5493,83 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>355</v>
+      <c r="A80" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B80" t="s">
+        <v>334</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="D80" t="s">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>392</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" t="s">
-        <v>395</v>
+        <v>293</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="D81" t="s">
-        <v>396</v>
+        <v>203</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F81" t="s">
-        <v>376</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>174</v>
+        <v>430</v>
       </c>
       <c r="D82" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F82" t="s">
-        <v>424</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>226</v>
-      </c>
-      <c r="B83" t="s">
-        <v>325</v>
+      <c r="A83" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>175</v>
+        <v>393</v>
       </c>
       <c r="D83" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>425</v>
+        <v>125</v>
       </c>
       <c r="F83" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -5571,19 +5577,19 @@
         <v>226</v>
       </c>
       <c r="B84" t="s">
-        <v>326</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>176</v>
+        <v>123</v>
+      </c>
+      <c r="C84" t="s">
+        <v>395</v>
       </c>
       <c r="D84" t="s">
-        <v>127</v>
+        <v>396</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="F84" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -5591,19 +5597,19 @@
         <v>226</v>
       </c>
       <c r="B85" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>486</v>
+        <v>174</v>
       </c>
       <c r="D85" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F85" t="s">
-        <v>215</v>
+        <v>424</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -5611,19 +5617,19 @@
         <v>226</v>
       </c>
       <c r="B86" t="s">
-        <v>267</v>
+        <v>325</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>418</v>
+        <v>175</v>
       </c>
       <c r="D86" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F86" t="s">
-        <v>214</v>
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -5631,19 +5637,19 @@
         <v>226</v>
       </c>
       <c r="B87" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>419</v>
+        <v>176</v>
       </c>
       <c r="D87" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F87" t="s">
-        <v>214</v>
+        <v>424</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -5651,19 +5657,19 @@
         <v>226</v>
       </c>
       <c r="B88" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>420</v>
+        <v>486</v>
       </c>
       <c r="D88" t="s">
-        <v>263</v>
+        <v>51</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F88" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -5671,19 +5677,19 @@
         <v>226</v>
       </c>
       <c r="B89" t="s">
-        <v>370</v>
+        <v>267</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D89" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F89" t="s">
-        <v>428</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -5691,19 +5697,19 @@
         <v>226</v>
       </c>
       <c r="B90" t="s">
-        <v>334</v>
+        <v>268</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D90" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="F90" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -5711,19 +5717,19 @@
         <v>226</v>
       </c>
       <c r="B91" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D91" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F91" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -5731,19 +5737,19 @@
         <v>226</v>
       </c>
       <c r="B92" t="s">
-        <v>252</v>
+        <v>370</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D92" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F92" t="s">
-        <v>188</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -8427,8 +8433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10866,8 +10872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFA310"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48760,9 +48766,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:XFD90"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -49204,7 +49212,7 @@
         <v>285</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F33" t="s">
         <v>214</v>
@@ -49212,27 +49220,30 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1100</v>
+        <v>916</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1101</v>
+        <v>284</v>
       </c>
       <c r="C34" t="s">
-        <v>217</v>
+        <v>515</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>1102</v>
+        <v>423</v>
+      </c>
+      <c r="F34" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="C35" t="s">
         <v>217</v>
@@ -49241,122 +49252,119 @@
         <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F35" t="s">
-        <v>223</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>354</v>
+        <v>1097</v>
       </c>
       <c r="C36" t="s">
-        <v>457</v>
+        <v>217</v>
       </c>
       <c r="D36" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>460</v>
+        <v>1098</v>
       </c>
       <c r="F36" t="s">
-        <v>462</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>924</v>
+      <c r="A37" t="s">
+        <v>405</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="G37" s="3"/>
+        <v>282</v>
+      </c>
+      <c r="C37" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F37" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>453</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C38" t="s">
+        <v>457</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="F38" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>914</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>509</v>
-      </c>
-      <c r="D38" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="F38" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>454</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C39" t="s">
-        <v>208</v>
-      </c>
-      <c r="D39" t="s">
-        <v>142</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="F39" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>541</v>
       </c>
       <c r="D40" t="s">
         <v>142</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F40" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C41" t="s">
-        <v>458</v>
+        <v>208</v>
       </c>
       <c r="D41" t="s">
         <v>142</v>
@@ -49369,1030 +49377,1028 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>456</v>
+      <c r="A42" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C42" t="s">
-        <v>459</v>
+        <v>1120</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>541</v>
       </c>
       <c r="D42" t="s">
         <v>142</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>460</v>
+        <v>1098</v>
       </c>
       <c r="F42" t="s">
-        <v>461</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>403</v>
+      <c r="A43" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C43" t="s">
-        <v>126</v>
+        <v>283</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>541</v>
       </c>
       <c r="D43" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>125</v>
+        <v>423</v>
       </c>
       <c r="F43" t="s">
-        <v>392</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>116</v>
+        <v>352</v>
       </c>
       <c r="C44" t="s">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>375</v>
+        <v>460</v>
       </c>
       <c r="F44" t="s">
-        <v>376</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>415</v>
+        <v>353</v>
+      </c>
+      <c r="C45" t="s">
+        <v>459</v>
       </c>
       <c r="D45" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="F45" t="s">
-        <v>215</v>
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>417</v>
+        <v>356</v>
+      </c>
+      <c r="C46" t="s">
+        <v>126</v>
       </c>
       <c r="D46" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="F46" t="s">
-        <v>215</v>
+        <v>392</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>421</v>
+        <v>116</v>
+      </c>
+      <c r="C47" t="s">
+        <v>394</v>
       </c>
       <c r="D47" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F47" t="s">
-        <v>214</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="D48" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F48" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1124</v>
+        <v>1106</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D49" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1103</v>
+        <v>1125</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D50" t="s">
         <v>263</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F50" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="26" t="s">
-        <v>933</v>
+      <c r="A51" t="s">
+        <v>433</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C51" t="s">
-        <v>496</v>
+        <v>1122</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="D51" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F51" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="21" t="s">
-        <v>929</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="F52" s="22" t="s">
+      <c r="A52" t="s">
+        <v>414</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D52" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F52" t="s">
         <v>214</v>
       </c>
-      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1119</v>
+        <v>1103</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="14" t="s">
-        <v>444</v>
+      <c r="A54" s="26" t="s">
+        <v>933</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>438</v>
+        <v>1128</v>
+      </c>
+      <c r="C54" t="s">
+        <v>496</v>
       </c>
       <c r="D54" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F54" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="24" t="s">
-        <v>930</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>932</v>
-      </c>
-      <c r="D55" s="24" t="s">
+      <c r="A55" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="D55" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="F55" s="24" t="s">
+      <c r="E55" s="16" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F55" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="G55" s="24"/>
+      <c r="G55" s="21"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="24" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G56" s="24"/>
+      <c r="A56" t="s">
+        <v>445</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D56" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F56" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="24" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G57" s="24"/>
+      <c r="A57" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D57" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F57" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="24" t="s">
-        <v>1190</v>
+        <v>930</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1186</v>
+        <v>1104</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>1187</v>
+        <v>932</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>1178</v>
+        <v>39</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>1098</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>1176</v>
+        <v>214</v>
       </c>
       <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="24" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G59" s="24"/>
+      <c r="A59" t="s">
+        <v>410</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D59" t="s">
+        <v>200</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F59" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>915</v>
+        <v>412</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C60" t="s">
-        <v>512</v>
+        <v>266</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="D60" t="s">
-        <v>364</v>
+        <v>200</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>510</v>
+        <v>423</v>
       </c>
       <c r="F60" t="s">
-        <v>511</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>917</v>
+        <v>413</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C61" t="s">
-        <v>516</v>
+        <v>289</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>125</v>
+        <v>423</v>
       </c>
       <c r="F61" t="s">
-        <v>522</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>918</v>
+        <v>433</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C62" t="s">
-        <v>517</v>
+        <v>286</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>125</v>
+        <v>423</v>
       </c>
       <c r="F62" t="s">
-        <v>522</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>409</v>
+      <c r="A63" t="s">
+        <v>414</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>357</v>
+        <v>288</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>520</v>
+        <v>422</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>125</v>
+        <v>423</v>
       </c>
       <c r="F63" t="s">
-        <v>523</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>919</v>
+        <v>434</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C64" t="s">
-        <v>521</v>
+        <v>262</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>125</v>
+        <v>423</v>
       </c>
       <c r="F64" t="s">
-        <v>523</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>1174</v>
+      <c r="A65" s="26" t="s">
+        <v>933</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1173</v>
+        <v>292</v>
       </c>
       <c r="C65" t="s">
-        <v>1175</v>
+        <v>496</v>
       </c>
       <c r="D65" t="s">
         <v>203</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>1178</v>
+        <v>423</v>
       </c>
       <c r="F65" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G65" t="s">
-        <v>1177</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>934</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C66" t="s">
-        <v>550</v>
-      </c>
-      <c r="D66" t="s">
-        <v>534</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F66" t="s">
-        <v>537</v>
-      </c>
+      <c r="A66" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G66" s="21"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>937</v>
+        <v>445</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C67" t="s">
-        <v>550</v>
+        <v>280</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="D67" t="s">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F67" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
-        <v>922</v>
+      <c r="A68" s="14" t="s">
+        <v>444</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>367</v>
+        <v>270</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="D68" t="s">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>1192</v>
+        <v>423</v>
       </c>
       <c r="F68" t="s">
-        <v>537</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="D69" t="s">
-        <v>534</v>
-      </c>
-      <c r="E69" s="16" t="s">
+      <c r="A69" s="24" t="s">
+        <v>930</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F69" t="s">
-        <v>188</v>
-      </c>
+      <c r="F69" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G69" s="24"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>935</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C70" t="s">
-        <v>552</v>
-      </c>
-      <c r="D70" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F70" t="s">
-        <v>537</v>
-      </c>
+      <c r="A70" s="24" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G70" s="24"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>926</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C71" t="s">
-        <v>547</v>
-      </c>
-      <c r="D71" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="F71" t="s">
-        <v>188</v>
-      </c>
+      <c r="A71" s="24" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G71" s="24"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>927</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C72" t="s">
-        <v>548</v>
-      </c>
-      <c r="D72" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="F72" t="s">
-        <v>188</v>
-      </c>
+      <c r="A72" s="24" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G72" s="24"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>928</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C73" t="s">
-        <v>549</v>
-      </c>
-      <c r="D73" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="F73" t="s">
-        <v>188</v>
-      </c>
+      <c r="A73" s="24" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G73" s="24"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>226</v>
+        <v>915</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>123</v>
+        <v>363</v>
       </c>
       <c r="C74" t="s">
-        <v>395</v>
+        <v>512</v>
       </c>
       <c r="D74" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>375</v>
+        <v>510</v>
       </c>
       <c r="F74" t="s">
-        <v>376</v>
+        <v>511</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>226</v>
+        <v>917</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>418</v>
+        <v>359</v>
+      </c>
+      <c r="C75" t="s">
+        <v>516</v>
       </c>
       <c r="D75" t="s">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="F75" t="s">
-        <v>214</v>
+        <v>522</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>226</v>
+        <v>918</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>419</v>
+        <v>360</v>
+      </c>
+      <c r="C76" t="s">
+        <v>517</v>
       </c>
       <c r="D76" t="s">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="F76" t="s">
-        <v>214</v>
+        <v>522</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>226</v>
+      <c r="A77" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1109</v>
+        <v>357</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>420</v>
+        <v>520</v>
       </c>
       <c r="D77" t="s">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="F77" t="s">
-        <v>214</v>
+        <v>523</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>919</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>429</v>
+        <v>358</v>
+      </c>
+      <c r="C78" t="s">
+        <v>521</v>
       </c>
       <c r="D78" t="s">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F78" t="s">
-        <v>222</v>
+        <v>523</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>226</v>
+        <v>1174</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>429</v>
+        <v>1173</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1175</v>
       </c>
       <c r="D79" t="s">
         <v>203</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>423</v>
+        <v>1178</v>
       </c>
       <c r="F79" t="s">
-        <v>215</v>
+        <v>1176</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>226</v>
+        <v>934</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>430</v>
+        <v>366</v>
+      </c>
+      <c r="C80" t="s">
+        <v>550</v>
       </c>
       <c r="D80" t="s">
-        <v>203</v>
+        <v>534</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>423</v>
+        <v>1192</v>
       </c>
       <c r="F80" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>226</v>
+        <v>937</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>439</v>
+        <v>244</v>
+      </c>
+      <c r="C81" t="s">
+        <v>550</v>
       </c>
       <c r="D81" t="s">
-        <v>272</v>
+        <v>534</v>
       </c>
       <c r="E81" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F81" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>226</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>922</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1111</v>
+        <v>367</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>440</v>
+        <v>536</v>
       </c>
       <c r="D82" t="s">
-        <v>272</v>
+        <v>534</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>423</v>
+        <v>1192</v>
       </c>
       <c r="F82" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>226</v>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>923</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1112</v>
+        <v>245</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>441</v>
+        <v>536</v>
       </c>
       <c r="D83" t="s">
-        <v>272</v>
+        <v>534</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F83" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="D84" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E84" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>935</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C84" t="s">
+        <v>552</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F84" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>926</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C85" t="s">
+        <v>547</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="F84" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="G84" s="22"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B85" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E85" s="23" t="s">
+      <c r="F85" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>927</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C86" t="s">
+        <v>548</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="F85" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="G85" s="21"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B86" s="24" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="D86" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E86" s="25" t="s">
+      <c r="F86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>928</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" t="s">
+        <v>549</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="F86" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="G86" s="24"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B87" s="24" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>931</v>
-      </c>
-      <c r="D87" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E87" s="25" t="s">
+      <c r="F87" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D88" t="s">
+        <v>203</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D89" t="s">
+        <v>203</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F89" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D90" t="s">
+        <v>203</v>
+      </c>
+      <c r="E90" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="F87" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="G87" s="24"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>226</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C88" t="s">
-        <v>506</v>
-      </c>
-      <c r="D88" t="s">
-        <v>51</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="F90" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>226</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C89" t="s">
-        <v>508</v>
-      </c>
-      <c r="D89" t="s">
-        <v>51</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="F89" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D91" t="s">
+        <v>203</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F91" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>226</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C90" t="s">
-        <v>514</v>
-      </c>
-      <c r="D90" t="s">
-        <v>372</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="F90" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>226</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C91" t="s">
-        <v>513</v>
-      </c>
-      <c r="D91" t="s">
-        <v>372</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="F91" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>226</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="C92" t="s">
-        <v>204</v>
+        <v>395</v>
       </c>
       <c r="D92" t="s">
-        <v>203</v>
+        <v>396</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>375</v>
@@ -50401,84 +50407,84 @@
         <v>376</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>226</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C93" t="s">
-        <v>518</v>
+        <v>1107</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="D93" t="s">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>125</v>
+        <v>423</v>
       </c>
       <c r="F93" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>226</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C94" t="s">
-        <v>519</v>
+        <v>1108</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>419</v>
       </c>
       <c r="D94" t="s">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>125</v>
+        <v>423</v>
       </c>
       <c r="F94" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>226</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C95" t="s">
-        <v>525</v>
+        <v>1109</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="D95" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>1098</v>
+        <v>423</v>
       </c>
       <c r="F95" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>226</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C96" t="s">
-        <v>527</v>
+        <v>1110</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="D96" t="s">
-        <v>51</v>
+        <v>272</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F96" t="s">
-        <v>376</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -50486,22 +50492,19 @@
         <v>226</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>257</v>
+        <v>1111</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E97" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="D97" t="s">
+        <v>272</v>
+      </c>
+      <c r="E97" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>646</v>
+      <c r="F97" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -50509,122 +50512,123 @@
         <v>226</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>256</v>
+        <v>1112</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E98" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="D98" t="s">
+        <v>272</v>
+      </c>
+      <c r="E98" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>646</v>
+      <c r="F98" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>226</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C99" t="s">
-        <v>651</v>
-      </c>
-      <c r="D99" t="s">
-        <v>534</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="F99" t="s">
-        <v>376</v>
-      </c>
+      <c r="A99" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G99" s="22"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>226</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C100" t="s">
-        <v>532</v>
-      </c>
-      <c r="D100" t="s">
-        <v>253</v>
-      </c>
-      <c r="E100" s="16" t="s">
+      <c r="A100" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="F100" t="s">
-        <v>188</v>
-      </c>
+      <c r="F100" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="G100" s="21"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>226</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C101" t="s">
-        <v>533</v>
-      </c>
-      <c r="D101" t="s">
-        <v>203</v>
-      </c>
-      <c r="E101" s="16" t="s">
+      <c r="A101" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E101" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F101" t="s">
-        <v>188</v>
-      </c>
+      <c r="F101" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>226</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C102" t="s">
-        <v>535</v>
-      </c>
-      <c r="D102" t="s">
-        <v>203</v>
-      </c>
-      <c r="E102" s="16" t="s">
+      <c r="A102" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>931</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E102" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F102" t="s">
-        <v>188</v>
-      </c>
+      <c r="F102" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>226</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>228</v>
+        <v>1130</v>
       </c>
       <c r="C103" t="s">
-        <v>378</v>
+        <v>506</v>
       </c>
       <c r="D103" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F103" t="s">
-        <v>380</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -50632,13 +50636,13 @@
         <v>226</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>1114</v>
+        <v>255</v>
       </c>
       <c r="C104" t="s">
-        <v>542</v>
+        <v>508</v>
       </c>
       <c r="D104" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>423</v>
@@ -50652,19 +50656,19 @@
         <v>226</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>1115</v>
+        <v>118</v>
       </c>
       <c r="C105" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="D105" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F105" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -50672,19 +50676,19 @@
         <v>226</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1116</v>
+        <v>120</v>
       </c>
       <c r="C106" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="D106" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F106" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -50692,19 +50696,19 @@
         <v>226</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>1117</v>
+        <v>190</v>
       </c>
       <c r="C107" t="s">
-        <v>545</v>
+        <v>204</v>
       </c>
       <c r="D107" t="s">
-        <v>385</v>
+        <v>203</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F107" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -50712,19 +50716,19 @@
         <v>226</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>250</v>
+        <v>361</v>
       </c>
       <c r="C108" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
       <c r="D108" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="F108" t="s">
-        <v>188</v>
+        <v>522</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -50732,19 +50736,19 @@
         <v>226</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>231</v>
+        <v>362</v>
       </c>
       <c r="C109" t="s">
-        <v>381</v>
+        <v>519</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="F109" t="s">
-        <v>380</v>
+        <v>522</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -50752,19 +50756,19 @@
         <v>226</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>232</v>
+        <v>1131</v>
       </c>
       <c r="C110" t="s">
-        <v>382</v>
+        <v>525</v>
       </c>
       <c r="D110" t="s">
-        <v>385</v>
+        <v>51</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F110" t="s">
-        <v>380</v>
+        <v>449</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -50772,19 +50776,19 @@
         <v>226</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>233</v>
+        <v>124</v>
       </c>
       <c r="C111" t="s">
-        <v>383</v>
+        <v>527</v>
       </c>
       <c r="D111" t="s">
-        <v>385</v>
+        <v>51</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F111" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -50792,19 +50796,22 @@
         <v>226</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C112" t="s">
-        <v>384</v>
-      </c>
-      <c r="D112" t="s">
-        <v>385</v>
-      </c>
-      <c r="E112" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E112" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="F112" t="s">
-        <v>380</v>
+      <c r="F112" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
@@ -50812,19 +50819,22 @@
         <v>226</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C113" t="s">
-        <v>379</v>
-      </c>
-      <c r="D113" t="s">
-        <v>5</v>
-      </c>
-      <c r="E113" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E113" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="F113" t="s">
-        <v>380</v>
+      <c r="F113" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -50832,19 +50842,19 @@
         <v>226</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="C114" t="s">
-        <v>386</v>
+        <v>651</v>
       </c>
       <c r="D114" t="s">
-        <v>5</v>
+        <v>534</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F114" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
@@ -50852,13 +50862,13 @@
         <v>226</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="C115" t="s">
-        <v>389</v>
+        <v>532</v>
       </c>
       <c r="D115" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="E115" s="16" t="s">
         <v>423</v>
@@ -50872,13 +50882,13 @@
         <v>226</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C116" t="s">
-        <v>390</v>
+        <v>533</v>
       </c>
       <c r="D116" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="E116" s="16" t="s">
         <v>423</v>
@@ -50892,13 +50902,13 @@
         <v>226</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="C117" t="s">
-        <v>387</v>
+        <v>535</v>
       </c>
       <c r="D117" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="E117" s="16" t="s">
         <v>423</v>
@@ -50912,19 +50922,19 @@
         <v>226</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C118" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D118" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E118" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F118" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -50932,13 +50942,13 @@
         <v>226</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>241</v>
+        <v>1114</v>
       </c>
       <c r="C119" t="s">
-        <v>388</v>
+        <v>542</v>
       </c>
       <c r="D119" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="E119" s="16" t="s">
         <v>423</v>
@@ -50952,13 +50962,13 @@
         <v>226</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>246</v>
+        <v>1115</v>
       </c>
       <c r="C120" t="s">
-        <v>936</v>
+        <v>543</v>
       </c>
       <c r="D120" t="s">
-        <v>534</v>
+        <v>385</v>
       </c>
       <c r="E120" s="16" t="s">
         <v>423</v>
@@ -50966,49 +50976,349 @@
       <c r="F120" t="s">
         <v>188</v>
       </c>
-      <c r="G120" t="s">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>226</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C121" t="s">
+        <v>544</v>
+      </c>
+      <c r="D121" t="s">
+        <v>385</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F121" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>226</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C122" t="s">
+        <v>545</v>
+      </c>
+      <c r="D122" t="s">
+        <v>385</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F122" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>226</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C123" t="s">
+        <v>546</v>
+      </c>
+      <c r="D123" t="s">
+        <v>142</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F123" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>226</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C124" t="s">
+        <v>381</v>
+      </c>
+      <c r="D124" t="s">
+        <v>142</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F124" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C125" t="s">
+        <v>382</v>
+      </c>
+      <c r="D125" t="s">
+        <v>385</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F125" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>226</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C126" t="s">
+        <v>383</v>
+      </c>
+      <c r="D126" t="s">
+        <v>385</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F126" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>226</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C127" t="s">
+        <v>384</v>
+      </c>
+      <c r="D127" t="s">
+        <v>385</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F127" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>226</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C128" t="s">
+        <v>379</v>
+      </c>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F128" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>226</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C129" t="s">
+        <v>386</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F129" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>226</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C130" t="s">
+        <v>389</v>
+      </c>
+      <c r="D130" t="s">
+        <v>237</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F130" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>226</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C131" t="s">
+        <v>390</v>
+      </c>
+      <c r="D131" t="s">
+        <v>237</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F131" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>226</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C132" t="s">
+        <v>387</v>
+      </c>
+      <c r="D132" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F132" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>226</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C133" t="s">
+        <v>391</v>
+      </c>
+      <c r="D133" t="s">
+        <v>237</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F133" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>226</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C134" t="s">
+        <v>388</v>
+      </c>
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F134" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>226</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C135" t="s">
+        <v>936</v>
+      </c>
+      <c r="D135" t="s">
+        <v>534</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F135" t="s">
+        <v>188</v>
+      </c>
+      <c r="G135" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B121" s="3" t="s">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="3" t="s">
+      <c r="C136" s="2"/>
+      <c r="D136" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E121" s="17"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="2" t="s">
+      <c r="E136" s="17"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="2" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B122" s="2" t="s">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B137" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B123" s="2" t="s">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B138" s="2" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B124" s="2" t="s">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B139" s="2" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B125" s="2" t="s">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B140" s="2" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B126" s="2" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B141" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -51021,7 +51331,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A83"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -53262,9 +53574,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:XFD71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -53884,7 +54198,7 @@
         <v>200</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F42" t="s">
         <v>215</v>
@@ -53904,7 +54218,7 @@
         <v>200</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F43" t="s">
         <v>215</v>
@@ -53924,7 +54238,7 @@
         <v>263</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F44" t="s">
         <v>214</v>
@@ -53944,7 +54258,7 @@
         <v>263</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F45" t="s">
         <v>214</v>
@@ -53964,7 +54278,7 @@
         <v>263</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F46" t="s">
         <v>214</v>
@@ -53984,7 +54298,7 @@
         <v>263</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F47" t="s">
         <v>214</v>
@@ -54004,7 +54318,7 @@
         <v>203</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F48" t="s">
         <v>214</v>
@@ -54023,8 +54337,8 @@
       <c r="D49" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="23" t="s">
-        <v>423</v>
+      <c r="E49" s="16" t="s">
+        <v>1098</v>
       </c>
       <c r="F49" s="22" t="s">
         <v>214</v>
@@ -54045,7 +54359,7 @@
         <v>79</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F50" t="s">
         <v>215</v>
@@ -54065,7 +54379,7 @@
         <v>79</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F51" t="s">
         <v>214</v>
@@ -54084,8 +54398,8 @@
       <c r="D52" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="25" t="s">
-        <v>423</v>
+      <c r="E52" s="16" t="s">
+        <v>1098</v>
       </c>
       <c r="F52" s="24" t="s">
         <v>214</v>
@@ -54094,136 +54408,136 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>937</v>
+        <v>410</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C53" t="s">
-        <v>550</v>
+        <v>279</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="D53" t="s">
-        <v>534</v>
+        <v>200</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F53" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>923</v>
+      <c r="A54" t="s">
+        <v>412</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>536</v>
+        <v>417</v>
       </c>
       <c r="D54" t="s">
-        <v>534</v>
+        <v>200</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F54" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>926</v>
+        <v>413</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C55" t="s">
-        <v>547</v>
+        <v>289</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>421</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>263</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F55" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>927</v>
+        <v>433</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C56" t="s">
-        <v>548</v>
+        <v>286</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>263</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F56" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>928</v>
+        <v>414</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" t="s">
-        <v>549</v>
+        <v>288</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
+        <v>263</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F57" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>226</v>
+        <v>434</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" t="s">
-        <v>395</v>
+        <v>262</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="D58" t="s">
-        <v>396</v>
+        <v>263</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F58" t="s">
-        <v>376</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>226</v>
+      <c r="A59" s="26" t="s">
+        <v>933</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>418</v>
+        <v>292</v>
+      </c>
+      <c r="C59" t="s">
+        <v>496</v>
       </c>
       <c r="D59" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>423</v>
@@ -54233,97 +54547,99 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>226</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D60" t="s">
-        <v>263</v>
-      </c>
-      <c r="E60" s="16" t="s">
+      <c r="A60" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="22" t="s">
         <v>214</v>
       </c>
+      <c r="G60" s="21"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>226</v>
+        <v>445</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1109</v>
+        <v>280</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="D61" t="s">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F61" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D62" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F62" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>226</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D62" t="s">
-        <v>203</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62" t="s">
-        <v>222</v>
-      </c>
-    </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>226</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D63" t="s">
-        <v>203</v>
-      </c>
-      <c r="E63" s="16" t="s">
+      <c r="A63" s="24" t="s">
+        <v>930</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F63" t="s">
-        <v>215</v>
-      </c>
+      <c r="F63" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G63" s="24"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>226</v>
+        <v>937</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>430</v>
+        <v>244</v>
+      </c>
+      <c r="C64" t="s">
+        <v>550</v>
       </c>
       <c r="D64" t="s">
-        <v>203</v>
+        <v>534</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>423</v>
@@ -54333,167 +54649,163 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>226</v>
+      <c r="A65" s="3" t="s">
+        <v>923</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1110</v>
+        <v>245</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>439</v>
+        <v>536</v>
       </c>
       <c r="D65" t="s">
-        <v>272</v>
+        <v>534</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F65" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>226</v>
+        <v>926</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>440</v>
+        <v>247</v>
+      </c>
+      <c r="C66" t="s">
+        <v>547</v>
       </c>
       <c r="D66" t="s">
-        <v>272</v>
+        <v>5</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F66" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>226</v>
+        <v>927</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>441</v>
+        <v>248</v>
+      </c>
+      <c r="C67" t="s">
+        <v>548</v>
       </c>
       <c r="D67" t="s">
-        <v>272</v>
+        <v>5</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F67" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E68" s="23" t="s">
+      <c r="A68" t="s">
+        <v>928</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C68" t="s">
+        <v>549</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="F68" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="G68" s="22"/>
+      <c r="F68" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E69" s="23" t="s">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D69" t="s">
+        <v>203</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F69" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D70" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="F69" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="G69" s="21"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E70" s="25" t="s">
+      <c r="F70" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D71" t="s">
+        <v>203</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="F70" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="G70" s="24"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>931</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E71" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="F71" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="G71" s="24"/>
+      <c r="F71" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>226</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1130</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
-        <v>506</v>
+        <v>395</v>
       </c>
       <c r="D72" t="s">
-        <v>51</v>
+        <v>396</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F72" t="s">
-        <v>215</v>
+        <v>376</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -54501,19 +54813,19 @@
         <v>226</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C73" t="s">
-        <v>508</v>
+        <v>1107</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>418</v>
       </c>
       <c r="D73" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F73" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -54521,19 +54833,19 @@
         <v>226</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C74" t="s">
-        <v>514</v>
+        <v>1108</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>419</v>
       </c>
       <c r="D74" t="s">
-        <v>372</v>
+        <v>263</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F74" t="s">
-        <v>376</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -54541,19 +54853,19 @@
         <v>226</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C75" t="s">
-        <v>513</v>
+        <v>1109</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="D75" t="s">
-        <v>372</v>
+        <v>263</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F75" t="s">
-        <v>376</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -54561,19 +54873,19 @@
         <v>226</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C76" t="s">
-        <v>204</v>
+        <v>1110</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="D76" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F76" t="s">
-        <v>376</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -54581,19 +54893,19 @@
         <v>226</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C77" t="s">
-        <v>518</v>
+        <v>1111</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>440</v>
       </c>
       <c r="D77" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>125</v>
+        <v>423</v>
       </c>
       <c r="F77" t="s">
-        <v>522</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -54601,125 +54913,123 @@
         <v>226</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C78" t="s">
-        <v>519</v>
+        <v>1112</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="D78" t="s">
+        <v>272</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F78" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="D79" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E78" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F78" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>226</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C79" t="s">
-        <v>525</v>
-      </c>
-      <c r="D79" t="s">
-        <v>51</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F79" t="s">
-        <v>449</v>
-      </c>
+      <c r="E79" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G79" s="22"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>226</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C80" t="s">
-        <v>527</v>
-      </c>
-      <c r="D80" t="s">
-        <v>51</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="F80" t="s">
-        <v>376</v>
-      </c>
+      <c r="A80" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="G80" s="21"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>226</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E81" s="17" t="s">
+      <c r="A81" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>646</v>
-      </c>
+      <c r="F81" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>226</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E82" s="17" t="s">
+      <c r="A82" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>931</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>646</v>
-      </c>
+      <c r="F82" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>226</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>86</v>
+        <v>1130</v>
       </c>
       <c r="C83" t="s">
-        <v>651</v>
+        <v>506</v>
       </c>
       <c r="D83" t="s">
-        <v>534</v>
+        <v>51</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F83" t="s">
-        <v>376</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -54727,13 +55037,13 @@
         <v>226</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C84" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="D84" t="s">
-        <v>253</v>
+        <v>51</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>423</v>
@@ -54747,19 +55057,19 @@
         <v>226</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>251</v>
+        <v>118</v>
       </c>
       <c r="C85" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="D85" t="s">
-        <v>203</v>
+        <v>372</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F85" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -54767,19 +55077,19 @@
         <v>226</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>258</v>
+        <v>120</v>
       </c>
       <c r="C86" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="D86" t="s">
-        <v>203</v>
+        <v>372</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F86" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -54787,19 +55097,19 @@
         <v>226</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="C87" t="s">
-        <v>378</v>
+        <v>204</v>
       </c>
       <c r="D87" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F87" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -54807,19 +55117,19 @@
         <v>226</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1114</v>
+        <v>361</v>
       </c>
       <c r="C88" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="D88" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="F88" t="s">
-        <v>188</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -54827,19 +55137,19 @@
         <v>226</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1115</v>
+        <v>362</v>
       </c>
       <c r="C89" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="D89" t="s">
-        <v>385</v>
+        <v>39</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="F89" t="s">
-        <v>188</v>
+        <v>522</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -54847,19 +55157,19 @@
         <v>226</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1116</v>
+        <v>1131</v>
       </c>
       <c r="C90" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="D90" t="s">
-        <v>385</v>
+        <v>51</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F90" t="s">
-        <v>188</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -54867,19 +55177,19 @@
         <v>226</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1117</v>
+        <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="D91" t="s">
-        <v>385</v>
+        <v>51</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F91" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -54887,19 +55197,22 @@
         <v>226</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C92" t="s">
-        <v>546</v>
-      </c>
-      <c r="D92" t="s">
-        <v>142</v>
-      </c>
-      <c r="E92" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E92" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="3" t="s">
         <v>188</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -54907,19 +55220,22 @@
         <v>226</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C93" t="s">
-        <v>381</v>
-      </c>
-      <c r="D93" t="s">
-        <v>142</v>
-      </c>
-      <c r="E93" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E93" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="F93" t="s">
-        <v>380</v>
+      <c r="F93" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -54927,19 +55243,19 @@
         <v>226</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>232</v>
+        <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>382</v>
+        <v>651</v>
       </c>
       <c r="D94" t="s">
-        <v>385</v>
+        <v>534</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F94" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -54947,19 +55263,19 @@
         <v>226</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="C95" t="s">
-        <v>383</v>
+        <v>532</v>
       </c>
       <c r="D95" t="s">
-        <v>385</v>
+        <v>253</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F95" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -54967,73 +55283,73 @@
         <v>226</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="C96" t="s">
-        <v>384</v>
+        <v>533</v>
       </c>
       <c r="D96" t="s">
-        <v>385</v>
+        <v>203</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F96" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>226</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="C97" t="s">
-        <v>379</v>
+        <v>535</v>
       </c>
       <c r="D97" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="E97" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F97" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>226</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C98" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D98" t="s">
-        <v>5</v>
+        <v>229</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>226</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>236</v>
+        <v>1114</v>
       </c>
       <c r="C99" t="s">
-        <v>389</v>
+        <v>542</v>
       </c>
       <c r="D99" t="s">
-        <v>237</v>
+        <v>142</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>423</v>
@@ -55042,18 +55358,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>226</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>238</v>
+        <v>1115</v>
       </c>
       <c r="C100" t="s">
-        <v>390</v>
+        <v>543</v>
       </c>
       <c r="D100" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>423</v>
@@ -55062,18 +55378,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>226</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>239</v>
+        <v>1116</v>
       </c>
       <c r="C101" t="s">
-        <v>387</v>
+        <v>544</v>
       </c>
       <c r="D101" t="s">
-        <v>5</v>
+        <v>385</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>423</v>
@@ -55082,18 +55398,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>226</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>240</v>
+        <v>1117</v>
       </c>
       <c r="C102" t="s">
-        <v>391</v>
+        <v>545</v>
       </c>
       <c r="D102" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>423</v>
@@ -55102,18 +55418,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>226</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C103" t="s">
-        <v>388</v>
+        <v>546</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>423</v>
@@ -55122,68 +55438,288 @@
         <v>188</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>226</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C104" t="s">
-        <v>936</v>
+        <v>381</v>
       </c>
       <c r="D104" t="s">
-        <v>534</v>
+        <v>142</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F104" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>226</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C105" t="s">
+        <v>382</v>
+      </c>
+      <c r="D105" t="s">
+        <v>385</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F105" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>226</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C106" t="s">
+        <v>383</v>
+      </c>
+      <c r="D106" t="s">
+        <v>385</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F106" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C107" t="s">
+        <v>384</v>
+      </c>
+      <c r="D107" t="s">
+        <v>385</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F107" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>226</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C108" t="s">
+        <v>379</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F108" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>226</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" t="s">
+        <v>386</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F109" t="s">
         <v>188</v>
       </c>
-      <c r="G104" t="s">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C110" t="s">
+        <v>389</v>
+      </c>
+      <c r="D110" t="s">
+        <v>237</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F110" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>226</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" t="s">
+        <v>390</v>
+      </c>
+      <c r="D111" t="s">
+        <v>237</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F111" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>226</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" t="s">
+        <v>387</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F112" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>226</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C113" t="s">
+        <v>391</v>
+      </c>
+      <c r="D113" t="s">
+        <v>237</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F113" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" t="s">
+        <v>388</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F114" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C115" t="s">
+        <v>936</v>
+      </c>
+      <c r="D115" t="s">
+        <v>534</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F115" t="s">
+        <v>188</v>
+      </c>
+      <c r="G115" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B105" s="3" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="3" t="s">
+      <c r="C116" s="2"/>
+      <c r="D116" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E105" s="17"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="2" t="s">
+      <c r="E116" s="17"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="2" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B106" s="2" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B117" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B107" s="2" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B118" s="2" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B108" s="2" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B119" s="2" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B109" s="2" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B120" s="2" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B110" s="2" t="s">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B121" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -57289,7 +57825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>

--- a/Resources/Variable_description_full.xlsx
+++ b/Resources/Variable_description_full.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{D9D14E5E-F476-45BE-9422-600D3D140919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA533C4B-8866-4C42-89CE-D718BC5C70B0}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{D9D14E5E-F476-45BE-9422-600D3D140919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC9C36C9-5B86-4A24-9186-97EAE32F51E1}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="819" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge_cs" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5928" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5976" uniqueCount="1216">
   <si>
     <t>LI-7700</t>
   </si>
@@ -3570,9 +3570,6 @@
     <t>OSI-650</t>
   </si>
   <si>
-    <t>precip_rate</t>
-  </si>
-  <si>
     <t>precip_acc</t>
   </si>
   <si>
@@ -3679,6 +3676,9 @@
   </si>
   <si>
     <t>CSAT/IRGASON</t>
+  </si>
+  <si>
+    <t>precip_rate_Avg</t>
   </si>
 </sst>
 </file>
@@ -4116,7 +4116,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5494,7 +5496,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B80" t="s">
         <v>334</v>
@@ -8465,7 +8467,7 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>169</v>
@@ -9242,44 +9244,44 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C60" t="s">
         <v>1199</v>
       </c>
-      <c r="B60" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>1200</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C61" t="s">
         <v>1202</v>
       </c>
-      <c r="B61" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1203</v>
-      </c>
       <c r="D61" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C62" t="s">
         <v>1204</v>
       </c>
-      <c r="B62" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1205</v>
-      </c>
       <c r="D62" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -9452,13 +9454,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B75" t="s">
         <v>809</v>
       </c>
       <c r="C75" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D75" t="s">
         <v>736</v>
@@ -9466,13 +9468,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B76" t="s">
         <v>810</v>
       </c>
       <c r="C76" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D76" t="s">
         <v>736</v>
@@ -9480,13 +9482,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B77" t="s">
         <v>811</v>
       </c>
       <c r="C77" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D77" t="s">
         <v>736</v>
@@ -44654,7 +44656,7 @@
     </row>
     <row r="58" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
@@ -44675,7 +44677,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B59" t="s">
         <v>78</v>
@@ -46710,7 +46712,7 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>169</v>
@@ -47365,30 +47367,30 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C51" t="s">
         <v>1202</v>
       </c>
-      <c r="B51" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1203</v>
-      </c>
       <c r="D51" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C52" t="s">
         <v>1204</v>
       </c>
-      <c r="B52" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1205</v>
-      </c>
       <c r="D52" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -47561,13 +47563,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B65" t="s">
         <v>809</v>
       </c>
       <c r="C65" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D65" t="s">
         <v>736</v>
@@ -47575,13 +47577,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B66" t="s">
         <v>810</v>
       </c>
       <c r="C66" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D66" t="s">
         <v>736</v>
@@ -47589,13 +47591,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B67" t="s">
         <v>811</v>
       </c>
       <c r="C67" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D67" t="s">
         <v>736</v>
@@ -48766,10 +48768,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:XFD90"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -49498,177 +49500,176 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>410</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>1118</v>
+        <v>398</v>
+      </c>
+      <c r="B48" t="s">
+        <v>327</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>415</v>
+        <v>178</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>1098</v>
+        <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>412</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>1106</v>
+        <v>400</v>
+      </c>
+      <c r="B49" t="s">
+        <v>323</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>417</v>
+        <v>179</v>
       </c>
       <c r="D49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>1098</v>
+        <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>413</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>421</v>
+        <v>435</v>
+      </c>
+      <c r="B50" t="s">
+        <v>333</v>
+      </c>
+      <c r="C50" t="s">
+        <v>474</v>
       </c>
       <c r="D50" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>1098</v>
+        <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>214</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>433</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>1122</v>
+        <v>1078</v>
+      </c>
+      <c r="B51" t="s">
+        <v>330</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>431</v>
+        <v>180</v>
       </c>
       <c r="D51" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>1098</v>
+        <v>425</v>
       </c>
       <c r="F51" t="s">
-        <v>214</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>414</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>1124</v>
+        <v>401</v>
+      </c>
+      <c r="B52" t="s">
+        <v>332</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>422</v>
+        <v>186</v>
       </c>
       <c r="D52" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>1098</v>
+        <v>425</v>
       </c>
       <c r="F52" t="s">
-        <v>214</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>434</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>1103</v>
+        <v>402</v>
+      </c>
+      <c r="B53" t="s">
+        <v>331</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>432</v>
+        <v>187</v>
       </c>
       <c r="D53" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>1098</v>
+        <v>425</v>
       </c>
       <c r="F53" t="s">
-        <v>214</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="26" t="s">
-        <v>933</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C54" t="s">
-        <v>496</v>
+      <c r="A54" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" t="s">
+        <v>322</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="D54" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>1098</v>
+        <v>425</v>
       </c>
       <c r="F54" t="s">
-        <v>214</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="21" t="s">
-        <v>929</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>39</v>
+      <c r="A55" t="s">
+        <v>920</v>
+      </c>
+      <c r="B55" t="s">
+        <v>335</v>
+      </c>
+      <c r="C55" t="s">
+        <v>524</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="G55" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="D56" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>1098</v>
@@ -49678,219 +49679,219 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="14" t="s">
-        <v>444</v>
+      <c r="A57" t="s">
+        <v>412</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="D57" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>1098</v>
       </c>
       <c r="F57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="24" t="s">
-        <v>930</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>932</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>39</v>
+      <c r="A58" t="s">
+        <v>413</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D58" t="s">
+        <v>263</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>1098</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F58" t="s">
         <v>214</v>
       </c>
-      <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>279</v>
+        <v>1122</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="D59" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>266</v>
+        <v>1124</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D60" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>289</v>
+        <v>1103</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="D61" t="s">
         <v>263</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F61" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>433</v>
+      <c r="A62" s="26" t="s">
+        <v>933</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>431</v>
+        <v>1128</v>
+      </c>
+      <c r="C62" t="s">
+        <v>496</v>
       </c>
       <c r="D62" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F62" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>414</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D63" t="s">
-        <v>263</v>
+      <c r="A63" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="F63" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F63" s="22" t="s">
         <v>214</v>
       </c>
+      <c r="G63" s="21"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>262</v>
+        <v>1119</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D64" t="s">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F64" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="26" t="s">
-        <v>933</v>
+      <c r="A65" s="14" t="s">
+        <v>444</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C65" t="s">
-        <v>496</v>
+        <v>1113</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="D65" t="s">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F65" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="21" t="s">
-        <v>929</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="D66" s="22" t="s">
+      <c r="A66" s="24" t="s">
+        <v>930</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="D66" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E66" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="F66" s="22" t="s">
+      <c r="E66" s="16" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F66" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="G66" s="21"/>
+      <c r="G66" s="24"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="D67" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>423</v>
@@ -49900,735 +49901,732 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="14" t="s">
-        <v>444</v>
+      <c r="A68" t="s">
+        <v>412</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="D68" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F68" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>413</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D69" t="s">
+        <v>263</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F69" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="24" t="s">
-        <v>930</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>932</v>
-      </c>
-      <c r="D69" s="24" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>433</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D70" t="s">
+        <v>263</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F70" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D71" t="s">
+        <v>263</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F71" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>434</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D72" t="s">
+        <v>263</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="26" t="s">
+        <v>933</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C73" t="s">
+        <v>496</v>
+      </c>
+      <c r="D73" t="s">
+        <v>203</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F73" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="D74" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E69" s="25" t="s">
+      <c r="E74" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="F69" s="24" t="s">
+      <c r="F74" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="G69" s="24"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="24" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G70" s="24"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="24" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E71" s="25" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F71" s="24" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G71" s="24"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="24" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F72" s="24" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G72" s="24"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="24" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F73" s="24" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G73" s="24"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>915</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C74" t="s">
-        <v>512</v>
-      </c>
-      <c r="D74" t="s">
-        <v>364</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="F74" t="s">
-        <v>511</v>
-      </c>
+      <c r="G74" s="21"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>445</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D75" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F75" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D76" t="s">
+        <v>79</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F76" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="24" t="s">
+        <v>930</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G77" s="24"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="24" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G78" s="24"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="24" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G79" s="24"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="24" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G80" s="24"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="24" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E81" s="25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G81" s="24"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>915</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C82" t="s">
+        <v>512</v>
+      </c>
+      <c r="D82" t="s">
+        <v>364</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="F82" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>917</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C83" t="s">
         <v>516</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D83" t="s">
         <v>39</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E83" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F83" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>918</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C84" t="s">
         <v>517</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D84" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E84" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F84" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D85" t="s">
         <v>39</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E85" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F85" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>919</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C86" t="s">
         <v>521</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D86" t="s">
         <v>39</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E86" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F86" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>1174</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C87" t="s">
         <v>1175</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D87" t="s">
         <v>203</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E87" s="16" t="s">
         <v>1178</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F87" t="s">
         <v>1176</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G87" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>934</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C88" t="s">
         <v>550</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D88" t="s">
         <v>534</v>
       </c>
-      <c r="E80" s="16" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="E88" s="16" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F88" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>937</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C89" t="s">
         <v>550</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D89" t="s">
         <v>534</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E89" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F89" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D90" t="s">
         <v>534</v>
       </c>
-      <c r="E82" s="16" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="E90" s="16" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F90" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D91" t="s">
         <v>534</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E91" s="16" t="s">
         <v>423</v>
-      </c>
-      <c r="F83" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>935</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C84" t="s">
-        <v>552</v>
-      </c>
-      <c r="D84" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F84" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>926</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C85" t="s">
-        <v>547</v>
-      </c>
-      <c r="D85" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="F85" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>927</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C86" t="s">
-        <v>548</v>
-      </c>
-      <c r="D86" t="s">
-        <v>5</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="F86" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>928</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C87" t="s">
-        <v>549</v>
-      </c>
-      <c r="D87" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="F87" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D88" t="s">
-        <v>203</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F88" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D89" t="s">
-        <v>203</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F89" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>14</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D90" t="s">
-        <v>203</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="F90" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D91" t="s">
-        <v>203</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>1215</v>
       </c>
       <c r="F91" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>226</v>
+        <v>935</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>123</v>
+        <v>365</v>
       </c>
       <c r="C92" t="s">
-        <v>395</v>
+        <v>552</v>
       </c>
       <c r="D92" t="s">
-        <v>396</v>
+        <v>5</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>375</v>
+        <v>1191</v>
       </c>
       <c r="F92" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>226</v>
+        <v>926</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>418</v>
+        <v>247</v>
+      </c>
+      <c r="C93" t="s">
+        <v>547</v>
       </c>
       <c r="D93" t="s">
-        <v>263</v>
+        <v>5</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F93" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>226</v>
+        <v>927</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>419</v>
+        <v>248</v>
+      </c>
+      <c r="C94" t="s">
+        <v>548</v>
       </c>
       <c r="D94" t="s">
-        <v>263</v>
+        <v>5</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F94" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>226</v>
+        <v>928</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>420</v>
+        <v>249</v>
+      </c>
+      <c r="C95" t="s">
+        <v>549</v>
       </c>
       <c r="D95" t="s">
-        <v>263</v>
+        <v>5</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F95" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>226</v>
+        <v>1213</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>1110</v>
+        <v>334</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D96" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1111</v>
+        <v>1129</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D97" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F97" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1112</v>
+        <v>293</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="D98" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F98" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D99" t="s">
+        <v>203</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F99" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" t="s">
+        <v>395</v>
+      </c>
+      <c r="D100" t="s">
+        <v>396</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F100" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>226</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D101" t="s">
+        <v>263</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F101" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E99" s="23" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>226</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D102" t="s">
+        <v>263</v>
+      </c>
+      <c r="E102" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="F99" s="22" t="s">
+      <c r="F102" t="s">
         <v>214</v>
       </c>
-      <c r="G99" s="22"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B100" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E100" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="F100" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="G100" s="21"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B101" s="24" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="D101" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E101" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="F101" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="G101" s="24"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B102" s="24" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>931</v>
-      </c>
-      <c r="D102" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="F102" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>226</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C103" t="s">
-        <v>506</v>
+        <v>1109</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="D103" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F103" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -50636,19 +50634,19 @@
         <v>226</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C104" t="s">
-        <v>508</v>
+        <v>1110</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="D104" t="s">
-        <v>51</v>
+        <v>272</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F104" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -50656,19 +50654,19 @@
         <v>226</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C105" t="s">
-        <v>514</v>
+        <v>1111</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>440</v>
       </c>
       <c r="D105" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F105" t="s">
-        <v>376</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -50676,119 +50674,123 @@
         <v>226</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C106" t="s">
-        <v>513</v>
+        <v>1112</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="D106" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F106" t="s">
-        <v>376</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>226</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C107" t="s">
-        <v>204</v>
-      </c>
-      <c r="D107" t="s">
-        <v>203</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="F107" t="s">
-        <v>376</v>
-      </c>
+      <c r="A107" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="F107" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G107" s="22"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>226</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C108" t="s">
-        <v>518</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="A108" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="D108" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E108" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F108" t="s">
-        <v>522</v>
-      </c>
+      <c r="E108" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="G108" s="21"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>226</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C109" t="s">
-        <v>519</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="A109" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="D109" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E109" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F109" t="s">
-        <v>522</v>
-      </c>
+      <c r="E109" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G109" s="24"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>226</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C110" t="s">
-        <v>525</v>
-      </c>
-      <c r="D110" t="s">
-        <v>51</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F110" t="s">
-        <v>449</v>
-      </c>
+      <c r="A110" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>931</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E110" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G110" s="24"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>226</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>124</v>
+        <v>1130</v>
       </c>
       <c r="C111" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="D111" t="s">
         <v>51</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F111" t="s">
-        <v>376</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -50796,22 +50798,19 @@
         <v>226</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E112" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C112" t="s">
+        <v>508</v>
+      </c>
+      <c r="D112" t="s">
+        <v>51</v>
+      </c>
+      <c r="E112" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="F112" s="3" t="s">
+      <c r="F112" t="s">
         <v>188</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
@@ -50819,22 +50818,19 @@
         <v>226</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E113" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>646</v>
+        <v>118</v>
+      </c>
+      <c r="C113" t="s">
+        <v>514</v>
+      </c>
+      <c r="D113" t="s">
+        <v>372</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F113" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -50842,13 +50838,13 @@
         <v>226</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C114" t="s">
-        <v>651</v>
+        <v>513</v>
       </c>
       <c r="D114" t="s">
-        <v>534</v>
+        <v>372</v>
       </c>
       <c r="E114" s="16" t="s">
         <v>375</v>
@@ -50862,19 +50858,19 @@
         <v>226</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="C115" t="s">
-        <v>532</v>
+        <v>204</v>
       </c>
       <c r="D115" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F115" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -50882,19 +50878,19 @@
         <v>226</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>251</v>
+        <v>361</v>
       </c>
       <c r="C116" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="D116" t="s">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="F116" t="s">
-        <v>188</v>
+        <v>522</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
@@ -50902,19 +50898,19 @@
         <v>226</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>258</v>
+        <v>362</v>
       </c>
       <c r="C117" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="D117" t="s">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="F117" t="s">
-        <v>188</v>
+        <v>522</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
@@ -50922,19 +50918,19 @@
         <v>226</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>228</v>
+        <v>1131</v>
       </c>
       <c r="C118" t="s">
-        <v>378</v>
+        <v>525</v>
       </c>
       <c r="D118" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F118" t="s">
-        <v>380</v>
+        <v>449</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -50942,19 +50938,19 @@
         <v>226</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>1114</v>
+        <v>124</v>
       </c>
       <c r="C119" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="D119" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F119" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -50962,19 +50958,22 @@
         <v>226</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C120" t="s">
-        <v>543</v>
-      </c>
-      <c r="D120" t="s">
-        <v>385</v>
-      </c>
-      <c r="E120" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E120" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="3" t="s">
         <v>188</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
@@ -50982,19 +50981,22 @@
         <v>226</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C121" t="s">
-        <v>544</v>
-      </c>
-      <c r="D121" t="s">
-        <v>385</v>
-      </c>
-      <c r="E121" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E121" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="3" t="s">
         <v>188</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
@@ -51002,19 +51004,19 @@
         <v>226</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>1117</v>
+        <v>86</v>
       </c>
       <c r="C122" t="s">
-        <v>545</v>
+        <v>651</v>
       </c>
       <c r="D122" t="s">
-        <v>385</v>
+        <v>534</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F122" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
@@ -51022,13 +51024,13 @@
         <v>226</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C123" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="D123" t="s">
-        <v>142</v>
+        <v>253</v>
       </c>
       <c r="E123" s="16" t="s">
         <v>423</v>
@@ -51042,19 +51044,19 @@
         <v>226</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="C124" t="s">
-        <v>381</v>
+        <v>533</v>
       </c>
       <c r="D124" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="E124" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F124" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -51062,19 +51064,19 @@
         <v>226</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="C125" t="s">
-        <v>382</v>
+        <v>535</v>
       </c>
       <c r="D125" t="s">
-        <v>385</v>
+        <v>203</v>
       </c>
       <c r="E125" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F125" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
@@ -51082,13 +51084,13 @@
         <v>226</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C126" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D126" t="s">
-        <v>385</v>
+        <v>229</v>
       </c>
       <c r="E126" s="16" t="s">
         <v>423</v>
@@ -51102,19 +51104,19 @@
         <v>226</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>234</v>
+        <v>1114</v>
       </c>
       <c r="C127" t="s">
-        <v>384</v>
+        <v>542</v>
       </c>
       <c r="D127" t="s">
-        <v>385</v>
+        <v>142</v>
       </c>
       <c r="E127" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F127" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
@@ -51122,19 +51124,19 @@
         <v>226</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>230</v>
+        <v>1115</v>
       </c>
       <c r="C128" t="s">
-        <v>379</v>
+        <v>543</v>
       </c>
       <c r="D128" t="s">
-        <v>5</v>
+        <v>385</v>
       </c>
       <c r="E128" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F128" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
@@ -51142,13 +51144,13 @@
         <v>226</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>235</v>
+        <v>1116</v>
       </c>
       <c r="C129" t="s">
-        <v>386</v>
+        <v>544</v>
       </c>
       <c r="D129" t="s">
-        <v>5</v>
+        <v>385</v>
       </c>
       <c r="E129" s="16" t="s">
         <v>423</v>
@@ -51162,13 +51164,13 @@
         <v>226</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>236</v>
+        <v>1117</v>
       </c>
       <c r="C130" t="s">
-        <v>389</v>
+        <v>545</v>
       </c>
       <c r="D130" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
       <c r="E130" s="16" t="s">
         <v>423</v>
@@ -51182,13 +51184,13 @@
         <v>226</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C131" t="s">
-        <v>390</v>
+        <v>546</v>
       </c>
       <c r="D131" t="s">
-        <v>237</v>
+        <v>142</v>
       </c>
       <c r="E131" s="16" t="s">
         <v>423</v>
@@ -51202,19 +51204,19 @@
         <v>226</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C132" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D132" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="E132" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F132" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
@@ -51222,19 +51224,19 @@
         <v>226</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C133" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D133" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
       <c r="E133" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F133" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -51242,19 +51244,19 @@
         <v>226</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C134" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D134" t="s">
-        <v>5</v>
+        <v>385</v>
       </c>
       <c r="E134" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F134" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
@@ -51262,63 +51264,223 @@
         <v>226</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C135" t="s">
-        <v>936</v>
+        <v>384</v>
       </c>
       <c r="D135" t="s">
-        <v>534</v>
+        <v>385</v>
       </c>
       <c r="E135" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F135" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>226</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C136" t="s">
+        <v>379</v>
+      </c>
+      <c r="D136" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F136" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>226</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C137" t="s">
+        <v>386</v>
+      </c>
+      <c r="D137" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F137" t="s">
         <v>188</v>
       </c>
-      <c r="G135" t="s">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>226</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C138" t="s">
+        <v>389</v>
+      </c>
+      <c r="D138" t="s">
+        <v>237</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F138" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>226</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C139" t="s">
+        <v>390</v>
+      </c>
+      <c r="D139" t="s">
+        <v>237</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F139" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>226</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C140" t="s">
+        <v>387</v>
+      </c>
+      <c r="D140" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F140" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>226</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C141" t="s">
+        <v>391</v>
+      </c>
+      <c r="D141" t="s">
+        <v>237</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F141" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>226</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C142" t="s">
+        <v>388</v>
+      </c>
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F142" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>226</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C143" t="s">
+        <v>936</v>
+      </c>
+      <c r="D143" t="s">
+        <v>534</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F143" t="s">
+        <v>188</v>
+      </c>
+      <c r="G143" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B136" s="3" t="s">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="3" t="s">
+      <c r="C144" s="2"/>
+      <c r="D144" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E136" s="17"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="2" t="s">
+      <c r="E144" s="17"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="2" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B137" s="2" t="s">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B145" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B138" s="2" t="s">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B146" s="2" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B139" s="2" t="s">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B147" s="2" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B140" s="2" t="s">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B148" s="2" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B141" s="2" t="s">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B149" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -51332,7 +51494,7 @@
   <dimension ref="A1:L168"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A83"/>
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51366,7 +51528,7 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>169</v>
@@ -52159,44 +52321,44 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C60" t="s">
         <v>1199</v>
       </c>
-      <c r="B60" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>1200</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C61" t="s">
         <v>1202</v>
       </c>
-      <c r="B61" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1203</v>
-      </c>
       <c r="D61" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C62" t="s">
         <v>1204</v>
       </c>
-      <c r="B62" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1205</v>
-      </c>
       <c r="D62" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -52369,13 +52531,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B75" t="s">
         <v>809</v>
       </c>
       <c r="C75" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D75" t="s">
         <v>736</v>
@@ -52383,13 +52545,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B76" t="s">
         <v>810</v>
       </c>
       <c r="C76" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D76" t="s">
         <v>736</v>
@@ -52397,13 +52559,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B77" t="s">
         <v>811</v>
       </c>
       <c r="C77" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D77" t="s">
         <v>736</v>
@@ -53576,8 +53738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:XFD71"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -55732,7 +55894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -55765,7 +55929,7 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>169</v>
@@ -55795,8 +55959,7 @@
       <c r="D7" t="s">
         <v>203</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>376</v>
       </c>
       <c r="G7"/>
@@ -56422,30 +56585,30 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C51" t="s">
         <v>1202</v>
       </c>
-      <c r="B51" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1203</v>
-      </c>
       <c r="D51" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C52" t="s">
         <v>1204</v>
       </c>
-      <c r="B52" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1205</v>
-      </c>
       <c r="D52" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -56618,13 +56781,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B65" t="s">
         <v>809</v>
       </c>
       <c r="C65" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D65" t="s">
         <v>736</v>
@@ -56632,13 +56795,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B66" t="s">
         <v>810</v>
       </c>
       <c r="C66" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D66" t="s">
         <v>736</v>
@@ -56646,13 +56809,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B67" t="s">
         <v>811</v>
       </c>
       <c r="C67" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D67" t="s">
         <v>736</v>
@@ -57818,6 +57981,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -57985,7 +58149,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B13" t="s">
         <v>133</v>
@@ -58006,7 +58170,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B14" t="s">
         <v>134</v>

--- a/Resources/Variable_description_full.xlsx
+++ b/Resources/Variable_description_full.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{D9D14E5E-F476-45BE-9422-600D3D140919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC9C36C9-5B86-4A24-9186-97EAE32F51E1}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{D9D14E5E-F476-45BE-9422-600D3D140919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4FC0078-18B7-488F-A607-C71CD3ED97D9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge_cs" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5976" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5994" uniqueCount="1216">
   <si>
     <t>LI-7700</t>
   </si>
@@ -4116,8 +4116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD57"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48768,10 +48768,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -49299,103 +49299,103 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>404</v>
+      </c>
+      <c r="B38" t="s">
+        <v>328</v>
+      </c>
+      <c r="C38" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>453</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>457</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E39" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E40" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>914</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" t="s">
-        <v>509</v>
-      </c>
-      <c r="D40" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="F40" t="s">
-        <v>376</v>
-      </c>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>454</v>
+        <v>914</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>351</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>208</v>
+        <v>509</v>
       </c>
       <c r="D41" t="s">
         <v>142</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>460</v>
+        <v>375</v>
       </c>
       <c r="F41" t="s">
-        <v>461</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>407</v>
+      <c r="A42" t="s">
+        <v>454</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>541</v>
+        <v>351</v>
+      </c>
+      <c r="C42" t="s">
+        <v>208</v>
       </c>
       <c r="D42" t="s">
         <v>142</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>1098</v>
+        <v>460</v>
       </c>
       <c r="F42" t="s">
-        <v>188</v>
+        <v>461</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -49403,7 +49403,7 @@
         <v>407</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>283</v>
+        <v>1120</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>541</v>
@@ -49412,221 +49412,221 @@
         <v>142</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F43" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>455</v>
+      <c r="A44" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="C44" t="s">
-        <v>458</v>
+        <v>283</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>541</v>
       </c>
       <c r="D44" t="s">
         <v>142</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="F44" t="s">
-        <v>461</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>456</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>353</v>
+      <c r="A45" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="B45" t="s">
+        <v>281</v>
       </c>
       <c r="C45" t="s">
-        <v>459</v>
+        <v>577</v>
       </c>
       <c r="D45" t="s">
         <v>142</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="F45" t="s">
-        <v>461</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>403</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>356</v>
+        <v>406</v>
+      </c>
+      <c r="B46" t="s">
+        <v>329</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="D46" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>392</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>116</v>
+        <v>352</v>
       </c>
       <c r="C47" t="s">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>375</v>
+        <v>460</v>
       </c>
       <c r="F47" t="s">
-        <v>376</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>456</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C48" t="s">
+        <v>459</v>
+      </c>
+      <c r="D48" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="F48" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>403</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>408</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" t="s">
+        <v>394</v>
+      </c>
+      <c r="D50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F50" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>398</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B51" t="s">
         <v>327</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D51" t="s">
         <v>201</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E51" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F51" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>400</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B52" t="s">
         <v>323</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D52" t="s">
         <v>201</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E52" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>435</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" t="s">
         <v>333</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C53" t="s">
         <v>474</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D53" t="s">
         <v>203</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E53" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F53" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>1078</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" t="s">
         <v>330</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="D51" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="F51" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>401</v>
-      </c>
-      <c r="B52" t="s">
-        <v>332</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D52" t="s">
-        <v>127</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="F52" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>402</v>
-      </c>
-      <c r="B53" t="s">
-        <v>331</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D53" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="F53" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>177</v>
-      </c>
-      <c r="B54" t="s">
-        <v>322</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="D54" t="s">
         <v>127</v>
@@ -49638,135 +49638,135 @@
         <v>424</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>401</v>
+      </c>
+      <c r="B55" t="s">
+        <v>332</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D55" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="F55" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>402</v>
+      </c>
+      <c r="B56" t="s">
+        <v>331</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="F56" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" t="s">
+        <v>322</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="F57" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>920</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B58" t="s">
         <v>335</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C58" t="s">
         <v>524</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D58" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E58" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F58" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>410</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D59" t="s">
         <v>200</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F56" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>412</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D57" t="s">
-        <v>200</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F57" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>413</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D58" t="s">
-        <v>263</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F58" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>433</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D59" t="s">
-        <v>263</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>1098</v>
       </c>
       <c r="F59" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1124</v>
+        <v>1106</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D60" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>1098</v>
       </c>
       <c r="F60" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1103</v>
+        <v>1125</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D61" t="s">
         <v>263</v>
@@ -49778,18 +49778,18 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="26" t="s">
-        <v>933</v>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>433</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C62" t="s">
-        <v>496</v>
+        <v>1122</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="D62" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>1098</v>
@@ -49798,59 +49798,58 @@
         <v>214</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="21" t="s">
-        <v>929</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>39</v>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>414</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D63" t="s">
+        <v>263</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>1098</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F63" t="s">
         <v>214</v>
       </c>
-      <c r="G63" s="21"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1119</v>
+        <v>1103</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D64" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>1098</v>
       </c>
       <c r="F64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="14" t="s">
-        <v>444</v>
+      <c r="A65" s="26" t="s">
+        <v>933</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>438</v>
+        <v>1128</v>
+      </c>
+      <c r="C65" t="s">
+        <v>496</v>
       </c>
       <c r="D65" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>1098</v>
@@ -49860,135 +49859,136 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="24" t="s">
-        <v>930</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>932</v>
-      </c>
-      <c r="D66" s="24" t="s">
+      <c r="A66" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="D66" s="22" t="s">
         <v>39</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>1098</v>
       </c>
-      <c r="F66" s="24" t="s">
+      <c r="F66" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="G66" s="24"/>
+      <c r="G66" s="21"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>279</v>
+        <v>1119</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="D67" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F67" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>412</v>
+      <c r="A68" s="14" t="s">
+        <v>444</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>266</v>
+        <v>1113</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="D68" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>413</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D69" t="s">
-        <v>263</v>
+      <c r="A69" s="24" t="s">
+        <v>930</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="F69" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F69" s="24" t="s">
         <v>214</v>
       </c>
+      <c r="G69" s="24"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="D70" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D71" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F71" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D72" t="s">
         <v>263</v>
@@ -50001,17 +50001,17 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="26" t="s">
-        <v>933</v>
+      <c r="A73" t="s">
+        <v>433</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C73" t="s">
-        <v>496</v>
+        <v>286</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="D73" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>423</v>
@@ -50021,58 +50021,57 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="21" t="s">
-        <v>929</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E74" s="23" t="s">
+      <c r="A74" t="s">
+        <v>414</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D74" t="s">
+        <v>263</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="F74" s="22" t="s">
+      <c r="F74" t="s">
         <v>214</v>
       </c>
-      <c r="G74" s="21"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D75" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F75" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="14" t="s">
-        <v>444</v>
+      <c r="A76" s="26" t="s">
+        <v>933</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>438</v>
+        <v>292</v>
+      </c>
+      <c r="C76" t="s">
+        <v>496</v>
       </c>
       <c r="D76" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>423</v>
@@ -50082,101 +50081,99 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="24" t="s">
-        <v>930</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>932</v>
-      </c>
-      <c r="D77" s="24" t="s">
+      <c r="A77" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="D77" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E77" s="25" t="s">
+      <c r="E77" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="F77" s="24" t="s">
+      <c r="F77" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="G77" s="24"/>
+      <c r="G77" s="21"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="24" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D78" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F78" s="24" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G78" s="24"/>
+      <c r="A78" t="s">
+        <v>445</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D78" t="s">
+        <v>79</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F78" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="24" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F79" s="24" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G79" s="24"/>
+      <c r="A79" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D79" t="s">
+        <v>79</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F79" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="24" t="s">
-        <v>1189</v>
+        <v>930</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>1185</v>
+        <v>264</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>1186</v>
+        <v>932</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>1178</v>
+        <v>423</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>1176</v>
+        <v>214</v>
       </c>
       <c r="G80" s="24"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="24" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>203</v>
+        <v>364</v>
       </c>
       <c r="E81" s="25" t="s">
         <v>1178</v>
@@ -50187,94 +50184,97 @@
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="A82" s="24" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G82" s="24"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="24" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E83" s="25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G83" s="24"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="24" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G84" s="24"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>915</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C85" t="s">
         <v>512</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D85" t="s">
         <v>364</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E85" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F85" t="s">
         <v>511</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>917</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C83" t="s">
-        <v>516</v>
-      </c>
-      <c r="D83" t="s">
-        <v>39</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F83" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>918</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C84" t="s">
-        <v>517</v>
-      </c>
-      <c r="D84" t="s">
-        <v>39</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F84" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D85" t="s">
-        <v>39</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F85" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C86" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D86" t="s">
         <v>39</v>
@@ -50283,164 +50283,164 @@
         <v>125</v>
       </c>
       <c r="F86" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>1174</v>
+        <v>918</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>1173</v>
+        <v>360</v>
       </c>
       <c r="C87" t="s">
-        <v>1175</v>
+        <v>517</v>
       </c>
       <c r="D87" t="s">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>1178</v>
+        <v>125</v>
       </c>
       <c r="F87" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G87" t="s">
-        <v>1177</v>
+        <v>522</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>934</v>
+      <c r="A88" s="3" t="s">
+        <v>409</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C88" t="s">
-        <v>550</v>
+        <v>357</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>520</v>
       </c>
       <c r="D88" t="s">
-        <v>534</v>
+        <v>39</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>1191</v>
+        <v>125</v>
       </c>
       <c r="F88" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>937</v>
+        <v>919</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>244</v>
+        <v>358</v>
       </c>
       <c r="C89" t="s">
+        <v>521</v>
+      </c>
+      <c r="D89" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F89" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D90" t="s">
+        <v>203</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>934</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C91" t="s">
         <v>550</v>
-      </c>
-      <c r="D89" t="s">
-        <v>534</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="F89" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="D90" t="s">
-        <v>534</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F90" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="D91" t="s">
         <v>534</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>423</v>
+        <v>1191</v>
       </c>
       <c r="F91" t="s">
-        <v>188</v>
+        <v>537</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>365</v>
+        <v>244</v>
       </c>
       <c r="C92" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D92" t="s">
-        <v>5</v>
+        <v>534</v>
       </c>
       <c r="E92" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F92" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D93" t="s">
+        <v>534</v>
+      </c>
+      <c r="E93" s="16" t="s">
         <v>1191</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F93" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>926</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C93" t="s">
-        <v>547</v>
-      </c>
-      <c r="D93" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="F93" t="s">
-        <v>188</v>
-      </c>
-    </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>927</v>
+      <c r="A94" s="3" t="s">
+        <v>923</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C94" t="s">
-        <v>548</v>
+        <v>245</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="D94" t="s">
-        <v>5</v>
+        <v>534</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>423</v>
@@ -50451,162 +50451,162 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>249</v>
+        <v>365</v>
       </c>
       <c r="C95" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>423</v>
+        <v>1191</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>537</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>1213</v>
+        <v>926</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>429</v>
+        <v>247</v>
+      </c>
+      <c r="C96" t="s">
+        <v>547</v>
       </c>
       <c r="D96" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="F96" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>927</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>429</v>
+        <v>248</v>
+      </c>
+      <c r="C97" t="s">
+        <v>548</v>
       </c>
       <c r="D97" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>1098</v>
+        <v>423</v>
       </c>
       <c r="F97" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>928</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>429</v>
+        <v>249</v>
+      </c>
+      <c r="C98" t="s">
+        <v>549</v>
       </c>
       <c r="D98" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F98" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>1213</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>252</v>
+        <v>334</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D99" t="s">
         <v>203</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>1214</v>
+        <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C100" t="s">
-        <v>395</v>
+        <v>1129</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>429</v>
       </c>
       <c r="D100" t="s">
-        <v>396</v>
+        <v>203</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>375</v>
+        <v>1098</v>
       </c>
       <c r="F100" t="s">
-        <v>376</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1107</v>
+        <v>293</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="D101" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F101" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>1108</v>
+        <v>252</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="D102" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>423</v>
+        <v>1214</v>
       </c>
       <c r="F102" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -50614,19 +50614,19 @@
         <v>226</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>420</v>
+        <v>123</v>
+      </c>
+      <c r="C103" t="s">
+        <v>395</v>
       </c>
       <c r="D103" t="s">
-        <v>263</v>
+        <v>396</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F103" t="s">
-        <v>214</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -50634,13 +50634,13 @@
         <v>226</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="D104" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>423</v>
@@ -50654,13 +50654,13 @@
         <v>226</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="D105" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E105" s="16" t="s">
         <v>423</v>
@@ -50674,13 +50674,13 @@
         <v>226</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="D106" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>423</v>
@@ -50690,167 +50690,167 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B107" s="21" t="s">
+      <c r="A107" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D107" t="s">
+        <v>272</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F107" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>226</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D108" t="s">
+        <v>272</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>226</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D109" t="s">
+        <v>272</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F109" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" s="21" t="s">
         <v>1126</v>
       </c>
-      <c r="C107" s="22" t="s">
+      <c r="C110" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="D107" s="22" t="s">
+      <c r="D110" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E107" s="23" t="s">
+      <c r="E110" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="F107" s="22" t="s">
+      <c r="F110" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="G107" s="22"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B108" s="22" t="s">
+      <c r="G110" s="22"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B111" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="C108" s="22" t="s">
+      <c r="C111" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="D108" s="22" t="s">
+      <c r="D111" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E108" s="23" t="s">
+      <c r="E111" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="F108" s="22" t="s">
+      <c r="F111" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="G108" s="21"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B109" s="24" t="s">
+      <c r="G111" s="21"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B112" s="24" t="s">
         <v>1127</v>
       </c>
-      <c r="C109" s="24" t="s">
+      <c r="C112" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="D109" s="24" t="s">
+      <c r="D112" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E109" s="25" t="s">
+      <c r="E112" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F109" s="24" t="s">
+      <c r="F112" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="G109" s="24"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B110" s="24" t="s">
+      <c r="G112" s="24"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B113" s="24" t="s">
         <v>1123</v>
       </c>
-      <c r="C110" s="24" t="s">
+      <c r="C113" s="24" t="s">
         <v>931</v>
       </c>
-      <c r="D110" s="24" t="s">
+      <c r="D113" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E110" s="25" t="s">
+      <c r="E113" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="F110" s="24" t="s">
+      <c r="F113" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="G110" s="24"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>226</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C111" t="s">
-        <v>506</v>
-      </c>
-      <c r="D111" t="s">
-        <v>51</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="F111" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>226</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C112" t="s">
-        <v>508</v>
-      </c>
-      <c r="D112" t="s">
-        <v>51</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="F112" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>226</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C113" t="s">
-        <v>514</v>
-      </c>
-      <c r="D113" t="s">
-        <v>372</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="F113" t="s">
-        <v>376</v>
-      </c>
+      <c r="G113" s="24"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>226</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>120</v>
+        <v>1130</v>
       </c>
       <c r="C114" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D114" t="s">
-        <v>372</v>
+        <v>51</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F114" t="s">
-        <v>376</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
@@ -50858,19 +50858,19 @@
         <v>226</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="C115" t="s">
-        <v>204</v>
+        <v>508</v>
       </c>
       <c r="D115" t="s">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F115" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -50878,19 +50878,19 @@
         <v>226</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>361</v>
+        <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D116" t="s">
-        <v>39</v>
+        <v>372</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="F116" t="s">
-        <v>522</v>
+        <v>376</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
@@ -50898,19 +50898,19 @@
         <v>226</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>362</v>
+        <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D117" t="s">
-        <v>39</v>
+        <v>372</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="F117" t="s">
-        <v>522</v>
+        <v>376</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
@@ -50918,19 +50918,19 @@
         <v>226</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>1131</v>
+        <v>190</v>
       </c>
       <c r="C118" t="s">
-        <v>525</v>
+        <v>204</v>
       </c>
       <c r="D118" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>1098</v>
+        <v>375</v>
       </c>
       <c r="F118" t="s">
-        <v>449</v>
+        <v>376</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -50938,19 +50938,19 @@
         <v>226</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>124</v>
+        <v>361</v>
       </c>
       <c r="C119" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="D119" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>375</v>
+        <v>125</v>
       </c>
       <c r="F119" t="s">
-        <v>376</v>
+        <v>522</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -50958,22 +50958,19 @@
         <v>226</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E120" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>646</v>
+        <v>362</v>
+      </c>
+      <c r="C120" t="s">
+        <v>519</v>
+      </c>
+      <c r="D120" t="s">
+        <v>39</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F120" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
@@ -50981,22 +50978,19 @@
         <v>226</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E121" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>646</v>
+        <v>1131</v>
+      </c>
+      <c r="C121" t="s">
+        <v>525</v>
+      </c>
+      <c r="D121" t="s">
+        <v>51</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F121" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
@@ -51004,13 +50998,13 @@
         <v>226</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>651</v>
+        <v>527</v>
       </c>
       <c r="D122" t="s">
-        <v>534</v>
+        <v>51</v>
       </c>
       <c r="E122" s="16" t="s">
         <v>375</v>
@@ -51024,19 +51018,22 @@
         <v>226</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C123" t="s">
-        <v>532</v>
-      </c>
-      <c r="D123" t="s">
-        <v>253</v>
-      </c>
-      <c r="E123" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E123" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="3" t="s">
         <v>188</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
@@ -51044,19 +51041,22 @@
         <v>226</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C124" t="s">
-        <v>533</v>
-      </c>
-      <c r="D124" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="3" t="s">
         <v>188</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -51064,19 +51064,19 @@
         <v>226</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>258</v>
+        <v>86</v>
       </c>
       <c r="C125" t="s">
-        <v>535</v>
+        <v>651</v>
       </c>
       <c r="D125" t="s">
-        <v>203</v>
+        <v>534</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F125" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
@@ -51084,19 +51084,19 @@
         <v>226</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="C126" t="s">
-        <v>378</v>
+        <v>532</v>
       </c>
       <c r="D126" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="E126" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F126" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
@@ -51104,13 +51104,13 @@
         <v>226</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>1114</v>
+        <v>251</v>
       </c>
       <c r="C127" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D127" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="E127" s="16" t="s">
         <v>423</v>
@@ -51124,13 +51124,13 @@
         <v>226</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>1115</v>
+        <v>258</v>
       </c>
       <c r="C128" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D128" t="s">
-        <v>385</v>
+        <v>203</v>
       </c>
       <c r="E128" s="16" t="s">
         <v>423</v>
@@ -51139,38 +51139,38 @@
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>226</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>1116</v>
+        <v>228</v>
       </c>
       <c r="C129" t="s">
-        <v>544</v>
+        <v>378</v>
       </c>
       <c r="D129" t="s">
-        <v>385</v>
+        <v>229</v>
       </c>
       <c r="E129" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F129" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>226</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="C130" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D130" t="s">
-        <v>385</v>
+        <v>142</v>
       </c>
       <c r="E130" s="16" t="s">
         <v>423</v>
@@ -51179,18 +51179,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>226</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>250</v>
+        <v>1115</v>
       </c>
       <c r="C131" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D131" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
       <c r="E131" s="16" t="s">
         <v>423</v>
@@ -51199,35 +51199,35 @@
         <v>188</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>226</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>231</v>
+        <v>1116</v>
       </c>
       <c r="C132" t="s">
-        <v>381</v>
+        <v>544</v>
       </c>
       <c r="D132" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
       <c r="E132" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F132" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>226</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>232</v>
+        <v>1117</v>
       </c>
       <c r="C133" t="s">
-        <v>382</v>
+        <v>545</v>
       </c>
       <c r="D133" t="s">
         <v>385</v>
@@ -51236,41 +51236,41 @@
         <v>423</v>
       </c>
       <c r="F133" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>226</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C134" t="s">
-        <v>383</v>
+        <v>546</v>
       </c>
       <c r="D134" t="s">
-        <v>385</v>
+        <v>142</v>
       </c>
       <c r="E134" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F134" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>226</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C135" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D135" t="s">
-        <v>385</v>
+        <v>142</v>
       </c>
       <c r="E135" s="16" t="s">
         <v>423</v>
@@ -51279,18 +51279,18 @@
         <v>380</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>226</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C136" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D136" t="s">
-        <v>5</v>
+        <v>385</v>
       </c>
       <c r="E136" s="16" t="s">
         <v>423</v>
@@ -51299,75 +51299,75 @@
         <v>380</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>226</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C137" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D137" t="s">
-        <v>5</v>
+        <v>385</v>
       </c>
       <c r="E137" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F137" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>226</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C138" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D138" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
       <c r="E138" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F138" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>226</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C139" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D139" t="s">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="E139" s="16" t="s">
         <v>423</v>
       </c>
       <c r="F139" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>226</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C140" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D140" t="s">
         <v>5</v>
@@ -51379,15 +51379,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>226</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C141" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D141" t="s">
         <v>237</v>
@@ -51399,18 +51399,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>226</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C142" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D142" t="s">
-        <v>5</v>
+        <v>237</v>
       </c>
       <c r="E142" s="16" t="s">
         <v>423</v>
@@ -51419,18 +51419,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>226</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C143" t="s">
-        <v>936</v>
+        <v>387</v>
       </c>
       <c r="D143" t="s">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="E143" s="16" t="s">
         <v>423</v>
@@ -51438,49 +51438,109 @@
       <c r="F143" t="s">
         <v>188</v>
       </c>
-      <c r="G143" t="s">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>226</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C144" t="s">
+        <v>391</v>
+      </c>
+      <c r="D144" t="s">
+        <v>237</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F144" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>226</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C145" t="s">
+        <v>388</v>
+      </c>
+      <c r="D145" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F145" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>226</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C146" t="s">
+        <v>936</v>
+      </c>
+      <c r="D146" t="s">
+        <v>534</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="F146" t="s">
+        <v>188</v>
+      </c>
+      <c r="G146" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B144" s="3" t="s">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="3" t="s">
+      <c r="C147" s="2"/>
+      <c r="D147" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E144" s="17"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="2" t="s">
+      <c r="E147" s="17"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="2" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B145" s="2" t="s">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B148" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B146" s="2" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B149" s="2" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B147" s="2" t="s">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B150" s="2" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B148" s="2" t="s">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B151" s="2" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B149" s="2" t="s">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B152" s="2" t="s">
         <v>45</v>
       </c>
     </row>

--- a/Resources/Variable_description_full.xlsx
+++ b/Resources/Variable_description_full.xlsx
@@ -1,11 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{D9D14E5E-F476-45BE-9422-600D3D140919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84578043-0930-4EAA-9677-BFF991232646}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{D9D14E5E-F476-45BE-9422-600D3D140919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3078C1A2-814B-46D3-B6F9-0FC82E8013FB}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="819" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="819" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{FA0D2C8C-B83F-42B3-AEE0-8A421FCD5665}"/>
   </bookViews>
   <sheets>
     <sheet name="Bernard_lake_cs" sheetId="14" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7690" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7708" uniqueCount="1226">
   <si>
     <t>LI-7700</t>
   </si>
@@ -3330,9 +3331,6 @@
   </si>
   <si>
     <t>LI-7500</t>
-  </si>
-  <si>
-    <t>air_press_LI7500</t>
   </si>
   <si>
     <t>air_press_CS106</t>
@@ -4140,6 +4138,7 @@
     <sheetView topLeftCell="C27" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4669,10 +4668,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C38" t="s">
         <v>217</v>
@@ -4681,7 +4680,7 @@
         <v>81</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F38" t="s">
         <v>223</v>
@@ -4709,10 +4708,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B40" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C40" t="s">
         <v>457</v>
@@ -4721,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F40" t="s">
         <v>462</v>
@@ -4769,10 +4768,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B43" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C43" t="s">
         <v>208</v>
@@ -4781,7 +4780,7 @@
         <v>142</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F43" t="s">
         <v>461</v>
@@ -4849,10 +4848,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B47" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C47" t="s">
         <v>458</v>
@@ -4861,7 +4860,7 @@
         <v>142</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F47" t="s">
         <v>461</v>
@@ -4869,10 +4868,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B48" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C48" t="s">
         <v>459</v>
@@ -4881,7 +4880,7 @@
         <v>142</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F48" t="s">
         <v>461</v>
@@ -5483,7 +5482,7 @@
         <v>534</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F78" t="s">
         <v>537</v>
@@ -5503,7 +5502,7 @@
         <v>534</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F79" t="s">
         <v>537</v>
@@ -5523,7 +5522,7 @@
         <v>5</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F80" t="s">
         <v>537</v>
@@ -5531,7 +5530,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B81" t="s">
         <v>334</v>
@@ -7574,6 +7573,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7606,7 +7606,7 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>169</v>
@@ -8247,30 +8247,30 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C51" t="s">
         <v>1201</v>
       </c>
-      <c r="B51" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1202</v>
-      </c>
       <c r="D51" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C52" t="s">
         <v>1203</v>
       </c>
-      <c r="B52" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1204</v>
-      </c>
       <c r="D52" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -8443,13 +8443,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B65" t="s">
         <v>809</v>
       </c>
       <c r="C65" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D65" t="s">
         <v>736</v>
@@ -8457,13 +8457,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B66" t="s">
         <v>810</v>
       </c>
       <c r="C66" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D66" t="s">
         <v>736</v>
@@ -8471,13 +8471,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B67" t="s">
         <v>811</v>
       </c>
       <c r="C67" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D67" t="s">
         <v>736</v>
@@ -9641,6 +9641,7 @@
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9753,7 +9754,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B11" t="s">
         <v>115</v>
@@ -9797,7 +9798,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B13" t="s">
         <v>133</v>
@@ -9818,7 +9819,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B14" t="s">
         <v>134</v>
@@ -9839,7 +9840,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B15" t="s">
         <v>137</v>
@@ -9860,7 +9861,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B16" t="s">
         <v>138</v>
@@ -9881,7 +9882,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B17" t="s">
         <v>135</v>
@@ -9901,7 +9902,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B18" t="s">
         <v>136</v>
@@ -9921,7 +9922,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B19" t="s">
         <v>141</v>
@@ -9941,7 +9942,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B20" t="s">
         <v>128</v>
@@ -9961,7 +9962,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B21" t="s">
         <v>131</v>
@@ -9981,7 +9982,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B22" t="s">
         <v>132</v>
@@ -10184,6 +10185,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -10371,7 +10373,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B14" t="s">
         <v>1003</v>
@@ -10434,7 +10436,7 @@
         <v>917</v>
       </c>
       <c r="B17" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C17" t="s">
         <v>516</v>
@@ -10454,7 +10456,7 @@
         <v>918</v>
       </c>
       <c r="B18" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C18" t="s">
         <v>517</v>
@@ -10882,6 +10884,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -11005,6 +11008,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -11074,6 +11078,7 @@
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -11103,7 +11108,7 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>169</v>
@@ -11880,44 +11885,44 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C60" t="s">
         <v>1198</v>
       </c>
-      <c r="B60" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>1199</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C61" t="s">
         <v>1201</v>
       </c>
-      <c r="B61" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1202</v>
-      </c>
       <c r="D61" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C62" t="s">
         <v>1203</v>
       </c>
-      <c r="B62" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1204</v>
-      </c>
       <c r="D62" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -12090,13 +12095,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B75" t="s">
         <v>809</v>
       </c>
       <c r="C75" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D75" t="s">
         <v>736</v>
@@ -12104,13 +12109,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B76" t="s">
         <v>810</v>
       </c>
       <c r="C76" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D76" t="s">
         <v>736</v>
@@ -12118,13 +12123,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B77" t="s">
         <v>811</v>
       </c>
       <c r="C77" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D77" t="s">
         <v>736</v>
@@ -13497,9 +13502,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -14826,7 +14832,7 @@
         <v>534</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F77" t="s">
         <v>537</v>
@@ -14846,7 +14852,7 @@
         <v>534</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F78" t="s">
         <v>537</v>
@@ -14866,7 +14872,7 @@
         <v>5</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F79" t="s">
         <v>537</v>
@@ -14874,7 +14880,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B80" t="s">
         <v>334</v>
@@ -16919,8 +16925,9 @@
   <dimension ref="A1:E186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -16950,7 +16957,7 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>169</v>
@@ -17727,44 +17734,44 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C60" t="s">
         <v>1198</v>
       </c>
-      <c r="B60" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>1199</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C61" t="s">
         <v>1201</v>
       </c>
-      <c r="B61" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1202</v>
-      </c>
       <c r="D61" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C62" t="s">
         <v>1203</v>
       </c>
-      <c r="B62" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1204</v>
-      </c>
       <c r="D62" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -17937,13 +17944,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B75" t="s">
         <v>809</v>
       </c>
       <c r="C75" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D75" t="s">
         <v>736</v>
@@ -17951,13 +17958,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B76" t="s">
         <v>810</v>
       </c>
       <c r="C76" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D76" t="s">
         <v>736</v>
@@ -17965,13 +17972,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B77" t="s">
         <v>811</v>
       </c>
       <c r="C77" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D77" t="s">
         <v>736</v>
@@ -19347,6 +19354,7 @@
     <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -19821,7 +19829,7 @@
         <v>634</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>34</v>
@@ -19841,7 +19849,7 @@
         <v>635</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>34</v>
@@ -19861,7 +19869,7 @@
         <v>636</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>34</v>
@@ -19881,7 +19889,7 @@
         <v>30</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>34</v>
@@ -19901,7 +19909,7 @@
         <v>31</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>34</v>
@@ -19921,7 +19929,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>34</v>
@@ -20320,7 +20328,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
@@ -20341,7 +20349,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B59" t="s">
         <v>78</v>
@@ -21827,6 +21835,7 @@
   <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -21859,7 +21868,7 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>169</v>
@@ -22498,30 +22507,30 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C51" t="s">
         <v>1201</v>
       </c>
-      <c r="B51" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1202</v>
-      </c>
       <c r="D51" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C52" t="s">
         <v>1203</v>
       </c>
-      <c r="B52" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1204</v>
-      </c>
       <c r="D52" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -22694,13 +22703,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B65" t="s">
         <v>809</v>
       </c>
       <c r="C65" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D65" t="s">
         <v>736</v>
@@ -22708,13 +22717,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B66" t="s">
         <v>810</v>
       </c>
       <c r="C66" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D66" t="s">
         <v>736</v>
@@ -22722,13 +22731,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B67" t="s">
         <v>811</v>
       </c>
       <c r="C67" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D67" t="s">
         <v>736</v>
@@ -23888,8 +23897,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="1">
+      <selection activeCell="A70" sqref="A70:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24160,7 +24172,7 @@
         <v>1092</v>
       </c>
       <c r="C18" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D18" t="s">
         <v>203</v>
@@ -24320,7 +24332,7 @@
         <v>916</v>
       </c>
       <c r="B33" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C33" t="s">
         <v>515</v>
@@ -24357,10 +24369,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B35" t="s">
         <v>1100</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1101</v>
       </c>
       <c r="C35" t="s">
         <v>217</v>
@@ -24369,7 +24381,7 @@
         <v>19</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F35" t="s">
         <v>223</v>
@@ -24520,7 +24532,7 @@
         <v>407</v>
       </c>
       <c r="B43" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C43" t="s">
         <v>541</v>
@@ -24840,7 +24852,7 @@
         <v>410</v>
       </c>
       <c r="B59" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C59" t="s">
         <v>415</v>
@@ -24860,7 +24872,7 @@
         <v>412</v>
       </c>
       <c r="B60" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C60" t="s">
         <v>417</v>
@@ -24880,7 +24892,7 @@
         <v>413</v>
       </c>
       <c r="B61" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C61" t="s">
         <v>421</v>
@@ -24900,7 +24912,7 @@
         <v>433</v>
       </c>
       <c r="B62" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C62" t="s">
         <v>431</v>
@@ -24920,7 +24932,7 @@
         <v>414</v>
       </c>
       <c r="B63" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C63" t="s">
         <v>422</v>
@@ -24940,7 +24952,7 @@
         <v>434</v>
       </c>
       <c r="B64" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C64" t="s">
         <v>432</v>
@@ -24960,7 +24972,7 @@
         <v>933</v>
       </c>
       <c r="B65" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C65" t="s">
         <v>496</v>
@@ -24980,7 +24992,7 @@
         <v>929</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>447</v>
@@ -25001,7 +25013,7 @@
         <v>445</v>
       </c>
       <c r="B67" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C67" t="s">
         <v>437</v>
@@ -25021,7 +25033,7 @@
         <v>444</v>
       </c>
       <c r="B68" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C68" t="s">
         <v>438</v>
@@ -25041,7 +25053,7 @@
         <v>930</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>932</v>
@@ -25281,85 +25293,85 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="16" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>364</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G81" s="16"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="16" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D82" s="16" t="s">
         <v>1181</v>
       </c>
-      <c r="B82" s="16" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>1182</v>
-      </c>
       <c r="E82" s="17" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G82" s="16"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B83" s="16" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C83" s="16" t="s">
         <v>1185</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>1186</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>203</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G83" s="16"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="16" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>203</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G84" s="16"/>
     </row>
@@ -25465,25 +25477,25 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C90" t="s">
         <v>1174</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1175</v>
       </c>
       <c r="D90" t="s">
         <v>203</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F90" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G90" t="s">
         <v>1176</v>
-      </c>
-      <c r="G90" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -25500,7 +25512,7 @@
         <v>534</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F91" t="s">
         <v>537</v>
@@ -25540,7 +25552,7 @@
         <v>534</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F93" t="s">
         <v>537</v>
@@ -25580,7 +25592,7 @@
         <v>5</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F95" t="s">
         <v>537</v>
@@ -25648,7 +25660,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B99" t="s">
         <v>334</v>
@@ -25671,7 +25683,7 @@
         <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C100" t="s">
         <v>429</v>
@@ -25720,7 +25732,7 @@
         <v>203</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F102" t="s">
         <v>188</v>
@@ -25751,7 +25763,7 @@
         <v>226</v>
       </c>
       <c r="B104" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C104" t="s">
         <v>418</v>
@@ -25771,7 +25783,7 @@
         <v>226</v>
       </c>
       <c r="B105" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C105" t="s">
         <v>419</v>
@@ -25791,7 +25803,7 @@
         <v>226</v>
       </c>
       <c r="B106" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C106" t="s">
         <v>420</v>
@@ -25811,7 +25823,7 @@
         <v>226</v>
       </c>
       <c r="B107" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C107" t="s">
         <v>439</v>
@@ -25831,7 +25843,7 @@
         <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C108" t="s">
         <v>440</v>
@@ -25851,7 +25863,7 @@
         <v>226</v>
       </c>
       <c r="B109" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C109" t="s">
         <v>441</v>
@@ -25871,7 +25883,7 @@
         <v>226</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C110" s="14" t="s">
         <v>442</v>
@@ -25913,7 +25925,7 @@
         <v>226</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C112" s="16" t="s">
         <v>443</v>
@@ -25934,7 +25946,7 @@
         <v>226</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>931</v>
@@ -25955,7 +25967,7 @@
         <v>226</v>
       </c>
       <c r="B114" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C114" t="s">
         <v>506</v>
@@ -26095,7 +26107,7 @@
         <v>226</v>
       </c>
       <c r="B121" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C121" t="s">
         <v>525</v>
@@ -26281,7 +26293,7 @@
         <v>226</v>
       </c>
       <c r="B130" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C130" t="s">
         <v>542</v>
@@ -26301,7 +26313,7 @@
         <v>226</v>
       </c>
       <c r="B131" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C131" t="s">
         <v>543</v>
@@ -26321,7 +26333,7 @@
         <v>226</v>
       </c>
       <c r="B132" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C132" t="s">
         <v>544</v>
@@ -26341,7 +26353,7 @@
         <v>226</v>
       </c>
       <c r="B133" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C133" t="s">
         <v>545</v>
@@ -26651,7 +26663,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B151" s="2" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
@@ -26671,6 +26683,7 @@
     <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -26703,7 +26716,7 @@
         <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>169</v>
@@ -27480,44 +27493,44 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C60" t="s">
         <v>1198</v>
       </c>
-      <c r="B60" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>1199</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C61" t="s">
         <v>1201</v>
       </c>
-      <c r="B61" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1202</v>
-      </c>
       <c r="D61" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C62" t="s">
         <v>1203</v>
       </c>
-      <c r="B62" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1204</v>
-      </c>
       <c r="D62" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -27690,13 +27703,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B75" t="s">
         <v>809</v>
       </c>
       <c r="C75" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D75" t="s">
         <v>736</v>
@@ -27704,13 +27717,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B76" t="s">
         <v>810</v>
       </c>
       <c r="C76" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D76" t="s">
         <v>736</v>
@@ -27718,13 +27731,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B77" t="s">
         <v>811</v>
       </c>
       <c r="C77" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D77" t="s">
         <v>736</v>
@@ -28882,11 +28895,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
+    <sheetView topLeftCell="A31" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -29234,7 +29248,7 @@
         <v>916</v>
       </c>
       <c r="B29" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C29" t="s">
         <v>515</v>
@@ -29251,353 +29265,353 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>1099</v>
+        <v>916</v>
       </c>
       <c r="B30" t="s">
-        <v>1097</v>
+        <v>284</v>
       </c>
       <c r="C30" t="s">
-        <v>217</v>
+        <v>515</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1098</v>
+        <v>423</v>
       </c>
       <c r="F30" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>914</v>
+        <v>405</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>1097</v>
       </c>
       <c r="C31" t="s">
-        <v>509</v>
+        <v>217</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>375</v>
+        <v>1098</v>
       </c>
       <c r="F31" t="s">
-        <v>376</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B32" t="s">
-        <v>1120</v>
+        <v>282</v>
       </c>
       <c r="C32" t="s">
-        <v>541</v>
+        <v>217</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F32" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>1154</v>
+        <v>914</v>
       </c>
       <c r="B33" t="s">
-        <v>1145</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>1162</v>
+        <v>509</v>
       </c>
       <c r="D33" t="s">
         <v>142</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1153</v>
+        <v>375</v>
       </c>
       <c r="F33" t="s">
-        <v>461</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1155</v>
+        <v>407</v>
       </c>
       <c r="B34" t="s">
-        <v>1146</v>
+        <v>1119</v>
       </c>
       <c r="C34" t="s">
-        <v>1163</v>
+        <v>541</v>
       </c>
       <c r="D34" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1153</v>
+        <v>423</v>
       </c>
       <c r="F34" t="s">
-        <v>462</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1156</v>
+        <v>407</v>
       </c>
       <c r="B35" t="s">
-        <v>1147</v>
+        <v>283</v>
       </c>
       <c r="C35" t="s">
-        <v>1164</v>
+        <v>541</v>
       </c>
       <c r="D35" t="s">
         <v>142</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1153</v>
+        <v>423</v>
       </c>
       <c r="F35" t="s">
-        <v>461</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B36" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C36" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="D36" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="B37" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C37" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F37" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B38" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C38" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="D38" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="B39" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C39" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F39" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B40" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D40" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>1152</v>
       </c>
-      <c r="C40" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>1153</v>
-      </c>
       <c r="F40" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>408</v>
+        <v>1158</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>1149</v>
       </c>
       <c r="C41" t="s">
-        <v>394</v>
+        <v>1166</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>375</v>
+        <v>1152</v>
       </c>
       <c r="F41" t="s">
-        <v>376</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>410</v>
+        <v>1159</v>
       </c>
       <c r="B42" t="s">
-        <v>1118</v>
+        <v>1150</v>
       </c>
       <c r="C42" t="s">
-        <v>415</v>
+        <v>1167</v>
       </c>
       <c r="D42" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>1098</v>
+        <v>1152</v>
       </c>
       <c r="F42" t="s">
-        <v>215</v>
+        <v>461</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>412</v>
+        <v>1160</v>
       </c>
       <c r="B43" t="s">
-        <v>1106</v>
+        <v>1151</v>
       </c>
       <c r="C43" t="s">
-        <v>417</v>
+        <v>1168</v>
       </c>
       <c r="D43" t="s">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>1098</v>
+        <v>1152</v>
       </c>
       <c r="F43" t="s">
-        <v>215</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B44" t="s">
-        <v>1125</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="D44" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>1098</v>
+        <v>375</v>
       </c>
       <c r="F44" t="s">
-        <v>214</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B45" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="C45" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="D45" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>1098</v>
       </c>
       <c r="F45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B46" t="s">
-        <v>1124</v>
+        <v>1105</v>
       </c>
       <c r="C46" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D46" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>1098</v>
       </c>
       <c r="F46" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="B47" t="s">
-        <v>1103</v>
+        <v>1124</v>
       </c>
       <c r="C47" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D47" t="s">
         <v>263</v>
@@ -29610,17 +29624,17 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="18" t="s">
-        <v>933</v>
+      <c r="A48" t="s">
+        <v>433</v>
       </c>
       <c r="B48" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="C48" t="s">
-        <v>496</v>
+        <v>431</v>
       </c>
       <c r="D48" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>1098</v>
@@ -29630,58 +29644,57 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="13" t="s">
-        <v>929</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>39</v>
+      <c r="A49" t="s">
+        <v>414</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C49" t="s">
+        <v>422</v>
+      </c>
+      <c r="D49" t="s">
+        <v>263</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>1098</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" t="s">
         <v>214</v>
       </c>
-      <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B50" t="s">
-        <v>1119</v>
+        <v>1102</v>
       </c>
       <c r="C50" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>1098</v>
       </c>
       <c r="F50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>444</v>
+      <c r="A51" s="18" t="s">
+        <v>933</v>
       </c>
       <c r="B51" t="s">
-        <v>1113</v>
+        <v>1127</v>
       </c>
       <c r="C51" t="s">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>1098</v>
@@ -29691,41 +29704,41 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="16" t="s">
-        <v>930</v>
-      </c>
-      <c r="B52" s="16" t="s">
+      <c r="A52" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="B52" s="13" t="s">
         <v>1104</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>932</v>
-      </c>
-      <c r="D52" s="16" t="s">
+      <c r="C52" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>1098</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="G52" s="16"/>
+      <c r="G52" s="13"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="B53" t="s">
-        <v>279</v>
+        <v>1118</v>
       </c>
       <c r="C53" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="D53" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F53" t="s">
         <v>215</v>
@@ -29733,93 +29746,94 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="B54" t="s">
-        <v>266</v>
+        <v>1112</v>
       </c>
       <c r="C54" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="D54" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>413</v>
-      </c>
-      <c r="B55" t="s">
-        <v>289</v>
-      </c>
-      <c r="C55" t="s">
-        <v>421</v>
-      </c>
-      <c r="D55" t="s">
-        <v>263</v>
+      <c r="A55" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>932</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F55" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F55" s="16" t="s">
         <v>214</v>
       </c>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C56" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="D56" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C57" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D57" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="B58" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="C58" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D58" t="s">
         <v>263</v>
@@ -29832,17 +29846,17 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="18" t="s">
-        <v>933</v>
+      <c r="A59" t="s">
+        <v>433</v>
       </c>
       <c r="B59" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C59" t="s">
-        <v>496</v>
+        <v>431</v>
       </c>
       <c r="D59" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>423</v>
@@ -29852,58 +29866,57 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="13" t="s">
-        <v>929</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="F60" s="14" t="s">
+      <c r="A60" t="s">
+        <v>414</v>
+      </c>
+      <c r="B60" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" t="s">
+        <v>422</v>
+      </c>
+      <c r="D60" t="s">
+        <v>263</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F60" t="s">
         <v>214</v>
       </c>
-      <c r="G60" s="13"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C61" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>444</v>
+      <c r="A62" s="18" t="s">
+        <v>933</v>
       </c>
       <c r="B62" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="C62" t="s">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>423</v>
@@ -29913,98 +29926,99 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="16" t="s">
-        <v>930</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>932</v>
-      </c>
-      <c r="D63" s="16" t="s">
+      <c r="A63" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="D63" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="F63" s="16" t="s">
+      <c r="E63" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="F63" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="G63" s="16"/>
+      <c r="G63" s="13"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>937</v>
+        <v>445</v>
       </c>
       <c r="B64" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="C64" t="s">
-        <v>550</v>
+        <v>437</v>
       </c>
       <c r="D64" t="s">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F64" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>923</v>
+        <v>444</v>
       </c>
       <c r="B65" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="C65" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="D65" t="s">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F65" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>926</v>
-      </c>
-      <c r="B66" t="s">
-        <v>247</v>
-      </c>
-      <c r="C66" t="s">
-        <v>547</v>
-      </c>
-      <c r="D66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F66" t="s">
-        <v>188</v>
-      </c>
+      <c r="A66" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>932</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G66" s="16"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="B67" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C67" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
+        <v>534</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>423</v>
@@ -30015,16 +30029,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="B68" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C68" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="D68" t="s">
-        <v>5</v>
+        <v>534</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>423</v>
@@ -30035,56 +30049,56 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>926</v>
       </c>
       <c r="B69" t="s">
-        <v>1129</v>
+        <v>247</v>
       </c>
       <c r="C69" t="s">
-        <v>429</v>
+        <v>547</v>
       </c>
       <c r="D69" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>1098</v>
+        <v>423</v>
       </c>
       <c r="F69" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>927</v>
       </c>
       <c r="B70" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="C70" t="s">
-        <v>429</v>
+        <v>548</v>
       </c>
       <c r="D70" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F70" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>928</v>
       </c>
       <c r="B71" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C71" t="s">
-        <v>430</v>
+        <v>549</v>
       </c>
       <c r="D71" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>423</v>
@@ -30095,62 +30109,62 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>1128</v>
       </c>
       <c r="C72" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="D72" t="s">
-        <v>396</v>
+        <v>203</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>375</v>
+        <v>1098</v>
       </c>
       <c r="F72" t="s">
-        <v>376</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>1107</v>
+        <v>293</v>
       </c>
       <c r="C73" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="D73" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F73" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>1108</v>
+        <v>252</v>
       </c>
       <c r="C74" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="D74" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F74" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -30158,19 +30172,19 @@
         <v>226</v>
       </c>
       <c r="B75" t="s">
-        <v>1109</v>
+        <v>123</v>
       </c>
       <c r="C75" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="D75" t="s">
-        <v>263</v>
+        <v>396</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F75" t="s">
-        <v>214</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -30178,13 +30192,13 @@
         <v>226</v>
       </c>
       <c r="B76" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C76" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="D76" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>423</v>
@@ -30198,13 +30212,13 @@
         <v>226</v>
       </c>
       <c r="B77" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C77" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="D77" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>423</v>
@@ -30218,13 +30232,13 @@
         <v>226</v>
       </c>
       <c r="B78" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C78" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="D78" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>423</v>
@@ -30234,167 +30248,167 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B79" s="13" t="s">
+      <c r="A79" t="s">
+        <v>226</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C79" t="s">
+        <v>439</v>
+      </c>
+      <c r="D79" t="s">
+        <v>272</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F79" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>226</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C80" t="s">
+        <v>440</v>
+      </c>
+      <c r="D80" t="s">
+        <v>272</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F80" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>226</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C81" t="s">
+        <v>441</v>
+      </c>
+      <c r="D81" t="s">
+        <v>272</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="G82" s="14"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="G83" s="13"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B84" s="16" t="s">
         <v>1126</v>
       </c>
-      <c r="C79" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="D79" s="14" t="s">
+      <c r="C84" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="D84" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E79" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="F79" s="14" t="s">
+      <c r="E84" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F84" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G79" s="14"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="D80" s="14" t="s">
+      <c r="G84" s="16"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>931</v>
+      </c>
+      <c r="D85" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E80" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="G80" s="13"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="F81" s="16" t="s">
+      <c r="E85" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F85" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G81" s="16"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>931</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G82" s="16"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>226</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C83" t="s">
-        <v>506</v>
-      </c>
-      <c r="D83" t="s">
-        <v>51</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F83" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>226</v>
-      </c>
-      <c r="B84" t="s">
-        <v>255</v>
-      </c>
-      <c r="C84" t="s">
-        <v>508</v>
-      </c>
-      <c r="D84" t="s">
-        <v>51</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F84" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>226</v>
-      </c>
-      <c r="B85" t="s">
-        <v>118</v>
-      </c>
-      <c r="C85" t="s">
-        <v>514</v>
-      </c>
-      <c r="D85" t="s">
-        <v>372</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="F85" t="s">
-        <v>376</v>
-      </c>
+      <c r="G85" s="16"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>226</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
+        <v>1129</v>
       </c>
       <c r="C86" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D86" t="s">
-        <v>372</v>
+        <v>51</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F86" t="s">
-        <v>376</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -30402,19 +30416,19 @@
         <v>226</v>
       </c>
       <c r="B87" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="C87" t="s">
-        <v>204</v>
+        <v>508</v>
       </c>
       <c r="D87" t="s">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F87" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -30422,19 +30436,19 @@
         <v>226</v>
       </c>
       <c r="B88" t="s">
-        <v>361</v>
+        <v>118</v>
       </c>
       <c r="C88" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D88" t="s">
-        <v>39</v>
+        <v>372</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="F88" t="s">
-        <v>522</v>
+        <v>376</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -30442,19 +30456,19 @@
         <v>226</v>
       </c>
       <c r="B89" t="s">
-        <v>362</v>
+        <v>120</v>
       </c>
       <c r="C89" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D89" t="s">
-        <v>39</v>
+        <v>372</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="F89" t="s">
-        <v>522</v>
+        <v>376</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -30462,19 +30476,19 @@
         <v>226</v>
       </c>
       <c r="B90" t="s">
-        <v>1131</v>
+        <v>190</v>
       </c>
       <c r="C90" t="s">
-        <v>525</v>
+        <v>204</v>
       </c>
       <c r="D90" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>1098</v>
+        <v>375</v>
       </c>
       <c r="F90" t="s">
-        <v>449</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -30482,19 +30496,19 @@
         <v>226</v>
       </c>
       <c r="B91" t="s">
-        <v>124</v>
+        <v>361</v>
       </c>
       <c r="C91" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="D91" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>375</v>
+        <v>125</v>
       </c>
       <c r="F91" t="s">
-        <v>376</v>
+        <v>522</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -30502,22 +30516,19 @@
         <v>226</v>
       </c>
       <c r="B92" t="s">
-        <v>257</v>
+        <v>362</v>
       </c>
       <c r="C92" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D92" t="s">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="F92" t="s">
-        <v>188</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>646</v>
+        <v>522</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -30525,22 +30536,19 @@
         <v>226</v>
       </c>
       <c r="B93" t="s">
-        <v>256</v>
+        <v>1130</v>
       </c>
       <c r="C93" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D93" t="s">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>423</v>
+        <v>1098</v>
       </c>
       <c r="F93" t="s">
-        <v>188</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>646</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -30548,13 +30556,13 @@
         <v>226</v>
       </c>
       <c r="B94" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>651</v>
+        <v>527</v>
       </c>
       <c r="D94" t="s">
-        <v>534</v>
+        <v>51</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>375</v>
@@ -30568,13 +30576,13 @@
         <v>226</v>
       </c>
       <c r="B95" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C95" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D95" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>423</v>
@@ -30582,16 +30590,19 @@
       <c r="F95" t="s">
         <v>188</v>
       </c>
+      <c r="G95" s="2" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>226</v>
       </c>
       <c r="B96" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C96" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D96" t="s">
         <v>203</v>
@@ -30602,25 +30613,28 @@
       <c r="F96" t="s">
         <v>188</v>
       </c>
+      <c r="G96" s="2" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>226</v>
       </c>
       <c r="B97" t="s">
-        <v>258</v>
+        <v>86</v>
       </c>
       <c r="C97" t="s">
-        <v>535</v>
+        <v>651</v>
       </c>
       <c r="D97" t="s">
-        <v>203</v>
+        <v>534</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -30628,19 +30642,19 @@
         <v>226</v>
       </c>
       <c r="B98" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="C98" t="s">
-        <v>378</v>
+        <v>532</v>
       </c>
       <c r="D98" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F98" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -30648,13 +30662,13 @@
         <v>226</v>
       </c>
       <c r="B99" t="s">
-        <v>1114</v>
+        <v>251</v>
       </c>
       <c r="C99" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D99" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>423</v>
@@ -30668,13 +30682,13 @@
         <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>1115</v>
+        <v>258</v>
       </c>
       <c r="C100" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D100" t="s">
-        <v>385</v>
+        <v>203</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>423</v>
@@ -30688,19 +30702,19 @@
         <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>1116</v>
+        <v>228</v>
       </c>
       <c r="C101" t="s">
-        <v>544</v>
+        <v>378</v>
       </c>
       <c r="D101" t="s">
-        <v>385</v>
+        <v>229</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -30708,13 +30722,13 @@
         <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C102" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D102" t="s">
-        <v>385</v>
+        <v>142</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>423</v>
@@ -30728,13 +30742,13 @@
         <v>226</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>1114</v>
       </c>
       <c r="C103" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D103" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>423</v>
@@ -30748,19 +30762,19 @@
         <v>226</v>
       </c>
       <c r="B104" t="s">
-        <v>231</v>
+        <v>1115</v>
       </c>
       <c r="C104" t="s">
-        <v>381</v>
+        <v>544</v>
       </c>
       <c r="D104" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F104" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -30768,10 +30782,10 @@
         <v>226</v>
       </c>
       <c r="B105" t="s">
-        <v>232</v>
+        <v>1116</v>
       </c>
       <c r="C105" t="s">
-        <v>382</v>
+        <v>545</v>
       </c>
       <c r="D105" t="s">
         <v>385</v>
@@ -30780,7 +30794,7 @@
         <v>423</v>
       </c>
       <c r="F105" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
@@ -30788,19 +30802,19 @@
         <v>226</v>
       </c>
       <c r="B106" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C106" t="s">
-        <v>383</v>
+        <v>546</v>
       </c>
       <c r="D106" t="s">
-        <v>385</v>
+        <v>142</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F106" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -30808,13 +30822,13 @@
         <v>226</v>
       </c>
       <c r="B107" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C107" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D107" t="s">
-        <v>385</v>
+        <v>142</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>423</v>
@@ -30828,13 +30842,13 @@
         <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C108" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D108" t="s">
-        <v>5</v>
+        <v>385</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>423</v>
@@ -30848,19 +30862,19 @@
         <v>226</v>
       </c>
       <c r="B109" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C109" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
+        <v>385</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F109" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
@@ -30868,19 +30882,19 @@
         <v>226</v>
       </c>
       <c r="B110" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C110" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D110" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F110" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -30888,19 +30902,19 @@
         <v>226</v>
       </c>
       <c r="B111" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C111" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D111" t="s">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F111" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -30908,10 +30922,10 @@
         <v>226</v>
       </c>
       <c r="B112" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C112" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D112" t="s">
         <v>5</v>
@@ -30928,10 +30942,10 @@
         <v>226</v>
       </c>
       <c r="B113" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C113" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D113" t="s">
         <v>237</v>
@@ -30948,13 +30962,13 @@
         <v>226</v>
       </c>
       <c r="B114" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C114" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D114" t="s">
-        <v>5</v>
+        <v>237</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>423</v>
@@ -30968,13 +30982,13 @@
         <v>226</v>
       </c>
       <c r="B115" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C115" t="s">
-        <v>936</v>
+        <v>387</v>
       </c>
       <c r="D115" t="s">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>423</v>
@@ -30982,47 +30996,107 @@
       <c r="F115" t="s">
         <v>188</v>
       </c>
-      <c r="G115" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>226</v>
       </c>
       <c r="B116" t="s">
+        <v>240</v>
+      </c>
+      <c r="C116" t="s">
+        <v>391</v>
+      </c>
+      <c r="D116" t="s">
+        <v>237</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F116" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>226</v>
+      </c>
+      <c r="B117" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117" t="s">
+        <v>388</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F117" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>226</v>
+      </c>
+      <c r="B118" t="s">
+        <v>246</v>
+      </c>
+      <c r="C118" t="s">
+        <v>936</v>
+      </c>
+      <c r="D118" t="s">
+        <v>534</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F118" t="s">
+        <v>188</v>
+      </c>
+      <c r="G118" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>226</v>
+      </c>
+      <c r="B119" t="s">
         <v>242</v>
       </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s">
+      <c r="C119" s="2"/>
+      <c r="D119" t="s">
         <v>5</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="G119" s="2" t="s">
         <v>1079</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B117" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B118" s="2" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B119" s="2" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B120" s="2" t="s">
-        <v>1113</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B121" s="2" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B122" s="2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B123" s="2" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B124" s="2" t="s">
         <v>45</v>
       </c>
     </row>

--- a/Resources/Variable_description_full.xlsx
+++ b/Resources/Variable_description_full.xlsx
@@ -1,12 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="177" documentId="13_ncr:1_{D9D14E5E-F476-45BE-9422-600D3D140919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB58738D-6CB9-47F4-9630-7C76AF50602B}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{D9D14E5E-F476-45BE-9422-600D3D140919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9E006AD-A564-4CB4-BA64-270727455EBA}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="827" activeTab="9" xr2:uid="{FA0D2C8C-B83F-42B3-AEE0-8A421FCD5665}"/>
+    <workbookView minimized="1" xWindow="-21345" yWindow="4560" windowWidth="14400" windowHeight="7275" tabRatio="827" firstSheet="1" activeTab="11" xr2:uid="{FA0D2C8C-B83F-42B3-AEE0-8A421FCD5665}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge_cs" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7907" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7912" uniqueCount="1231">
   <si>
     <t>LI-7700</t>
   </si>
@@ -3712,6 +3711,21 @@
   </si>
   <si>
     <t>61205V</t>
+  </si>
+  <si>
+    <t>lux</t>
+  </si>
+  <si>
+    <t>MX2202 Pendant</t>
+  </si>
+  <si>
+    <t>Temperature/light sensor - Datalogger</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>Light intensity</t>
   </si>
 </sst>
 </file>
@@ -4139,10 +4153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD25"/>
     </sheetView>
   </sheetViews>
@@ -7563,10 +7574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G310"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="1"/>
+    <sheetView topLeftCell="A35" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -10047,7 +10055,6 @@
   <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -12107,10 +12114,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -12224,6 +12232,23 @@
         <v>665</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12233,8 +12258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0"/>
-    <sheetView topLeftCell="A2" workbookViewId="1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -12933,7 +12957,6 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -13000,10 +13023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15427,10 +15447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A09E5EF-45A3-45FC-9489-706089B0F397}">
   <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD25"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -18862,10 +18879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4518C3-7192-4DD7-93DF-A109DE8BC3C1}">
   <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -21289,10 +21303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -23834,10 +23845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -25902,10 +25910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD38"/>
-    </sheetView>
-    <sheetView topLeftCell="A5" workbookViewId="1">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -29014,10 +29019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -31231,10 +31233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Resources/Variable_description_full.xlsx
+++ b/Resources/Variable_description_full.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{D9D14E5E-F476-45BE-9422-600D3D140919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9E006AD-A564-4CB4-BA64-270727455EBA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F660ADE-B0EB-472F-A719-A340F4887B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-21345" yWindow="4560" windowWidth="14400" windowHeight="7275" tabRatio="827" firstSheet="1" activeTab="11" xr2:uid="{FA0D2C8C-B83F-42B3-AEE0-8A421FCD5665}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="827" activeTab="2" xr2:uid="{FA0D2C8C-B83F-42B3-AEE0-8A421FCD5665}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge_cs" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7912" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7930" uniqueCount="1242">
   <si>
     <t>LI-7700</t>
   </si>
@@ -3726,6 +3726,39 @@
   </si>
   <si>
     <t>Light intensity</t>
+  </si>
+  <si>
+    <t>baro_press</t>
+  </si>
+  <si>
+    <t>water_stage</t>
+  </si>
+  <si>
+    <t>water_stage_std</t>
+  </si>
+  <si>
+    <t>water_stage_n_good_measures</t>
+  </si>
+  <si>
+    <t>CS475_n_good_meas</t>
+  </si>
+  <si>
+    <t>water_stage_avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water stage. Reference is two meters. </t>
+  </si>
+  <si>
+    <t>Water stage standard deviation</t>
+  </si>
+  <si>
+    <t>Number of good measures during the measurement interval</t>
+  </si>
+  <si>
+    <t>CS475a</t>
+  </si>
+  <si>
+    <t>Water sensing radar</t>
   </si>
 </sst>
 </file>
@@ -3882,10 +3915,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12116,7 +12145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -15445,9 +15474,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A09E5EF-45A3-45FC-9489-706089B0F397}">
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15980,7 +16011,7 @@
         <v>1224</v>
       </c>
       <c r="B38" t="s">
-        <v>1100</v>
+        <v>1231</v>
       </c>
       <c r="C38" t="s">
         <v>217</v>
@@ -16779,182 +16810,182 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>934</v>
+        <v>1232</v>
       </c>
       <c r="B78" t="s">
-        <v>366</v>
+        <v>1236</v>
       </c>
       <c r="C78" t="s">
-        <v>550</v>
+        <v>1237</v>
       </c>
       <c r="D78" t="s">
-        <v>534</v>
+        <v>104</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>1169</v>
+        <v>1240</v>
       </c>
       <c r="F78" t="s">
-        <v>537</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>922</v>
+        <v>1233</v>
       </c>
       <c r="B79" t="s">
-        <v>367</v>
+        <v>1233</v>
       </c>
       <c r="C79" t="s">
-        <v>536</v>
+        <v>1238</v>
       </c>
       <c r="D79" t="s">
-        <v>534</v>
+        <v>104</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>1169</v>
+        <v>1240</v>
       </c>
       <c r="F79" t="s">
-        <v>537</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>935</v>
+        <v>1234</v>
       </c>
       <c r="B80" t="s">
-        <v>365</v>
+        <v>1235</v>
       </c>
       <c r="C80" t="s">
-        <v>552</v>
+        <v>1239</v>
       </c>
       <c r="D80" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>1169</v>
+        <v>1240</v>
       </c>
       <c r="F80" t="s">
-        <v>537</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>1212</v>
+        <v>934</v>
       </c>
       <c r="B81" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="C81" t="s">
-        <v>429</v>
+        <v>550</v>
       </c>
       <c r="D81" t="s">
-        <v>203</v>
+        <v>534</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="F81" t="s">
-        <v>222</v>
+        <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>922</v>
       </c>
       <c r="B82" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="C82" t="s">
-        <v>429</v>
+        <v>536</v>
       </c>
       <c r="D82" t="s">
-        <v>203</v>
+        <v>534</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>423</v>
+        <v>1169</v>
       </c>
       <c r="F82" t="s">
-        <v>215</v>
+        <v>537</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>935</v>
       </c>
       <c r="B83" t="s">
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="C83" t="s">
-        <v>430</v>
+        <v>552</v>
       </c>
       <c r="D83" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>423</v>
+        <v>1169</v>
       </c>
       <c r="F83" t="s">
-        <v>188</v>
+        <v>537</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>226</v>
+        <v>1212</v>
       </c>
       <c r="B84" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="C84" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="D84" t="s">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>392</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="C85" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="D85" t="s">
-        <v>396</v>
+        <v>203</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F85" t="s">
-        <v>376</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="C86" t="s">
-        <v>174</v>
+        <v>430</v>
       </c>
       <c r="D86" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F86" t="s">
-        <v>424</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -16962,19 +16993,19 @@
         <v>226</v>
       </c>
       <c r="B87" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>393</v>
       </c>
       <c r="D87" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>425</v>
+        <v>125</v>
       </c>
       <c r="F87" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -16982,19 +17013,19 @@
         <v>226</v>
       </c>
       <c r="B88" t="s">
-        <v>326</v>
+        <v>123</v>
       </c>
       <c r="C88" t="s">
-        <v>176</v>
+        <v>395</v>
       </c>
       <c r="D88" t="s">
-        <v>127</v>
+        <v>396</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="F88" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -17002,19 +17033,19 @@
         <v>226</v>
       </c>
       <c r="B89" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C89" t="s">
-        <v>486</v>
+        <v>174</v>
       </c>
       <c r="D89" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F89" t="s">
-        <v>215</v>
+        <v>424</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -17022,19 +17053,19 @@
         <v>226</v>
       </c>
       <c r="B90" t="s">
-        <v>267</v>
+        <v>325</v>
       </c>
       <c r="C90" t="s">
-        <v>418</v>
+        <v>175</v>
       </c>
       <c r="D90" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F90" t="s">
-        <v>214</v>
+        <v>424</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -17042,19 +17073,19 @@
         <v>226</v>
       </c>
       <c r="B91" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="C91" t="s">
-        <v>419</v>
+        <v>176</v>
       </c>
       <c r="D91" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F91" t="s">
-        <v>214</v>
+        <v>424</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -17062,19 +17093,19 @@
         <v>226</v>
       </c>
       <c r="B92" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="C92" t="s">
-        <v>420</v>
+        <v>486</v>
       </c>
       <c r="D92" t="s">
-        <v>263</v>
+        <v>51</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F92" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -17082,19 +17113,19 @@
         <v>226</v>
       </c>
       <c r="B93" t="s">
-        <v>370</v>
+        <v>267</v>
       </c>
       <c r="C93" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D93" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F93" t="s">
-        <v>428</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -17102,19 +17133,19 @@
         <v>226</v>
       </c>
       <c r="B94" t="s">
-        <v>347</v>
+        <v>268</v>
       </c>
       <c r="C94" t="s">
-        <v>463</v>
+        <v>419</v>
       </c>
       <c r="D94" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="F94" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -17122,19 +17153,19 @@
         <v>226</v>
       </c>
       <c r="B95" t="s">
-        <v>345</v>
+        <v>269</v>
       </c>
       <c r="C95" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="D95" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="F95" t="s">
-        <v>448</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -17142,19 +17173,19 @@
         <v>226</v>
       </c>
       <c r="B96" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="C96" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
       <c r="D96" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="F96" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -17162,10 +17193,10 @@
         <v>226</v>
       </c>
       <c r="B97" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C97" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D97" t="s">
         <v>203</v>
@@ -17174,7 +17205,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>449</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -17182,10 +17213,10 @@
         <v>226</v>
       </c>
       <c r="B98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C98" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D98" t="s">
         <v>203</v>
@@ -17194,7 +17225,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -17202,10 +17233,10 @@
         <v>226</v>
       </c>
       <c r="B99" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C99" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D99" t="s">
         <v>203</v>
@@ -17214,7 +17245,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -17222,10 +17253,10 @@
         <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C100" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D100" t="s">
         <v>203</v>
@@ -17234,18 +17265,18 @@
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C101" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D101" t="s">
         <v>203</v>
@@ -17256,17 +17287,16 @@
       <c r="F101" t="s">
         <v>449</v>
       </c>
-      <c r="G101"/>
-    </row>
-    <row r="102" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C102" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D102" t="s">
         <v>203</v>
@@ -17275,19 +17305,18 @@
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>449</v>
-      </c>
-      <c r="G102"/>
-    </row>
-    <row r="103" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>226</v>
       </c>
       <c r="B103" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C103" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D103" t="s">
         <v>203</v>
@@ -17296,19 +17325,18 @@
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>451</v>
-      </c>
-      <c r="G103"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>226</v>
       </c>
       <c r="B104" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C104" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D104" t="s">
         <v>203</v>
@@ -17319,16 +17347,17 @@
       <c r="F104" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G104"/>
+    </row>
+    <row r="105" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>226</v>
       </c>
       <c r="B105" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C105" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D105" t="s">
         <v>203</v>
@@ -17337,47 +17366,49 @@
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+        <v>449</v>
+      </c>
+      <c r="G105"/>
+    </row>
+    <row r="106" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>226</v>
       </c>
       <c r="B106" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="C106" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="D106" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>215</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="G106"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>226</v>
       </c>
       <c r="B107" t="s">
-        <v>271</v>
+        <v>348</v>
       </c>
       <c r="C107" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="D107" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>449</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -17385,19 +17416,19 @@
         <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>273</v>
+        <v>342</v>
       </c>
       <c r="C108" t="s">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="D108" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>448</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -17405,174 +17436,174 @@
         <v>226</v>
       </c>
       <c r="B109" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" t="s">
+        <v>488</v>
+      </c>
+      <c r="D109" t="s">
+        <v>51</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" t="s">
+        <v>271</v>
+      </c>
+      <c r="C110" t="s">
+        <v>439</v>
+      </c>
+      <c r="D110" t="s">
+        <v>272</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F110" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>226</v>
+      </c>
+      <c r="B111" t="s">
+        <v>273</v>
+      </c>
+      <c r="C111" t="s">
+        <v>440</v>
+      </c>
+      <c r="D111" t="s">
+        <v>272</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F111" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>226</v>
+      </c>
+      <c r="B112" t="s">
         <v>274</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C112" t="s">
         <v>441</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D112" t="s">
         <v>272</v>
       </c>
-      <c r="E109" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="E112" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F112" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B110" s="13" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B113" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C113" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="D110" s="14" t="s">
+      <c r="D113" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E110" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="F110" s="14" t="s">
+      <c r="E113" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="F113" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="G110" s="14"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B111" s="14" t="s">
+      <c r="G113" s="14"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C114" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D114" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E111" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="F111" s="14" t="s">
+      <c r="E114" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="F114" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="G111" s="13"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B112" s="16" t="s">
+      <c r="G114" s="13"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C112" s="16" t="s">
+      <c r="C115" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="D112" s="16" t="s">
+      <c r="D115" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E112" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="F112" s="16" t="s">
+      <c r="E115" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F115" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G112" s="16"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B113" s="16" t="s">
+      <c r="G115" s="16"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="C113" s="16" t="s">
+      <c r="C116" s="16" t="s">
         <v>931</v>
       </c>
-      <c r="D113" s="16" t="s">
+      <c r="D116" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E113" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="F113" s="16" t="s">
+      <c r="E116" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F116" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G113" s="16"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>226</v>
-      </c>
-      <c r="B114" t="s">
-        <v>307</v>
-      </c>
-      <c r="C114" t="s">
-        <v>480</v>
-      </c>
-      <c r="D114" t="s">
-        <v>203</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F114" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>226</v>
-      </c>
-      <c r="B115" t="s">
-        <v>306</v>
-      </c>
-      <c r="C115" t="s">
-        <v>481</v>
-      </c>
-      <c r="D115" t="s">
-        <v>203</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F115" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>226</v>
-      </c>
-      <c r="B116" t="s">
-        <v>296</v>
-      </c>
-      <c r="C116" t="s">
-        <v>482</v>
-      </c>
-      <c r="D116" t="s">
-        <v>203</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F116" t="s">
-        <v>214</v>
-      </c>
+      <c r="G116" s="16"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>226</v>
       </c>
       <c r="B117" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C117" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D117" t="s">
         <v>203</v>
@@ -17589,10 +17620,10 @@
         <v>226</v>
       </c>
       <c r="B118" t="s">
-        <v>308</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>484</v>
+        <v>306</v>
+      </c>
+      <c r="C118" t="s">
+        <v>481</v>
       </c>
       <c r="D118" t="s">
         <v>203</v>
@@ -17601,7 +17632,7 @@
         <v>423</v>
       </c>
       <c r="F118" t="s">
-        <v>214</v>
+        <v>632</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -17609,10 +17640,10 @@
         <v>226</v>
       </c>
       <c r="B119" t="s">
-        <v>309</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>484</v>
+        <v>296</v>
+      </c>
+      <c r="C119" t="s">
+        <v>482</v>
       </c>
       <c r="D119" t="s">
         <v>203</v>
@@ -17629,10 +17660,10 @@
         <v>226</v>
       </c>
       <c r="B120" t="s">
-        <v>312</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>485</v>
+        <v>316</v>
+      </c>
+      <c r="C120" t="s">
+        <v>483</v>
       </c>
       <c r="D120" t="s">
         <v>203</v>
@@ -17649,10 +17680,10 @@
         <v>226</v>
       </c>
       <c r="B121" t="s">
-        <v>314</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>487</v>
+        <v>308</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>484</v>
       </c>
       <c r="D121" t="s">
         <v>203</v>
@@ -17669,10 +17700,10 @@
         <v>226</v>
       </c>
       <c r="B122" t="s">
-        <v>297</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>489</v>
+        <v>309</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>484</v>
       </c>
       <c r="D122" t="s">
         <v>203</v>
@@ -17689,10 +17720,10 @@
         <v>226</v>
       </c>
       <c r="B123" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D123" t="s">
         <v>203</v>
@@ -17709,10 +17740,10 @@
         <v>226</v>
       </c>
       <c r="B124" t="s">
-        <v>311</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>491</v>
+        <v>314</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>487</v>
       </c>
       <c r="D124" t="s">
         <v>203</v>
@@ -17729,10 +17760,10 @@
         <v>226</v>
       </c>
       <c r="B125" t="s">
-        <v>313</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>492</v>
+        <v>297</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="D125" t="s">
         <v>203</v>
@@ -17749,10 +17780,10 @@
         <v>226</v>
       </c>
       <c r="B126" t="s">
-        <v>315</v>
-      </c>
-      <c r="C126" t="s">
-        <v>487</v>
+        <v>310</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>490</v>
       </c>
       <c r="D126" t="s">
         <v>203</v>
@@ -17769,10 +17800,10 @@
         <v>226</v>
       </c>
       <c r="B127" t="s">
-        <v>317</v>
-      </c>
-      <c r="C127" t="s">
-        <v>493</v>
+        <v>311</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>491</v>
       </c>
       <c r="D127" t="s">
         <v>203</v>
@@ -17789,10 +17820,10 @@
         <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>299</v>
-      </c>
-      <c r="C128" t="s">
-        <v>494</v>
+        <v>313</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>492</v>
       </c>
       <c r="D128" t="s">
         <v>203</v>
@@ -17809,10 +17840,10 @@
         <v>226</v>
       </c>
       <c r="B129" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C129" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D129" t="s">
         <v>203</v>
@@ -17829,10 +17860,10 @@
         <v>226</v>
       </c>
       <c r="B130" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C130" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D130" t="s">
         <v>203</v>
@@ -17849,10 +17880,10 @@
         <v>226</v>
       </c>
       <c r="B131" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C131" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D131" t="s">
         <v>203</v>
@@ -17869,10 +17900,10 @@
         <v>226</v>
       </c>
       <c r="B132" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C132" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D132" t="s">
         <v>203</v>
@@ -17889,10 +17920,10 @@
         <v>226</v>
       </c>
       <c r="B133" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C133" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D133" t="s">
         <v>203</v>
@@ -17909,10 +17940,10 @@
         <v>226</v>
       </c>
       <c r="B134" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C134" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D134" t="s">
         <v>203</v>
@@ -17929,10 +17960,10 @@
         <v>226</v>
       </c>
       <c r="B135" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C135" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D135" t="s">
         <v>203</v>
@@ -17941,7 +17972,7 @@
         <v>423</v>
       </c>
       <c r="F135" t="s">
-        <v>632</v>
+        <v>214</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
@@ -17949,19 +17980,19 @@
         <v>226</v>
       </c>
       <c r="B136" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C136" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D136" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F136" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
@@ -17969,19 +18000,19 @@
         <v>226</v>
       </c>
       <c r="B137" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="C137" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D137" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="F137" t="s">
-        <v>449</v>
+        <v>214</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
@@ -17989,19 +18020,19 @@
         <v>226</v>
       </c>
       <c r="B138" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C138" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D138" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F138" t="s">
-        <v>215</v>
+        <v>632</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -18009,10 +18040,10 @@
         <v>226</v>
       </c>
       <c r="B139" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="C139" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D139" t="s">
         <v>51</v>
@@ -18021,7 +18052,7 @@
         <v>423</v>
       </c>
       <c r="F139" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
@@ -18029,19 +18060,19 @@
         <v>226</v>
       </c>
       <c r="B140" t="s">
-        <v>254</v>
+        <v>336</v>
       </c>
       <c r="C140" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D140" t="s">
         <v>51</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>188</v>
+        <v>449</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
@@ -18049,19 +18080,19 @@
         <v>226</v>
       </c>
       <c r="B141" t="s">
-        <v>118</v>
+        <v>295</v>
       </c>
       <c r="C141" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D141" t="s">
-        <v>372</v>
+        <v>51</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F141" t="s">
-        <v>376</v>
+        <v>215</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
@@ -18069,19 +18100,19 @@
         <v>226</v>
       </c>
       <c r="B142" t="s">
-        <v>120</v>
+        <v>255</v>
       </c>
       <c r="C142" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D142" t="s">
-        <v>372</v>
+        <v>51</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F142" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
@@ -18089,19 +18120,19 @@
         <v>226</v>
       </c>
       <c r="B143" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="C143" t="s">
-        <v>204</v>
+        <v>507</v>
       </c>
       <c r="D143" t="s">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F143" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
@@ -18109,19 +18140,19 @@
         <v>226</v>
       </c>
       <c r="B144" t="s">
-        <v>361</v>
+        <v>118</v>
       </c>
       <c r="C144" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D144" t="s">
-        <v>39</v>
+        <v>372</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="F144" t="s">
-        <v>522</v>
+        <v>376</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
@@ -18129,19 +18160,19 @@
         <v>226</v>
       </c>
       <c r="B145" t="s">
-        <v>362</v>
+        <v>120</v>
       </c>
       <c r="C145" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D145" t="s">
-        <v>39</v>
+        <v>372</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="F145" t="s">
-        <v>522</v>
+        <v>376</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
@@ -18149,19 +18180,19 @@
         <v>226</v>
       </c>
       <c r="B146" t="s">
-        <v>338</v>
+        <v>190</v>
       </c>
       <c r="C146" t="s">
-        <v>526</v>
+        <v>204</v>
       </c>
       <c r="D146" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="F146" t="s">
-        <v>449</v>
+        <v>376</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
@@ -18169,19 +18200,19 @@
         <v>226</v>
       </c>
       <c r="B147" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="C147" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D147" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F147" t="s">
-        <v>449</v>
+        <v>522</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
@@ -18189,19 +18220,19 @@
         <v>226</v>
       </c>
       <c r="B148" t="s">
-        <v>124</v>
+        <v>362</v>
       </c>
       <c r="C148" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D148" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>375</v>
+        <v>125</v>
       </c>
       <c r="F148" t="s">
-        <v>376</v>
+        <v>522</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
@@ -18209,22 +18240,19 @@
         <v>226</v>
       </c>
       <c r="B149" t="s">
-        <v>257</v>
+        <v>338</v>
       </c>
       <c r="C149" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D149" t="s">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="F149" t="s">
-        <v>188</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>646</v>
+        <v>449</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
@@ -18232,22 +18260,19 @@
         <v>226</v>
       </c>
       <c r="B150" t="s">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="C150" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D150" t="s">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>188</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>646</v>
+        <v>449</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
@@ -18255,19 +18280,19 @@
         <v>226</v>
       </c>
       <c r="B151" t="s">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="C151" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D151" t="s">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F151" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
@@ -18275,19 +18300,22 @@
         <v>226</v>
       </c>
       <c r="B152" t="s">
-        <v>86</v>
+        <v>257</v>
       </c>
       <c r="C152" t="s">
-        <v>651</v>
+        <v>529</v>
       </c>
       <c r="D152" t="s">
-        <v>534</v>
+        <v>203</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="F152" t="s">
-        <v>376</v>
+        <v>188</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
@@ -18295,13 +18323,13 @@
         <v>226</v>
       </c>
       <c r="B153" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C153" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D153" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>423</v>
@@ -18309,19 +18337,22 @@
       <c r="F153" t="s">
         <v>188</v>
       </c>
+      <c r="G153" s="2" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>226</v>
       </c>
       <c r="B154" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C154" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D154" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>423</v>
@@ -18335,19 +18366,19 @@
         <v>226</v>
       </c>
       <c r="B155" t="s">
-        <v>251</v>
+        <v>86</v>
       </c>
       <c r="C155" t="s">
-        <v>533</v>
+        <v>651</v>
       </c>
       <c r="D155" t="s">
-        <v>203</v>
+        <v>534</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>423</v>
+        <v>375</v>
       </c>
       <c r="F155" t="s">
-        <v>188</v>
+        <v>376</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
@@ -18355,13 +18386,13 @@
         <v>226</v>
       </c>
       <c r="B156" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C156" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D156" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>423</v>
@@ -18375,13 +18406,13 @@
         <v>226</v>
       </c>
       <c r="B157" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C157" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D157" t="s">
-        <v>534</v>
+        <v>253</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>423</v>
@@ -18395,22 +18426,19 @@
         <v>226</v>
       </c>
       <c r="B158" t="s">
-        <v>368</v>
+        <v>251</v>
       </c>
       <c r="C158" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D158" t="s">
-        <v>369</v>
+        <v>203</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F158" t="s">
-        <v>428</v>
-      </c>
-      <c r="G158" t="s">
-        <v>540</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
@@ -18418,19 +18446,19 @@
         <v>226</v>
       </c>
       <c r="B159" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C159" t="s">
-        <v>378</v>
+        <v>535</v>
       </c>
       <c r="D159" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F159" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
@@ -18438,13 +18466,13 @@
         <v>226</v>
       </c>
       <c r="B160" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="C160" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D160" t="s">
-        <v>142</v>
+        <v>534</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>423</v>
@@ -18453,58 +18481,61 @@
         <v>188</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>226</v>
       </c>
       <c r="B161" t="s">
-        <v>276</v>
+        <v>368</v>
       </c>
       <c r="C161" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D161" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F161" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+        <v>428</v>
+      </c>
+      <c r="G161" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>226</v>
       </c>
       <c r="B162" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="C162" t="s">
-        <v>544</v>
+        <v>378</v>
       </c>
       <c r="D162" t="s">
-        <v>385</v>
+        <v>229</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F162" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>226</v>
       </c>
       <c r="B163" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C163" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D163" t="s">
-        <v>385</v>
+        <v>142</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>423</v>
@@ -18513,18 +18544,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>226</v>
       </c>
       <c r="B164" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="C164" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D164" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>423</v>
@@ -18533,35 +18564,35 @@
         <v>188</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>226</v>
       </c>
       <c r="B165" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="C165" t="s">
-        <v>381</v>
+        <v>544</v>
       </c>
       <c r="D165" t="s">
-        <v>142</v>
+        <v>385</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F165" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>226</v>
       </c>
       <c r="B166" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="C166" t="s">
-        <v>382</v>
+        <v>545</v>
       </c>
       <c r="D166" t="s">
         <v>385</v>
@@ -18570,41 +18601,41 @@
         <v>423</v>
       </c>
       <c r="F166" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>226</v>
       </c>
       <c r="B167" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C167" t="s">
-        <v>383</v>
+        <v>546</v>
       </c>
       <c r="D167" t="s">
-        <v>385</v>
+        <v>142</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F167" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>226</v>
       </c>
       <c r="B168" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C168" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D168" t="s">
-        <v>385</v>
+        <v>142</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>423</v>
@@ -18613,18 +18644,18 @@
         <v>380</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>226</v>
       </c>
       <c r="B169" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C169" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D169" t="s">
-        <v>5</v>
+        <v>385</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>423</v>
@@ -18633,55 +18664,55 @@
         <v>380</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>226</v>
       </c>
       <c r="B170" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C170" t="s">
-        <v>547</v>
+        <v>383</v>
       </c>
       <c r="D170" t="s">
-        <v>5</v>
+        <v>385</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F170" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>226</v>
       </c>
       <c r="B171" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C171" t="s">
-        <v>548</v>
+        <v>384</v>
       </c>
       <c r="D171" t="s">
-        <v>5</v>
+        <v>385</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>423</v>
       </c>
       <c r="F171" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>226</v>
       </c>
       <c r="B172" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C172" t="s">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D172" t="s">
         <v>5</v>
@@ -18690,18 +18721,18 @@
         <v>423</v>
       </c>
       <c r="F172" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>226</v>
       </c>
       <c r="B173" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="C173" t="s">
-        <v>386</v>
+        <v>547</v>
       </c>
       <c r="D173" t="s">
         <v>5</v>
@@ -18713,18 +18744,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>226</v>
       </c>
       <c r="B174" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C174" t="s">
-        <v>389</v>
+        <v>548</v>
       </c>
       <c r="D174" t="s">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>423</v>
@@ -18733,18 +18764,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>226</v>
       </c>
       <c r="B175" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C175" t="s">
-        <v>390</v>
+        <v>549</v>
       </c>
       <c r="D175" t="s">
-        <v>237</v>
+        <v>5</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>423</v>
@@ -18753,15 +18784,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>226</v>
       </c>
       <c r="B176" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C176" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D176" t="s">
         <v>5</v>
@@ -18778,10 +18809,10 @@
         <v>226</v>
       </c>
       <c r="B177" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C177" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D177" t="s">
         <v>237</v>
@@ -18798,13 +18829,13 @@
         <v>226</v>
       </c>
       <c r="B178" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C178" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D178" t="s">
-        <v>5</v>
+        <v>237</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>423</v>
@@ -18818,13 +18849,13 @@
         <v>226</v>
       </c>
       <c r="B179" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C179" t="s">
-        <v>550</v>
+        <v>387</v>
       </c>
       <c r="D179" t="s">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>423</v>
@@ -18838,13 +18869,13 @@
         <v>226</v>
       </c>
       <c r="B180" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C180" t="s">
-        <v>936</v>
+        <v>391</v>
       </c>
       <c r="D180" t="s">
-        <v>534</v>
+        <v>237</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>423</v>
@@ -18852,21 +18883,81 @@
       <c r="F180" t="s">
         <v>188</v>
       </c>
-      <c r="G180" t="s">
-        <v>553</v>
-      </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>226</v>
       </c>
       <c r="B181" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+      <c r="C181" t="s">
+        <v>388</v>
       </c>
       <c r="D181" t="s">
         <v>5</v>
       </c>
-      <c r="G181" s="2" t="s">
+      <c r="E181" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F181" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>226</v>
+      </c>
+      <c r="B182" t="s">
+        <v>244</v>
+      </c>
+      <c r="C182" t="s">
+        <v>550</v>
+      </c>
+      <c r="D182" t="s">
+        <v>534</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F182" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>226</v>
+      </c>
+      <c r="B183" t="s">
+        <v>246</v>
+      </c>
+      <c r="C183" t="s">
+        <v>936</v>
+      </c>
+      <c r="D183" t="s">
+        <v>534</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F183" t="s">
+        <v>188</v>
+      </c>
+      <c r="G183" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>226</v>
+      </c>
+      <c r="B184" t="s">
+        <v>242</v>
+      </c>
+      <c r="D184" t="s">
+        <v>5</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>1079</v>
       </c>
     </row>

--- a/Resources/Variable_description_full.xlsx
+++ b/Resources/Variable_description_full.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F660ADE-B0EB-472F-A719-A340F4887B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{C03228C4-DFE7-4EBF-BE44-F3170381CB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0543C367-E18B-4F6B-A1AD-065783815E71}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="827" activeTab="2" xr2:uid="{FA0D2C8C-B83F-42B3-AEE0-8A421FCD5665}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="827" activeTab="10" xr2:uid="{FA0D2C8C-B83F-42B3-AEE0-8A421FCD5665}"/>
   </bookViews>
   <sheets>
-    <sheet name="Berge_cs" sheetId="1" r:id="rId1"/>
-    <sheet name="Berge_eddypro" sheetId="10" r:id="rId2"/>
-    <sheet name="Bernard_lake_cs" sheetId="14" r:id="rId3"/>
-    <sheet name="Bernard_lake_eddypro" sheetId="15" r:id="rId4"/>
-    <sheet name="Foret_est_cs" sheetId="6" r:id="rId5"/>
-    <sheet name="Foret_est_eddypro" sheetId="13" r:id="rId6"/>
-    <sheet name="Foret_ouest_cs" sheetId="5" r:id="rId7"/>
-    <sheet name="Foret_ouest_eddypro" sheetId="12" r:id="rId8"/>
-    <sheet name="Foret_sol_cs" sheetId="3" r:id="rId9"/>
-    <sheet name="Reservoir_cs" sheetId="2" r:id="rId10"/>
-    <sheet name="Reservoir_eddypro" sheetId="11" r:id="rId11"/>
-    <sheet name="Thermistors" sheetId="8" r:id="rId12"/>
-    <sheet name="Riviere_cs" sheetId="9" r:id="rId13"/>
-    <sheet name="Notations and abbreviations" sheetId="4" r:id="rId14"/>
+    <sheet name="Berge_precip_cs" sheetId="16" r:id="rId1"/>
+    <sheet name="Berge_cs" sheetId="1" r:id="rId2"/>
+    <sheet name="Berge_eddypro" sheetId="10" r:id="rId3"/>
+    <sheet name="Bernard_lake_cs" sheetId="14" r:id="rId4"/>
+    <sheet name="Bernard_lake_eddypro" sheetId="15" r:id="rId5"/>
+    <sheet name="Foret_est_cs" sheetId="6" r:id="rId6"/>
+    <sheet name="Foret_est_eddypro" sheetId="13" r:id="rId7"/>
+    <sheet name="Foret_ouest_cs" sheetId="5" r:id="rId8"/>
+    <sheet name="Foret_ouest_eddypro" sheetId="12" r:id="rId9"/>
+    <sheet name="Foret_sol_cs" sheetId="3" r:id="rId10"/>
+    <sheet name="Foret_precip_cs" sheetId="17" r:id="rId11"/>
+    <sheet name="Reservoir_cs" sheetId="2" r:id="rId12"/>
+    <sheet name="Reservoir_eddypro" sheetId="11" r:id="rId13"/>
+    <sheet name="Thermistors" sheetId="8" r:id="rId14"/>
+    <sheet name="Riviere_cs" sheetId="9" r:id="rId15"/>
+    <sheet name="Notations and abbreviations" sheetId="4" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7930" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8086" uniqueCount="1263">
   <si>
     <t>LI-7700</t>
   </si>
@@ -3759,6 +3761,69 @@
   </si>
   <si>
     <t>Water sensing radar</t>
+  </si>
+  <si>
+    <t>Geonor_Depth_Average</t>
+  </si>
+  <si>
+    <t>Geonor_Depth_StdDev</t>
+  </si>
+  <si>
+    <t>WindSpd_Avg</t>
+  </si>
+  <si>
+    <t>WindSpd_Max</t>
+  </si>
+  <si>
+    <t>WindSpd_Min</t>
+  </si>
+  <si>
+    <t>WindSpd_Std</t>
+  </si>
+  <si>
+    <t>Minimum battery voltage</t>
+  </si>
+  <si>
+    <t>CR1000X</t>
+  </si>
+  <si>
+    <t>Geonor average depth</t>
+  </si>
+  <si>
+    <t>Geonor depth standard deviation</t>
+  </si>
+  <si>
+    <t>Geonor T-200B</t>
+  </si>
+  <si>
+    <t>Total precipitation gauge</t>
+  </si>
+  <si>
+    <t>Maximum wind speed</t>
+  </si>
+  <si>
+    <t>Minimum wind speed</t>
+  </si>
+  <si>
+    <t>Wind speed standard deviation</t>
+  </si>
+  <si>
+    <t>Davis anemometer</t>
+  </si>
+  <si>
+    <t>geonor_depth</t>
+  </si>
+  <si>
+    <t>geonor_depth_std</t>
+  </si>
+  <si>
+    <t>wind_speed_max</t>
+  </si>
+  <si>
+    <t>wind_speed_min</t>
+  </si>
+  <si>
+    <t>wind_speed_std</t>
   </si>
 </sst>
 </file>
@@ -3915,6 +3980,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4179,45 +4248,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G180"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B74F8E-8F3C-4764-86FB-6187A7BF7DE0}">
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD25"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.6328125" customWidth="1"/>
-    <col min="2" max="2" width="35.1796875" customWidth="1"/>
-    <col min="3" max="3" width="143.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" customWidth="1"/>
+    <col min="6" max="6" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.36328125" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.8">
       <c r="B1" s="12" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>645</v>
+      </c>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>655</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" s="9"/>
+      <c r="F3"/>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
@@ -4240,9 +4321,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s">
         <v>189</v>
@@ -4254,3352 +4335,1146 @@
         <v>203</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>375</v>
+        <v>1249</v>
       </c>
       <c r="F8" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" t="s">
         <v>190</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>204</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E10" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F12" t="s">
+        <v>376</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F13" t="s">
+        <v>376</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D14" t="s">
+        <v>364</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D15" t="s">
+        <v>364</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>730</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C16" t="s">
+        <v>604</v>
+      </c>
+      <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E16" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F16" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D17" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E17" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F17" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D18" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F13" t="s">
-        <v>188</v>
-      </c>
-      <c r="G13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>226</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D14" t="s">
-        <v>203</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F14" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>226</v>
-      </c>
-      <c r="B15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" t="s">
-        <v>200</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G17" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>226</v>
-      </c>
-      <c r="B18" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" t="s">
-        <v>208</v>
-      </c>
-      <c r="D18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>423</v>
+      <c r="E18" t="s">
+        <v>1257</v>
       </c>
       <c r="F18" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>1262</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>1247</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>1256</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>423</v>
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1257</v>
       </c>
       <c r="F19" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>537</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>732</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>366</v>
       </c>
       <c r="C20" t="s">
-        <v>218</v>
+        <v>550</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F21" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>226</v>
-      </c>
-      <c r="B22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C22" t="s">
-        <v>220</v>
-      </c>
-      <c r="D22" t="s">
-        <v>201</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>226</v>
-      </c>
-      <c r="B23" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" t="s">
-        <v>217</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B24" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B25" t="s">
-        <v>199</v>
-      </c>
-      <c r="C25" t="s">
-        <v>221</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="36" x14ac:dyDescent="0.8">
-      <c r="B28" s="12" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>397</v>
-      </c>
-      <c r="B35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" t="s">
-        <v>202</v>
-      </c>
-      <c r="D35" t="s">
-        <v>203</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="F35" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>916</v>
-      </c>
-      <c r="B36" t="s">
-        <v>284</v>
-      </c>
-      <c r="C36" t="s">
-        <v>515</v>
-      </c>
-      <c r="D36" t="s">
-        <v>285</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>405</v>
-      </c>
-      <c r="B37" t="s">
-        <v>282</v>
-      </c>
-      <c r="C37" t="s">
-        <v>217</v>
-      </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F37" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>404</v>
-      </c>
-      <c r="B38" t="s">
-        <v>328</v>
-      </c>
-      <c r="C38" t="s">
-        <v>217</v>
-      </c>
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>453</v>
-      </c>
-      <c r="B39" t="s">
-        <v>354</v>
-      </c>
-      <c r="C39" t="s">
-        <v>457</v>
-      </c>
-      <c r="D39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="F39" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>924</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>554</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" t="s">
-        <v>555</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>914</v>
-      </c>
-      <c r="B41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" t="s">
-        <v>509</v>
-      </c>
-      <c r="D41" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="F41" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>454</v>
-      </c>
-      <c r="B42" t="s">
-        <v>351</v>
-      </c>
-      <c r="C42" t="s">
-        <v>208</v>
-      </c>
-      <c r="D42" t="s">
-        <v>142</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="F42" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>407</v>
-      </c>
-      <c r="B43" t="s">
-        <v>283</v>
-      </c>
-      <c r="C43" t="s">
-        <v>541</v>
-      </c>
-      <c r="D43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F43" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>925</v>
-      </c>
-      <c r="B44" t="s">
-        <v>281</v>
-      </c>
-      <c r="C44" t="s">
-        <v>577</v>
-      </c>
-      <c r="D44" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F44" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>406</v>
-      </c>
-      <c r="B45" t="s">
-        <v>329</v>
-      </c>
-      <c r="C45" t="s">
-        <v>208</v>
-      </c>
-      <c r="D45" t="s">
-        <v>142</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F45" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>455</v>
-      </c>
-      <c r="B46" t="s">
-        <v>352</v>
-      </c>
-      <c r="C46" t="s">
-        <v>458</v>
-      </c>
-      <c r="D46" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="F46" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>456</v>
-      </c>
-      <c r="B47" t="s">
-        <v>353</v>
-      </c>
-      <c r="C47" t="s">
-        <v>459</v>
-      </c>
-      <c r="D47" t="s">
-        <v>142</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="F47" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>403</v>
-      </c>
-      <c r="B48" t="s">
-        <v>356</v>
-      </c>
-      <c r="C48" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" t="s">
-        <v>203</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F48" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>408</v>
-      </c>
-      <c r="B49" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" t="s">
-        <v>394</v>
-      </c>
-      <c r="D49" t="s">
-        <v>117</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="F49" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>398</v>
-      </c>
-      <c r="B50" t="s">
-        <v>327</v>
-      </c>
-      <c r="C50" t="s">
-        <v>178</v>
-      </c>
-      <c r="D50" t="s">
-        <v>201</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>400</v>
-      </c>
-      <c r="B51" t="s">
-        <v>323</v>
-      </c>
-      <c r="C51" t="s">
-        <v>179</v>
-      </c>
-      <c r="D51" t="s">
-        <v>201</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>435</v>
-      </c>
-      <c r="B52" t="s">
-        <v>333</v>
-      </c>
-      <c r="C52" t="s">
-        <v>474</v>
-      </c>
-      <c r="D52" t="s">
-        <v>203</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B53" t="s">
-        <v>330</v>
-      </c>
-      <c r="C53" t="s">
-        <v>180</v>
-      </c>
-      <c r="D53" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F53" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>401</v>
-      </c>
-      <c r="B54" t="s">
-        <v>332</v>
-      </c>
-      <c r="C54" t="s">
-        <v>186</v>
-      </c>
-      <c r="D54" t="s">
-        <v>127</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F54" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>402</v>
-      </c>
-      <c r="B55" t="s">
-        <v>331</v>
-      </c>
-      <c r="C55" t="s">
-        <v>187</v>
-      </c>
-      <c r="D55" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F55" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>177</v>
-      </c>
-      <c r="B56" t="s">
-        <v>322</v>
-      </c>
-      <c r="C56" t="s">
-        <v>181</v>
-      </c>
-      <c r="D56" t="s">
-        <v>127</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F56" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>920</v>
-      </c>
-      <c r="B57" t="s">
-        <v>335</v>
-      </c>
-      <c r="C57" t="s">
-        <v>524</v>
-      </c>
-      <c r="D57" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F57" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>410</v>
-      </c>
-      <c r="B58" t="s">
-        <v>279</v>
-      </c>
-      <c r="C58" t="s">
-        <v>415</v>
-      </c>
-      <c r="D58" t="s">
-        <v>200</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F58" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>412</v>
-      </c>
-      <c r="B59" t="s">
-        <v>266</v>
-      </c>
-      <c r="C59" t="s">
-        <v>417</v>
-      </c>
-      <c r="D59" t="s">
-        <v>200</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F59" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>413</v>
-      </c>
-      <c r="B60" t="s">
-        <v>289</v>
-      </c>
-      <c r="C60" t="s">
-        <v>421</v>
-      </c>
-      <c r="D60" t="s">
-        <v>263</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F60" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>433</v>
-      </c>
-      <c r="B61" t="s">
-        <v>286</v>
-      </c>
-      <c r="C61" t="s">
-        <v>431</v>
-      </c>
-      <c r="D61" t="s">
-        <v>263</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F61" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>414</v>
-      </c>
-      <c r="B62" t="s">
-        <v>288</v>
-      </c>
-      <c r="C62" t="s">
-        <v>422</v>
-      </c>
-      <c r="D62" t="s">
-        <v>263</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F62" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>434</v>
-      </c>
-      <c r="B63" t="s">
-        <v>262</v>
-      </c>
-      <c r="C63" t="s">
-        <v>432</v>
-      </c>
-      <c r="D63" t="s">
-        <v>263</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F63" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>411</v>
-      </c>
-      <c r="B64" t="s">
-        <v>318</v>
-      </c>
-      <c r="C64" t="s">
-        <v>416</v>
-      </c>
-      <c r="D64" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F64" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="18" t="s">
-        <v>933</v>
-      </c>
-      <c r="B65" t="s">
-        <v>292</v>
-      </c>
-      <c r="C65" t="s">
-        <v>496</v>
-      </c>
-      <c r="D65" t="s">
-        <v>203</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F65" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="13" t="s">
-        <v>929</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="G66" s="13"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>445</v>
-      </c>
-      <c r="B67" t="s">
-        <v>280</v>
-      </c>
-      <c r="C67" t="s">
-        <v>437</v>
-      </c>
-      <c r="D67" t="s">
-        <v>79</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F67" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>444</v>
-      </c>
-      <c r="B68" t="s">
-        <v>270</v>
-      </c>
-      <c r="C68" t="s">
-        <v>438</v>
-      </c>
-      <c r="D68" t="s">
-        <v>79</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F68" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>446</v>
-      </c>
-      <c r="B69" t="s">
-        <v>319</v>
-      </c>
-      <c r="C69" t="s">
-        <v>436</v>
-      </c>
-      <c r="D69" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F69" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="16" t="s">
-        <v>930</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>932</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G70" s="16"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>915</v>
-      </c>
-      <c r="B71" t="s">
-        <v>363</v>
-      </c>
-      <c r="C71" t="s">
-        <v>512</v>
-      </c>
-      <c r="D71" t="s">
-        <v>364</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="F71" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>917</v>
-      </c>
-      <c r="B72" t="s">
-        <v>359</v>
-      </c>
-      <c r="C72" t="s">
-        <v>516</v>
-      </c>
-      <c r="D72" t="s">
-        <v>39</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F72" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>918</v>
-      </c>
-      <c r="B73" t="s">
-        <v>360</v>
-      </c>
-      <c r="C73" t="s">
-        <v>517</v>
-      </c>
-      <c r="D73" t="s">
-        <v>39</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F73" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>409</v>
-      </c>
-      <c r="B74" t="s">
-        <v>357</v>
-      </c>
-      <c r="C74" t="s">
-        <v>520</v>
-      </c>
-      <c r="D74" t="s">
-        <v>39</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F74" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>919</v>
-      </c>
-      <c r="B75" t="s">
-        <v>358</v>
-      </c>
-      <c r="C75" t="s">
-        <v>521</v>
-      </c>
-      <c r="D75" t="s">
-        <v>39</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F75" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>921</v>
-      </c>
-      <c r="B76" t="s">
-        <v>371</v>
-      </c>
-      <c r="C76" t="s">
-        <v>538</v>
-      </c>
-      <c r="D76" t="s">
-        <v>142</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="F76" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>934</v>
-      </c>
-      <c r="B77" t="s">
-        <v>366</v>
-      </c>
-      <c r="C77" t="s">
-        <v>550</v>
-      </c>
-      <c r="D77" t="s">
         <v>534</v>
       </c>
-      <c r="E77" s="9" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F77" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>922</v>
-      </c>
-      <c r="B78" t="s">
-        <v>367</v>
-      </c>
-      <c r="C78" t="s">
-        <v>536</v>
-      </c>
-      <c r="D78" t="s">
-        <v>534</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F78" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>935</v>
-      </c>
-      <c r="B79" t="s">
-        <v>365</v>
-      </c>
-      <c r="C79" t="s">
-        <v>552</v>
-      </c>
-      <c r="D79" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F79" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B80" t="s">
-        <v>334</v>
-      </c>
-      <c r="C80" t="s">
-        <v>429</v>
-      </c>
-      <c r="D80" t="s">
-        <v>203</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F80" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>14</v>
-      </c>
-      <c r="B81" t="s">
-        <v>293</v>
-      </c>
-      <c r="C81" t="s">
-        <v>429</v>
-      </c>
-      <c r="D81" t="s">
-        <v>203</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F81" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" t="s">
-        <v>252</v>
-      </c>
-      <c r="C82" t="s">
-        <v>430</v>
-      </c>
-      <c r="D82" t="s">
-        <v>203</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F82" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>226</v>
-      </c>
-      <c r="B83" t="s">
-        <v>355</v>
-      </c>
-      <c r="C83" t="s">
-        <v>393</v>
-      </c>
-      <c r="D83" t="s">
-        <v>39</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F83" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>226</v>
-      </c>
-      <c r="B84" t="s">
-        <v>123</v>
-      </c>
-      <c r="C84" t="s">
-        <v>395</v>
-      </c>
-      <c r="D84" t="s">
-        <v>396</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="F84" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>226</v>
-      </c>
-      <c r="B85" t="s">
-        <v>324</v>
-      </c>
-      <c r="C85" t="s">
-        <v>174</v>
-      </c>
-      <c r="D85" t="s">
-        <v>127</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F85" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>226</v>
-      </c>
-      <c r="B86" t="s">
-        <v>325</v>
-      </c>
-      <c r="C86" t="s">
-        <v>175</v>
-      </c>
-      <c r="D86" t="s">
-        <v>127</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F86" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>226</v>
-      </c>
-      <c r="B87" t="s">
-        <v>326</v>
-      </c>
-      <c r="C87" t="s">
-        <v>176</v>
-      </c>
-      <c r="D87" t="s">
-        <v>127</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F87" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>226</v>
-      </c>
-      <c r="B88" t="s">
-        <v>320</v>
-      </c>
-      <c r="C88" t="s">
-        <v>486</v>
-      </c>
-      <c r="D88" t="s">
-        <v>51</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F88" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>226</v>
-      </c>
-      <c r="B89" t="s">
-        <v>267</v>
-      </c>
-      <c r="C89" t="s">
-        <v>418</v>
-      </c>
-      <c r="D89" t="s">
-        <v>263</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F89" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>226</v>
-      </c>
-      <c r="B90" t="s">
-        <v>268</v>
-      </c>
-      <c r="C90" t="s">
-        <v>419</v>
-      </c>
-      <c r="D90" t="s">
-        <v>263</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F90" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>226</v>
-      </c>
-      <c r="B91" t="s">
-        <v>269</v>
-      </c>
-      <c r="C91" t="s">
-        <v>420</v>
-      </c>
-      <c r="D91" t="s">
-        <v>263</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F91" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>226</v>
-      </c>
-      <c r="B92" t="s">
-        <v>370</v>
-      </c>
-      <c r="C92" t="s">
-        <v>426</v>
-      </c>
-      <c r="D92" t="s">
-        <v>142</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="F92" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>226</v>
-      </c>
-      <c r="B93" t="s">
-        <v>347</v>
-      </c>
-      <c r="C93" t="s">
-        <v>463</v>
-      </c>
-      <c r="D93" t="s">
-        <v>203</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F93" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>226</v>
-      </c>
-      <c r="B94" t="s">
-        <v>345</v>
-      </c>
-      <c r="C94" t="s">
-        <v>464</v>
-      </c>
-      <c r="D94" t="s">
-        <v>203</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F94" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>226</v>
-      </c>
-      <c r="B95" t="s">
-        <v>341</v>
-      </c>
-      <c r="C95" t="s">
-        <v>465</v>
-      </c>
-      <c r="D95" t="s">
-        <v>203</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F95" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>226</v>
-      </c>
-      <c r="B96" t="s">
-        <v>340</v>
-      </c>
-      <c r="C96" t="s">
-        <v>466</v>
-      </c>
-      <c r="D96" t="s">
-        <v>203</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F96" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>226</v>
-      </c>
-      <c r="B97" t="s">
-        <v>346</v>
-      </c>
-      <c r="C97" t="s">
-        <v>467</v>
-      </c>
-      <c r="D97" t="s">
-        <v>203</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F97" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>226</v>
-      </c>
-      <c r="B98" t="s">
-        <v>339</v>
-      </c>
-      <c r="C98" t="s">
-        <v>468</v>
-      </c>
-      <c r="D98" t="s">
-        <v>203</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F98" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>226</v>
-      </c>
-      <c r="B99" t="s">
-        <v>344</v>
-      </c>
-      <c r="C99" t="s">
-        <v>469</v>
-      </c>
-      <c r="D99" t="s">
-        <v>203</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F99" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>226</v>
-      </c>
-      <c r="B100" t="s">
-        <v>349</v>
-      </c>
-      <c r="C100" t="s">
-        <v>470</v>
-      </c>
-      <c r="D100" t="s">
-        <v>203</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F100" t="s">
-        <v>449</v>
-      </c>
-      <c r="G100"/>
-    </row>
-    <row r="101" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>226</v>
-      </c>
-      <c r="B101" t="s">
-        <v>350</v>
-      </c>
-      <c r="C101" t="s">
-        <v>471</v>
-      </c>
-      <c r="D101" t="s">
-        <v>203</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F101" t="s">
-        <v>449</v>
-      </c>
-      <c r="G101"/>
-    </row>
-    <row r="102" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>226</v>
-      </c>
-      <c r="B102" t="s">
-        <v>343</v>
-      </c>
-      <c r="C102" t="s">
-        <v>472</v>
-      </c>
-      <c r="D102" t="s">
-        <v>203</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F102" t="s">
-        <v>451</v>
-      </c>
-      <c r="G102"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>226</v>
-      </c>
-      <c r="B103" t="s">
-        <v>348</v>
-      </c>
-      <c r="C103" t="s">
-        <v>473</v>
-      </c>
-      <c r="D103" t="s">
-        <v>203</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F103" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>226</v>
-      </c>
-      <c r="B104" t="s">
-        <v>342</v>
-      </c>
-      <c r="C104" t="s">
-        <v>475</v>
-      </c>
-      <c r="D104" t="s">
-        <v>203</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F104" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>226</v>
-      </c>
-      <c r="B105" t="s">
-        <v>321</v>
-      </c>
-      <c r="C105" t="s">
-        <v>488</v>
-      </c>
-      <c r="D105" t="s">
-        <v>51</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F105" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>226</v>
-      </c>
-      <c r="B106" t="s">
-        <v>271</v>
-      </c>
-      <c r="C106" t="s">
-        <v>439</v>
-      </c>
-      <c r="D106" t="s">
-        <v>272</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F106" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>226</v>
-      </c>
-      <c r="B107" t="s">
-        <v>273</v>
-      </c>
-      <c r="C107" t="s">
-        <v>440</v>
-      </c>
-      <c r="D107" t="s">
-        <v>272</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>226</v>
-      </c>
-      <c r="B108" t="s">
-        <v>274</v>
-      </c>
-      <c r="C108" t="s">
-        <v>441</v>
-      </c>
-      <c r="D108" t="s">
-        <v>272</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="F109" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="G109" s="14"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E110" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="F110" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="G110" s="13"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="D111" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E111" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="F111" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G111" s="16"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>931</v>
-      </c>
-      <c r="D112" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E112" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="F112" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="G112" s="16"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>226</v>
-      </c>
-      <c r="B113" t="s">
-        <v>307</v>
-      </c>
-      <c r="C113" t="s">
-        <v>480</v>
-      </c>
-      <c r="D113" t="s">
-        <v>203</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F113" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>226</v>
-      </c>
-      <c r="B114" t="s">
-        <v>306</v>
-      </c>
-      <c r="C114" t="s">
-        <v>481</v>
-      </c>
-      <c r="D114" t="s">
-        <v>203</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F114" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>226</v>
-      </c>
-      <c r="B115" t="s">
-        <v>296</v>
-      </c>
-      <c r="C115" t="s">
-        <v>482</v>
-      </c>
-      <c r="D115" t="s">
-        <v>203</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F115" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>226</v>
-      </c>
-      <c r="B116" t="s">
-        <v>316</v>
-      </c>
-      <c r="C116" t="s">
-        <v>483</v>
-      </c>
-      <c r="D116" t="s">
-        <v>203</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F116" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>226</v>
-      </c>
-      <c r="B117" t="s">
-        <v>308</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="D117" t="s">
-        <v>203</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F117" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>226</v>
-      </c>
-      <c r="B118" t="s">
-        <v>309</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="D118" t="s">
-        <v>203</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F118" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>226</v>
-      </c>
-      <c r="B119" t="s">
-        <v>312</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>485</v>
-      </c>
-      <c r="D119" t="s">
-        <v>203</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F119" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>226</v>
-      </c>
-      <c r="B120" t="s">
-        <v>314</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="D120" t="s">
-        <v>203</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F120" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>226</v>
-      </c>
-      <c r="B121" t="s">
-        <v>297</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="D121" t="s">
-        <v>203</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F121" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>226</v>
-      </c>
-      <c r="B122" t="s">
-        <v>310</v>
-      </c>
-      <c r="C122" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="D122" t="s">
-        <v>203</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F122" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>226</v>
-      </c>
-      <c r="B123" t="s">
-        <v>311</v>
-      </c>
-      <c r="C123" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="D123" t="s">
-        <v>203</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F123" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>226</v>
-      </c>
-      <c r="B124" t="s">
-        <v>313</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="D124" t="s">
-        <v>203</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F124" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>226</v>
-      </c>
-      <c r="B125" t="s">
-        <v>315</v>
-      </c>
-      <c r="C125" t="s">
-        <v>487</v>
-      </c>
-      <c r="D125" t="s">
-        <v>203</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F125" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>226</v>
-      </c>
-      <c r="B126" t="s">
-        <v>317</v>
-      </c>
-      <c r="C126" t="s">
-        <v>493</v>
-      </c>
-      <c r="D126" t="s">
-        <v>203</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F126" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>226</v>
-      </c>
-      <c r="B127" t="s">
-        <v>299</v>
-      </c>
-      <c r="C127" t="s">
-        <v>494</v>
-      </c>
-      <c r="D127" t="s">
-        <v>203</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F127" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>226</v>
-      </c>
-      <c r="B128" t="s">
-        <v>304</v>
-      </c>
-      <c r="C128" t="s">
-        <v>495</v>
-      </c>
-      <c r="D128" t="s">
-        <v>203</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F128" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>226</v>
-      </c>
-      <c r="B129" t="s">
-        <v>303</v>
-      </c>
-      <c r="C129" t="s">
-        <v>497</v>
-      </c>
-      <c r="D129" t="s">
-        <v>203</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F129" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>226</v>
-      </c>
-      <c r="B130" t="s">
-        <v>301</v>
-      </c>
-      <c r="C130" t="s">
-        <v>498</v>
-      </c>
-      <c r="D130" t="s">
-        <v>203</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F130" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>226</v>
-      </c>
-      <c r="B131" t="s">
-        <v>302</v>
-      </c>
-      <c r="C131" t="s">
-        <v>499</v>
-      </c>
-      <c r="D131" t="s">
-        <v>203</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F131" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>226</v>
-      </c>
-      <c r="B132" t="s">
-        <v>298</v>
-      </c>
-      <c r="C132" t="s">
-        <v>500</v>
-      </c>
-      <c r="D132" t="s">
-        <v>203</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F132" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>226</v>
-      </c>
-      <c r="B133" t="s">
-        <v>305</v>
-      </c>
-      <c r="C133" t="s">
-        <v>501</v>
-      </c>
-      <c r="D133" t="s">
-        <v>203</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F133" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>226</v>
-      </c>
-      <c r="B134" t="s">
-        <v>300</v>
-      </c>
-      <c r="C134" t="s">
-        <v>502</v>
-      </c>
-      <c r="D134" t="s">
-        <v>203</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F134" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>226</v>
-      </c>
-      <c r="B135" t="s">
-        <v>294</v>
-      </c>
-      <c r="C135" t="s">
-        <v>505</v>
-      </c>
-      <c r="D135" t="s">
-        <v>51</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F135" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>226</v>
-      </c>
-      <c r="B136" t="s">
-        <v>336</v>
-      </c>
-      <c r="C136" t="s">
-        <v>506</v>
-      </c>
-      <c r="D136" t="s">
-        <v>51</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F136" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>226</v>
-      </c>
-      <c r="B137" t="s">
-        <v>295</v>
-      </c>
-      <c r="C137" t="s">
-        <v>506</v>
-      </c>
-      <c r="D137" t="s">
-        <v>51</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F137" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>226</v>
-      </c>
-      <c r="B138" t="s">
-        <v>255</v>
-      </c>
-      <c r="C138" t="s">
-        <v>508</v>
-      </c>
-      <c r="D138" t="s">
-        <v>51</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F138" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>226</v>
-      </c>
-      <c r="B139" t="s">
-        <v>254</v>
-      </c>
-      <c r="C139" t="s">
-        <v>507</v>
-      </c>
-      <c r="D139" t="s">
-        <v>51</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F139" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>226</v>
-      </c>
-      <c r="B140" t="s">
-        <v>118</v>
-      </c>
-      <c r="C140" t="s">
-        <v>514</v>
-      </c>
-      <c r="D140" t="s">
-        <v>372</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="F140" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>226</v>
-      </c>
-      <c r="B141" t="s">
-        <v>120</v>
-      </c>
-      <c r="C141" t="s">
-        <v>513</v>
-      </c>
-      <c r="D141" t="s">
-        <v>372</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="F141" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>226</v>
-      </c>
-      <c r="B142" t="s">
-        <v>190</v>
-      </c>
-      <c r="C142" t="s">
-        <v>204</v>
-      </c>
-      <c r="D142" t="s">
-        <v>203</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="F142" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>226</v>
-      </c>
-      <c r="B143" t="s">
-        <v>361</v>
-      </c>
-      <c r="C143" t="s">
-        <v>518</v>
-      </c>
-      <c r="D143" t="s">
-        <v>39</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F143" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>226</v>
-      </c>
-      <c r="B144" t="s">
-        <v>362</v>
-      </c>
-      <c r="C144" t="s">
-        <v>519</v>
-      </c>
-      <c r="D144" t="s">
-        <v>39</v>
-      </c>
-      <c r="E144" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F144" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>226</v>
-      </c>
-      <c r="B145" t="s">
-        <v>338</v>
-      </c>
-      <c r="C145" t="s">
-        <v>526</v>
-      </c>
-      <c r="D145" t="s">
-        <v>51</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F145" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>226</v>
-      </c>
-      <c r="B146" t="s">
-        <v>337</v>
-      </c>
-      <c r="C146" t="s">
-        <v>525</v>
-      </c>
-      <c r="D146" t="s">
-        <v>51</v>
-      </c>
-      <c r="E146" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F146" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>226</v>
-      </c>
-      <c r="B147" t="s">
-        <v>124</v>
-      </c>
-      <c r="C147" t="s">
-        <v>527</v>
-      </c>
-      <c r="D147" t="s">
-        <v>51</v>
-      </c>
-      <c r="E147" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="F147" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>226</v>
-      </c>
-      <c r="B148" t="s">
-        <v>257</v>
-      </c>
-      <c r="C148" t="s">
-        <v>529</v>
-      </c>
-      <c r="D148" t="s">
-        <v>203</v>
-      </c>
-      <c r="E148" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F148" t="s">
-        <v>188</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>226</v>
-      </c>
-      <c r="B149" t="s">
-        <v>256</v>
-      </c>
-      <c r="C149" t="s">
-        <v>528</v>
-      </c>
-      <c r="D149" t="s">
-        <v>203</v>
-      </c>
-      <c r="E149" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F149" t="s">
-        <v>188</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>226</v>
-      </c>
-      <c r="B150" t="s">
-        <v>260</v>
-      </c>
-      <c r="C150" t="s">
-        <v>530</v>
-      </c>
-      <c r="D150" t="s">
-        <v>203</v>
-      </c>
-      <c r="E150" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F150" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>226</v>
-      </c>
-      <c r="B151" t="s">
-        <v>86</v>
-      </c>
-      <c r="C151" t="s">
-        <v>651</v>
-      </c>
-      <c r="D151" t="s">
-        <v>534</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="F151" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>226</v>
-      </c>
-      <c r="B152" t="s">
-        <v>261</v>
-      </c>
-      <c r="C152" t="s">
-        <v>531</v>
-      </c>
-      <c r="D152" t="s">
-        <v>253</v>
-      </c>
-      <c r="E152" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F152" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>226</v>
-      </c>
-      <c r="B153" t="s">
-        <v>259</v>
-      </c>
-      <c r="C153" t="s">
-        <v>532</v>
-      </c>
-      <c r="D153" t="s">
-        <v>253</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F153" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>226</v>
-      </c>
-      <c r="B154" t="s">
-        <v>251</v>
-      </c>
-      <c r="C154" t="s">
-        <v>533</v>
-      </c>
-      <c r="D154" t="s">
-        <v>203</v>
-      </c>
-      <c r="E154" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F154" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>226</v>
-      </c>
-      <c r="B155" t="s">
-        <v>258</v>
-      </c>
-      <c r="C155" t="s">
-        <v>535</v>
-      </c>
-      <c r="D155" t="s">
-        <v>203</v>
-      </c>
-      <c r="E155" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F155" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>226</v>
-      </c>
-      <c r="B156" t="s">
-        <v>245</v>
-      </c>
-      <c r="C156" t="s">
-        <v>536</v>
-      </c>
-      <c r="D156" t="s">
-        <v>534</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F156" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>226</v>
-      </c>
-      <c r="B157" t="s">
-        <v>368</v>
-      </c>
-      <c r="C157" t="s">
-        <v>539</v>
-      </c>
-      <c r="D157" t="s">
-        <v>369</v>
-      </c>
-      <c r="E157" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="F157" t="s">
-        <v>428</v>
-      </c>
-      <c r="G157" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>226</v>
-      </c>
-      <c r="B158" t="s">
-        <v>228</v>
-      </c>
-      <c r="C158" t="s">
-        <v>378</v>
-      </c>
-      <c r="D158" t="s">
-        <v>229</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F158" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>226</v>
-      </c>
-      <c r="B159" t="s">
-        <v>275</v>
-      </c>
-      <c r="C159" t="s">
-        <v>542</v>
-      </c>
-      <c r="D159" t="s">
-        <v>142</v>
-      </c>
-      <c r="E159" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F159" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>226</v>
-      </c>
-      <c r="B160" t="s">
-        <v>276</v>
-      </c>
-      <c r="C160" t="s">
-        <v>543</v>
-      </c>
-      <c r="D160" t="s">
-        <v>385</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F160" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>226</v>
-      </c>
-      <c r="B161" t="s">
-        <v>277</v>
-      </c>
-      <c r="C161" t="s">
-        <v>544</v>
-      </c>
-      <c r="D161" t="s">
-        <v>385</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F161" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>226</v>
-      </c>
-      <c r="B162" t="s">
-        <v>278</v>
-      </c>
-      <c r="C162" t="s">
-        <v>545</v>
-      </c>
-      <c r="D162" t="s">
-        <v>385</v>
-      </c>
-      <c r="E162" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F162" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>226</v>
-      </c>
-      <c r="B163" t="s">
-        <v>250</v>
-      </c>
-      <c r="C163" t="s">
-        <v>546</v>
-      </c>
-      <c r="D163" t="s">
-        <v>142</v>
-      </c>
-      <c r="E163" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F163" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>226</v>
-      </c>
-      <c r="B164" t="s">
-        <v>231</v>
-      </c>
-      <c r="C164" t="s">
-        <v>381</v>
-      </c>
-      <c r="D164" t="s">
-        <v>142</v>
-      </c>
-      <c r="E164" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F164" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>226</v>
-      </c>
-      <c r="B165" t="s">
-        <v>232</v>
-      </c>
-      <c r="C165" t="s">
-        <v>382</v>
-      </c>
-      <c r="D165" t="s">
-        <v>385</v>
-      </c>
-      <c r="E165" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F165" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>226</v>
-      </c>
-      <c r="B166" t="s">
-        <v>233</v>
-      </c>
-      <c r="C166" t="s">
-        <v>383</v>
-      </c>
-      <c r="D166" t="s">
-        <v>385</v>
-      </c>
-      <c r="E166" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F166" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>226</v>
-      </c>
-      <c r="B167" t="s">
-        <v>234</v>
-      </c>
-      <c r="C167" t="s">
-        <v>384</v>
-      </c>
-      <c r="D167" t="s">
-        <v>385</v>
-      </c>
-      <c r="E167" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F167" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>226</v>
-      </c>
-      <c r="B168" t="s">
-        <v>230</v>
-      </c>
-      <c r="C168" t="s">
-        <v>379</v>
-      </c>
-      <c r="D168" t="s">
-        <v>5</v>
-      </c>
-      <c r="E168" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F168" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>226</v>
-      </c>
-      <c r="B169" t="s">
-        <v>247</v>
-      </c>
-      <c r="C169" t="s">
-        <v>547</v>
-      </c>
-      <c r="D169" t="s">
-        <v>5</v>
-      </c>
-      <c r="E169" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F169" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>226</v>
-      </c>
-      <c r="B170" t="s">
-        <v>248</v>
-      </c>
-      <c r="C170" t="s">
-        <v>548</v>
-      </c>
-      <c r="D170" t="s">
-        <v>5</v>
-      </c>
-      <c r="E170" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F170" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>226</v>
-      </c>
-      <c r="B171" t="s">
-        <v>249</v>
-      </c>
-      <c r="C171" t="s">
-        <v>549</v>
-      </c>
-      <c r="D171" t="s">
-        <v>5</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F171" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>226</v>
-      </c>
-      <c r="B172" t="s">
-        <v>235</v>
-      </c>
-      <c r="C172" t="s">
-        <v>386</v>
-      </c>
-      <c r="D172" t="s">
-        <v>5</v>
-      </c>
-      <c r="E172" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F172" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>226</v>
-      </c>
-      <c r="B173" t="s">
-        <v>236</v>
-      </c>
-      <c r="C173" t="s">
-        <v>389</v>
-      </c>
-      <c r="D173" t="s">
-        <v>237</v>
-      </c>
-      <c r="E173" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F173" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>226</v>
-      </c>
-      <c r="B174" t="s">
-        <v>238</v>
-      </c>
-      <c r="C174" t="s">
-        <v>390</v>
-      </c>
-      <c r="D174" t="s">
-        <v>237</v>
-      </c>
-      <c r="E174" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F174" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>226</v>
-      </c>
-      <c r="B175" t="s">
-        <v>239</v>
-      </c>
-      <c r="C175" t="s">
-        <v>387</v>
-      </c>
-      <c r="D175" t="s">
-        <v>5</v>
-      </c>
-      <c r="E175" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F175" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>226</v>
-      </c>
-      <c r="B176" t="s">
-        <v>240</v>
-      </c>
-      <c r="C176" t="s">
-        <v>391</v>
-      </c>
-      <c r="D176" t="s">
-        <v>237</v>
-      </c>
-      <c r="E176" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F176" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>226</v>
-      </c>
-      <c r="B177" t="s">
-        <v>241</v>
-      </c>
-      <c r="C177" t="s">
-        <v>388</v>
-      </c>
-      <c r="D177" t="s">
-        <v>5</v>
-      </c>
-      <c r="E177" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F177" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>226</v>
-      </c>
-      <c r="B178" t="s">
-        <v>244</v>
-      </c>
-      <c r="C178" t="s">
-        <v>550</v>
-      </c>
-      <c r="D178" t="s">
-        <v>534</v>
-      </c>
-      <c r="E178" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F178" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>226</v>
-      </c>
-      <c r="B179" t="s">
-        <v>246</v>
-      </c>
-      <c r="C179" t="s">
-        <v>936</v>
-      </c>
-      <c r="D179" t="s">
-        <v>534</v>
-      </c>
-      <c r="E179" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F179" t="s">
-        <v>188</v>
-      </c>
-      <c r="G179" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>226</v>
-      </c>
-      <c r="B180" t="s">
-        <v>242</v>
-      </c>
-      <c r="D180" t="s">
-        <v>5</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>1079</v>
-      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E23" s="9"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E24" s="9"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G25" s="4"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G26" s="4"/>
+      <c r="H26" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A191:D260">
-    <sortCondition ref="A260"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" customWidth="1"/>
+    <col min="6" max="6" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.36328125" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.8">
+      <c r="B1" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" s="9"/>
+      <c r="F3"/>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" t="s">
+        <v>376</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
+        <v>514</v>
+      </c>
+      <c r="D27" t="s">
+        <v>372</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" t="s">
+        <v>376</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>513</v>
+      </c>
+      <c r="D28" t="s">
+        <v>372</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" t="s">
+        <v>376</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>395</v>
+      </c>
+      <c r="D29" t="s">
+        <v>396</v>
+      </c>
+      <c r="E29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" t="s">
+        <v>376</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" t="s">
+        <v>527</v>
+      </c>
+      <c r="D30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" t="s">
+        <v>376</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:F30">
+    <sortCondition ref="A10"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5BEAD8-32AF-4483-9C61-33609A3FF654}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" customWidth="1"/>
+    <col min="6" max="6" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.36328125" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.8">
+      <c r="B1" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" s="9"/>
+      <c r="F3"/>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F12" t="s">
+        <v>376</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F13" t="s">
+        <v>376</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D14" t="s">
+        <v>364</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D15" t="s">
+        <v>364</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>730</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C16" t="s">
+        <v>604</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F16" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F17" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F18" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F19" t="s">
+        <v>537</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>732</v>
+      </c>
+      <c r="B20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C20" t="s">
+        <v>550</v>
+      </c>
+      <c r="D20" t="s">
+        <v>534</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E23" s="9"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E24" s="9"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G25" s="4"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G26" s="4"/>
+      <c r="H26" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G310"/>
   <sheetViews>
@@ -10079,7 +7954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E158"/>
   <sheetViews>
@@ -12141,7 +10016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -12283,7 +10158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -12981,7 +10856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -13049,6 +10924,3427 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G180"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.6328125" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" customWidth="1"/>
+    <col min="3" max="3" width="143.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.8">
+      <c r="B1" s="12" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F17" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F18" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="36" x14ac:dyDescent="0.8">
+      <c r="B28" s="12" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>397</v>
+      </c>
+      <c r="B35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F35" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>916</v>
+      </c>
+      <c r="B36" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" t="s">
+        <v>515</v>
+      </c>
+      <c r="D36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>405</v>
+      </c>
+      <c r="B37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C37" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>404</v>
+      </c>
+      <c r="B38" t="s">
+        <v>328</v>
+      </c>
+      <c r="C38" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>453</v>
+      </c>
+      <c r="B39" t="s">
+        <v>354</v>
+      </c>
+      <c r="C39" t="s">
+        <v>457</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="F39" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>924</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>554</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" t="s">
+        <v>555</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>914</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="s">
+        <v>509</v>
+      </c>
+      <c r="D41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>454</v>
+      </c>
+      <c r="B42" t="s">
+        <v>351</v>
+      </c>
+      <c r="C42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="F42" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>407</v>
+      </c>
+      <c r="B43" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" t="s">
+        <v>541</v>
+      </c>
+      <c r="D43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>925</v>
+      </c>
+      <c r="B44" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44" t="s">
+        <v>577</v>
+      </c>
+      <c r="D44" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F44" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>406</v>
+      </c>
+      <c r="B45" t="s">
+        <v>329</v>
+      </c>
+      <c r="C45" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>455</v>
+      </c>
+      <c r="B46" t="s">
+        <v>352</v>
+      </c>
+      <c r="C46" t="s">
+        <v>458</v>
+      </c>
+      <c r="D46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="F46" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>456</v>
+      </c>
+      <c r="B47" t="s">
+        <v>353</v>
+      </c>
+      <c r="C47" t="s">
+        <v>459</v>
+      </c>
+      <c r="D47" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="F47" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>403</v>
+      </c>
+      <c r="B48" t="s">
+        <v>356</v>
+      </c>
+      <c r="C48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>408</v>
+      </c>
+      <c r="B49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" t="s">
+        <v>394</v>
+      </c>
+      <c r="D49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>398</v>
+      </c>
+      <c r="B50" t="s">
+        <v>327</v>
+      </c>
+      <c r="C50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" t="s">
+        <v>201</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>400</v>
+      </c>
+      <c r="B51" t="s">
+        <v>323</v>
+      </c>
+      <c r="C51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>435</v>
+      </c>
+      <c r="B52" t="s">
+        <v>333</v>
+      </c>
+      <c r="C52" t="s">
+        <v>474</v>
+      </c>
+      <c r="D52" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B53" t="s">
+        <v>330</v>
+      </c>
+      <c r="C53" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F53" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>401</v>
+      </c>
+      <c r="B54" t="s">
+        <v>332</v>
+      </c>
+      <c r="C54" t="s">
+        <v>186</v>
+      </c>
+      <c r="D54" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F54" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>402</v>
+      </c>
+      <c r="B55" t="s">
+        <v>331</v>
+      </c>
+      <c r="C55" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F55" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56" t="s">
+        <v>322</v>
+      </c>
+      <c r="C56" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F56" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>920</v>
+      </c>
+      <c r="B57" t="s">
+        <v>335</v>
+      </c>
+      <c r="C57" t="s">
+        <v>524</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>410</v>
+      </c>
+      <c r="B58" t="s">
+        <v>279</v>
+      </c>
+      <c r="C58" t="s">
+        <v>415</v>
+      </c>
+      <c r="D58" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F58" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>412</v>
+      </c>
+      <c r="B59" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" t="s">
+        <v>417</v>
+      </c>
+      <c r="D59" t="s">
+        <v>200</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F59" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>413</v>
+      </c>
+      <c r="B60" t="s">
+        <v>289</v>
+      </c>
+      <c r="C60" t="s">
+        <v>421</v>
+      </c>
+      <c r="D60" t="s">
+        <v>263</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>433</v>
+      </c>
+      <c r="B61" t="s">
+        <v>286</v>
+      </c>
+      <c r="C61" t="s">
+        <v>431</v>
+      </c>
+      <c r="D61" t="s">
+        <v>263</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>414</v>
+      </c>
+      <c r="B62" t="s">
+        <v>288</v>
+      </c>
+      <c r="C62" t="s">
+        <v>422</v>
+      </c>
+      <c r="D62" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>434</v>
+      </c>
+      <c r="B63" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" t="s">
+        <v>432</v>
+      </c>
+      <c r="D63" t="s">
+        <v>263</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F63" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>411</v>
+      </c>
+      <c r="B64" t="s">
+        <v>318</v>
+      </c>
+      <c r="C64" t="s">
+        <v>416</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F64" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="18" t="s">
+        <v>933</v>
+      </c>
+      <c r="B65" t="s">
+        <v>292</v>
+      </c>
+      <c r="C65" t="s">
+        <v>496</v>
+      </c>
+      <c r="D65" t="s">
+        <v>203</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>445</v>
+      </c>
+      <c r="B67" t="s">
+        <v>280</v>
+      </c>
+      <c r="C67" t="s">
+        <v>437</v>
+      </c>
+      <c r="D67" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F67" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>444</v>
+      </c>
+      <c r="B68" t="s">
+        <v>270</v>
+      </c>
+      <c r="C68" t="s">
+        <v>438</v>
+      </c>
+      <c r="D68" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F68" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>446</v>
+      </c>
+      <c r="B69" t="s">
+        <v>319</v>
+      </c>
+      <c r="C69" t="s">
+        <v>436</v>
+      </c>
+      <c r="D69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F69" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>932</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G70" s="16"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>915</v>
+      </c>
+      <c r="B71" t="s">
+        <v>363</v>
+      </c>
+      <c r="C71" t="s">
+        <v>512</v>
+      </c>
+      <c r="D71" t="s">
+        <v>364</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="F71" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>917</v>
+      </c>
+      <c r="B72" t="s">
+        <v>359</v>
+      </c>
+      <c r="C72" t="s">
+        <v>516</v>
+      </c>
+      <c r="D72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F72" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>918</v>
+      </c>
+      <c r="B73" t="s">
+        <v>360</v>
+      </c>
+      <c r="C73" t="s">
+        <v>517</v>
+      </c>
+      <c r="D73" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F73" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>409</v>
+      </c>
+      <c r="B74" t="s">
+        <v>357</v>
+      </c>
+      <c r="C74" t="s">
+        <v>520</v>
+      </c>
+      <c r="D74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F74" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>919</v>
+      </c>
+      <c r="B75" t="s">
+        <v>358</v>
+      </c>
+      <c r="C75" t="s">
+        <v>521</v>
+      </c>
+      <c r="D75" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F75" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>921</v>
+      </c>
+      <c r="B76" t="s">
+        <v>371</v>
+      </c>
+      <c r="C76" t="s">
+        <v>538</v>
+      </c>
+      <c r="D76" t="s">
+        <v>142</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F76" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>934</v>
+      </c>
+      <c r="B77" t="s">
+        <v>366</v>
+      </c>
+      <c r="C77" t="s">
+        <v>550</v>
+      </c>
+      <c r="D77" t="s">
+        <v>534</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F77" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>922</v>
+      </c>
+      <c r="B78" t="s">
+        <v>367</v>
+      </c>
+      <c r="C78" t="s">
+        <v>536</v>
+      </c>
+      <c r="D78" t="s">
+        <v>534</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F78" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>935</v>
+      </c>
+      <c r="B79" t="s">
+        <v>365</v>
+      </c>
+      <c r="C79" t="s">
+        <v>552</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F79" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B80" t="s">
+        <v>334</v>
+      </c>
+      <c r="C80" t="s">
+        <v>429</v>
+      </c>
+      <c r="D80" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>293</v>
+      </c>
+      <c r="C81" t="s">
+        <v>429</v>
+      </c>
+      <c r="D81" t="s">
+        <v>203</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F81" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>252</v>
+      </c>
+      <c r="C82" t="s">
+        <v>430</v>
+      </c>
+      <c r="D82" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F82" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" t="s">
+        <v>355</v>
+      </c>
+      <c r="C83" t="s">
+        <v>393</v>
+      </c>
+      <c r="D83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F83" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>226</v>
+      </c>
+      <c r="B84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" t="s">
+        <v>395</v>
+      </c>
+      <c r="D84" t="s">
+        <v>396</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F84" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>226</v>
+      </c>
+      <c r="B85" t="s">
+        <v>324</v>
+      </c>
+      <c r="C85" t="s">
+        <v>174</v>
+      </c>
+      <c r="D85" t="s">
+        <v>127</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F85" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>226</v>
+      </c>
+      <c r="B86" t="s">
+        <v>325</v>
+      </c>
+      <c r="C86" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" t="s">
+        <v>127</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F86" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>226</v>
+      </c>
+      <c r="B87" t="s">
+        <v>326</v>
+      </c>
+      <c r="C87" t="s">
+        <v>176</v>
+      </c>
+      <c r="D87" t="s">
+        <v>127</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F87" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>226</v>
+      </c>
+      <c r="B88" t="s">
+        <v>320</v>
+      </c>
+      <c r="C88" t="s">
+        <v>486</v>
+      </c>
+      <c r="D88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F88" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>226</v>
+      </c>
+      <c r="B89" t="s">
+        <v>267</v>
+      </c>
+      <c r="C89" t="s">
+        <v>418</v>
+      </c>
+      <c r="D89" t="s">
+        <v>263</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>226</v>
+      </c>
+      <c r="B90" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" t="s">
+        <v>419</v>
+      </c>
+      <c r="D90" t="s">
+        <v>263</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F90" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>226</v>
+      </c>
+      <c r="B91" t="s">
+        <v>269</v>
+      </c>
+      <c r="C91" t="s">
+        <v>420</v>
+      </c>
+      <c r="D91" t="s">
+        <v>263</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F91" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>226</v>
+      </c>
+      <c r="B92" t="s">
+        <v>370</v>
+      </c>
+      <c r="C92" t="s">
+        <v>426</v>
+      </c>
+      <c r="D92" t="s">
+        <v>142</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F92" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>226</v>
+      </c>
+      <c r="B93" t="s">
+        <v>347</v>
+      </c>
+      <c r="C93" t="s">
+        <v>463</v>
+      </c>
+      <c r="D93" t="s">
+        <v>203</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>226</v>
+      </c>
+      <c r="B94" t="s">
+        <v>345</v>
+      </c>
+      <c r="C94" t="s">
+        <v>464</v>
+      </c>
+      <c r="D94" t="s">
+        <v>203</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>226</v>
+      </c>
+      <c r="B95" t="s">
+        <v>341</v>
+      </c>
+      <c r="C95" t="s">
+        <v>465</v>
+      </c>
+      <c r="D95" t="s">
+        <v>203</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>226</v>
+      </c>
+      <c r="B96" t="s">
+        <v>340</v>
+      </c>
+      <c r="C96" t="s">
+        <v>466</v>
+      </c>
+      <c r="D96" t="s">
+        <v>203</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>226</v>
+      </c>
+      <c r="B97" t="s">
+        <v>346</v>
+      </c>
+      <c r="C97" t="s">
+        <v>467</v>
+      </c>
+      <c r="D97" t="s">
+        <v>203</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>226</v>
+      </c>
+      <c r="B98" t="s">
+        <v>339</v>
+      </c>
+      <c r="C98" t="s">
+        <v>468</v>
+      </c>
+      <c r="D98" t="s">
+        <v>203</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" t="s">
+        <v>344</v>
+      </c>
+      <c r="C99" t="s">
+        <v>469</v>
+      </c>
+      <c r="D99" t="s">
+        <v>203</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100" t="s">
+        <v>349</v>
+      </c>
+      <c r="C100" t="s">
+        <v>470</v>
+      </c>
+      <c r="D100" t="s">
+        <v>203</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>449</v>
+      </c>
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>226</v>
+      </c>
+      <c r="B101" t="s">
+        <v>350</v>
+      </c>
+      <c r="C101" t="s">
+        <v>471</v>
+      </c>
+      <c r="D101" t="s">
+        <v>203</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>449</v>
+      </c>
+      <c r="G101"/>
+    </row>
+    <row r="102" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>226</v>
+      </c>
+      <c r="B102" t="s">
+        <v>343</v>
+      </c>
+      <c r="C102" t="s">
+        <v>472</v>
+      </c>
+      <c r="D102" t="s">
+        <v>203</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F102" t="s">
+        <v>451</v>
+      </c>
+      <c r="G102"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>226</v>
+      </c>
+      <c r="B103" t="s">
+        <v>348</v>
+      </c>
+      <c r="C103" t="s">
+        <v>473</v>
+      </c>
+      <c r="D103" t="s">
+        <v>203</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F103" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>226</v>
+      </c>
+      <c r="B104" t="s">
+        <v>342</v>
+      </c>
+      <c r="C104" t="s">
+        <v>475</v>
+      </c>
+      <c r="D104" t="s">
+        <v>203</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>226</v>
+      </c>
+      <c r="B105" t="s">
+        <v>321</v>
+      </c>
+      <c r="C105" t="s">
+        <v>488</v>
+      </c>
+      <c r="D105" t="s">
+        <v>51</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F105" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>226</v>
+      </c>
+      <c r="B106" t="s">
+        <v>271</v>
+      </c>
+      <c r="C106" t="s">
+        <v>439</v>
+      </c>
+      <c r="D106" t="s">
+        <v>272</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F106" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" t="s">
+        <v>273</v>
+      </c>
+      <c r="C107" t="s">
+        <v>440</v>
+      </c>
+      <c r="D107" t="s">
+        <v>272</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F107" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>226</v>
+      </c>
+      <c r="B108" t="s">
+        <v>274</v>
+      </c>
+      <c r="C108" t="s">
+        <v>441</v>
+      </c>
+      <c r="D108" t="s">
+        <v>272</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="G109" s="14"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="G110" s="13"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F111" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G111" s="16"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>931</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G112" s="16"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>307</v>
+      </c>
+      <c r="C113" t="s">
+        <v>480</v>
+      </c>
+      <c r="D113" t="s">
+        <v>203</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F113" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
+        <v>306</v>
+      </c>
+      <c r="C114" t="s">
+        <v>481</v>
+      </c>
+      <c r="D114" t="s">
+        <v>203</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F114" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" t="s">
+        <v>296</v>
+      </c>
+      <c r="C115" t="s">
+        <v>482</v>
+      </c>
+      <c r="D115" t="s">
+        <v>203</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F115" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" t="s">
+        <v>316</v>
+      </c>
+      <c r="C116" t="s">
+        <v>483</v>
+      </c>
+      <c r="D116" t="s">
+        <v>203</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F116" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>226</v>
+      </c>
+      <c r="B117" t="s">
+        <v>308</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="D117" t="s">
+        <v>203</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F117" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>226</v>
+      </c>
+      <c r="B118" t="s">
+        <v>309</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="D118" t="s">
+        <v>203</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F118" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>226</v>
+      </c>
+      <c r="B119" t="s">
+        <v>312</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="D119" t="s">
+        <v>203</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F119" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>226</v>
+      </c>
+      <c r="B120" t="s">
+        <v>314</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D120" t="s">
+        <v>203</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F120" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>226</v>
+      </c>
+      <c r="B121" t="s">
+        <v>297</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D121" t="s">
+        <v>203</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F121" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>226</v>
+      </c>
+      <c r="B122" t="s">
+        <v>310</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="D122" t="s">
+        <v>203</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F122" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>226</v>
+      </c>
+      <c r="B123" t="s">
+        <v>311</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="D123" t="s">
+        <v>203</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F123" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>226</v>
+      </c>
+      <c r="B124" t="s">
+        <v>313</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="D124" t="s">
+        <v>203</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F124" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" t="s">
+        <v>315</v>
+      </c>
+      <c r="C125" t="s">
+        <v>487</v>
+      </c>
+      <c r="D125" t="s">
+        <v>203</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F125" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>226</v>
+      </c>
+      <c r="B126" t="s">
+        <v>317</v>
+      </c>
+      <c r="C126" t="s">
+        <v>493</v>
+      </c>
+      <c r="D126" t="s">
+        <v>203</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F126" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>226</v>
+      </c>
+      <c r="B127" t="s">
+        <v>299</v>
+      </c>
+      <c r="C127" t="s">
+        <v>494</v>
+      </c>
+      <c r="D127" t="s">
+        <v>203</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F127" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>226</v>
+      </c>
+      <c r="B128" t="s">
+        <v>304</v>
+      </c>
+      <c r="C128" t="s">
+        <v>495</v>
+      </c>
+      <c r="D128" t="s">
+        <v>203</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F128" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>226</v>
+      </c>
+      <c r="B129" t="s">
+        <v>303</v>
+      </c>
+      <c r="C129" t="s">
+        <v>497</v>
+      </c>
+      <c r="D129" t="s">
+        <v>203</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F129" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>226</v>
+      </c>
+      <c r="B130" t="s">
+        <v>301</v>
+      </c>
+      <c r="C130" t="s">
+        <v>498</v>
+      </c>
+      <c r="D130" t="s">
+        <v>203</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F130" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>226</v>
+      </c>
+      <c r="B131" t="s">
+        <v>302</v>
+      </c>
+      <c r="C131" t="s">
+        <v>499</v>
+      </c>
+      <c r="D131" t="s">
+        <v>203</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F131" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>226</v>
+      </c>
+      <c r="B132" t="s">
+        <v>298</v>
+      </c>
+      <c r="C132" t="s">
+        <v>500</v>
+      </c>
+      <c r="D132" t="s">
+        <v>203</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F132" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>226</v>
+      </c>
+      <c r="B133" t="s">
+        <v>305</v>
+      </c>
+      <c r="C133" t="s">
+        <v>501</v>
+      </c>
+      <c r="D133" t="s">
+        <v>203</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F133" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>226</v>
+      </c>
+      <c r="B134" t="s">
+        <v>300</v>
+      </c>
+      <c r="C134" t="s">
+        <v>502</v>
+      </c>
+      <c r="D134" t="s">
+        <v>203</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F134" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>226</v>
+      </c>
+      <c r="B135" t="s">
+        <v>294</v>
+      </c>
+      <c r="C135" t="s">
+        <v>505</v>
+      </c>
+      <c r="D135" t="s">
+        <v>51</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F135" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>226</v>
+      </c>
+      <c r="B136" t="s">
+        <v>336</v>
+      </c>
+      <c r="C136" t="s">
+        <v>506</v>
+      </c>
+      <c r="D136" t="s">
+        <v>51</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F136" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>226</v>
+      </c>
+      <c r="B137" t="s">
+        <v>295</v>
+      </c>
+      <c r="C137" t="s">
+        <v>506</v>
+      </c>
+      <c r="D137" t="s">
+        <v>51</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F137" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>226</v>
+      </c>
+      <c r="B138" t="s">
+        <v>255</v>
+      </c>
+      <c r="C138" t="s">
+        <v>508</v>
+      </c>
+      <c r="D138" t="s">
+        <v>51</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F138" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>226</v>
+      </c>
+      <c r="B139" t="s">
+        <v>254</v>
+      </c>
+      <c r="C139" t="s">
+        <v>507</v>
+      </c>
+      <c r="D139" t="s">
+        <v>51</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F139" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>226</v>
+      </c>
+      <c r="B140" t="s">
+        <v>118</v>
+      </c>
+      <c r="C140" t="s">
+        <v>514</v>
+      </c>
+      <c r="D140" t="s">
+        <v>372</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F140" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>226</v>
+      </c>
+      <c r="B141" t="s">
+        <v>120</v>
+      </c>
+      <c r="C141" t="s">
+        <v>513</v>
+      </c>
+      <c r="D141" t="s">
+        <v>372</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F141" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>226</v>
+      </c>
+      <c r="B142" t="s">
+        <v>190</v>
+      </c>
+      <c r="C142" t="s">
+        <v>204</v>
+      </c>
+      <c r="D142" t="s">
+        <v>203</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F142" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>226</v>
+      </c>
+      <c r="B143" t="s">
+        <v>361</v>
+      </c>
+      <c r="C143" t="s">
+        <v>518</v>
+      </c>
+      <c r="D143" t="s">
+        <v>39</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F143" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>226</v>
+      </c>
+      <c r="B144" t="s">
+        <v>362</v>
+      </c>
+      <c r="C144" t="s">
+        <v>519</v>
+      </c>
+      <c r="D144" t="s">
+        <v>39</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F144" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>226</v>
+      </c>
+      <c r="B145" t="s">
+        <v>338</v>
+      </c>
+      <c r="C145" t="s">
+        <v>526</v>
+      </c>
+      <c r="D145" t="s">
+        <v>51</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F145" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>226</v>
+      </c>
+      <c r="B146" t="s">
+        <v>337</v>
+      </c>
+      <c r="C146" t="s">
+        <v>525</v>
+      </c>
+      <c r="D146" t="s">
+        <v>51</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F146" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>226</v>
+      </c>
+      <c r="B147" t="s">
+        <v>124</v>
+      </c>
+      <c r="C147" t="s">
+        <v>527</v>
+      </c>
+      <c r="D147" t="s">
+        <v>51</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F147" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>226</v>
+      </c>
+      <c r="B148" t="s">
+        <v>257</v>
+      </c>
+      <c r="C148" t="s">
+        <v>529</v>
+      </c>
+      <c r="D148" t="s">
+        <v>203</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F148" t="s">
+        <v>188</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>226</v>
+      </c>
+      <c r="B149" t="s">
+        <v>256</v>
+      </c>
+      <c r="C149" t="s">
+        <v>528</v>
+      </c>
+      <c r="D149" t="s">
+        <v>203</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F149" t="s">
+        <v>188</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>226</v>
+      </c>
+      <c r="B150" t="s">
+        <v>260</v>
+      </c>
+      <c r="C150" t="s">
+        <v>530</v>
+      </c>
+      <c r="D150" t="s">
+        <v>203</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F150" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>226</v>
+      </c>
+      <c r="B151" t="s">
+        <v>86</v>
+      </c>
+      <c r="C151" t="s">
+        <v>651</v>
+      </c>
+      <c r="D151" t="s">
+        <v>534</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F151" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>226</v>
+      </c>
+      <c r="B152" t="s">
+        <v>261</v>
+      </c>
+      <c r="C152" t="s">
+        <v>531</v>
+      </c>
+      <c r="D152" t="s">
+        <v>253</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F152" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>226</v>
+      </c>
+      <c r="B153" t="s">
+        <v>259</v>
+      </c>
+      <c r="C153" t="s">
+        <v>532</v>
+      </c>
+      <c r="D153" t="s">
+        <v>253</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F153" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>226</v>
+      </c>
+      <c r="B154" t="s">
+        <v>251</v>
+      </c>
+      <c r="C154" t="s">
+        <v>533</v>
+      </c>
+      <c r="D154" t="s">
+        <v>203</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F154" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>226</v>
+      </c>
+      <c r="B155" t="s">
+        <v>258</v>
+      </c>
+      <c r="C155" t="s">
+        <v>535</v>
+      </c>
+      <c r="D155" t="s">
+        <v>203</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F155" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>226</v>
+      </c>
+      <c r="B156" t="s">
+        <v>245</v>
+      </c>
+      <c r="C156" t="s">
+        <v>536</v>
+      </c>
+      <c r="D156" t="s">
+        <v>534</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F156" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>226</v>
+      </c>
+      <c r="B157" t="s">
+        <v>368</v>
+      </c>
+      <c r="C157" t="s">
+        <v>539</v>
+      </c>
+      <c r="D157" t="s">
+        <v>369</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F157" t="s">
+        <v>428</v>
+      </c>
+      <c r="G157" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>226</v>
+      </c>
+      <c r="B158" t="s">
+        <v>228</v>
+      </c>
+      <c r="C158" t="s">
+        <v>378</v>
+      </c>
+      <c r="D158" t="s">
+        <v>229</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F158" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>226</v>
+      </c>
+      <c r="B159" t="s">
+        <v>275</v>
+      </c>
+      <c r="C159" t="s">
+        <v>542</v>
+      </c>
+      <c r="D159" t="s">
+        <v>142</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F159" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>226</v>
+      </c>
+      <c r="B160" t="s">
+        <v>276</v>
+      </c>
+      <c r="C160" t="s">
+        <v>543</v>
+      </c>
+      <c r="D160" t="s">
+        <v>385</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F160" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>226</v>
+      </c>
+      <c r="B161" t="s">
+        <v>277</v>
+      </c>
+      <c r="C161" t="s">
+        <v>544</v>
+      </c>
+      <c r="D161" t="s">
+        <v>385</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F161" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>226</v>
+      </c>
+      <c r="B162" t="s">
+        <v>278</v>
+      </c>
+      <c r="C162" t="s">
+        <v>545</v>
+      </c>
+      <c r="D162" t="s">
+        <v>385</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F162" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>226</v>
+      </c>
+      <c r="B163" t="s">
+        <v>250</v>
+      </c>
+      <c r="C163" t="s">
+        <v>546</v>
+      </c>
+      <c r="D163" t="s">
+        <v>142</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F163" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>226</v>
+      </c>
+      <c r="B164" t="s">
+        <v>231</v>
+      </c>
+      <c r="C164" t="s">
+        <v>381</v>
+      </c>
+      <c r="D164" t="s">
+        <v>142</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F164" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>226</v>
+      </c>
+      <c r="B165" t="s">
+        <v>232</v>
+      </c>
+      <c r="C165" t="s">
+        <v>382</v>
+      </c>
+      <c r="D165" t="s">
+        <v>385</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F165" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>226</v>
+      </c>
+      <c r="B166" t="s">
+        <v>233</v>
+      </c>
+      <c r="C166" t="s">
+        <v>383</v>
+      </c>
+      <c r="D166" t="s">
+        <v>385</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F166" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>226</v>
+      </c>
+      <c r="B167" t="s">
+        <v>234</v>
+      </c>
+      <c r="C167" t="s">
+        <v>384</v>
+      </c>
+      <c r="D167" t="s">
+        <v>385</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F167" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>226</v>
+      </c>
+      <c r="B168" t="s">
+        <v>230</v>
+      </c>
+      <c r="C168" t="s">
+        <v>379</v>
+      </c>
+      <c r="D168" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F168" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>226</v>
+      </c>
+      <c r="B169" t="s">
+        <v>247</v>
+      </c>
+      <c r="C169" t="s">
+        <v>547</v>
+      </c>
+      <c r="D169" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F169" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>226</v>
+      </c>
+      <c r="B170" t="s">
+        <v>248</v>
+      </c>
+      <c r="C170" t="s">
+        <v>548</v>
+      </c>
+      <c r="D170" t="s">
+        <v>5</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F170" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>226</v>
+      </c>
+      <c r="B171" t="s">
+        <v>249</v>
+      </c>
+      <c r="C171" t="s">
+        <v>549</v>
+      </c>
+      <c r="D171" t="s">
+        <v>5</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F171" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>226</v>
+      </c>
+      <c r="B172" t="s">
+        <v>235</v>
+      </c>
+      <c r="C172" t="s">
+        <v>386</v>
+      </c>
+      <c r="D172" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F172" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>226</v>
+      </c>
+      <c r="B173" t="s">
+        <v>236</v>
+      </c>
+      <c r="C173" t="s">
+        <v>389</v>
+      </c>
+      <c r="D173" t="s">
+        <v>237</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>226</v>
+      </c>
+      <c r="B174" t="s">
+        <v>238</v>
+      </c>
+      <c r="C174" t="s">
+        <v>390</v>
+      </c>
+      <c r="D174" t="s">
+        <v>237</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F174" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>226</v>
+      </c>
+      <c r="B175" t="s">
+        <v>239</v>
+      </c>
+      <c r="C175" t="s">
+        <v>387</v>
+      </c>
+      <c r="D175" t="s">
+        <v>5</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F175" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>226</v>
+      </c>
+      <c r="B176" t="s">
+        <v>240</v>
+      </c>
+      <c r="C176" t="s">
+        <v>391</v>
+      </c>
+      <c r="D176" t="s">
+        <v>237</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F176" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>226</v>
+      </c>
+      <c r="B177" t="s">
+        <v>241</v>
+      </c>
+      <c r="C177" t="s">
+        <v>388</v>
+      </c>
+      <c r="D177" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F177" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>226</v>
+      </c>
+      <c r="B178" t="s">
+        <v>244</v>
+      </c>
+      <c r="C178" t="s">
+        <v>550</v>
+      </c>
+      <c r="D178" t="s">
+        <v>534</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F178" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>226</v>
+      </c>
+      <c r="B179" t="s">
+        <v>246</v>
+      </c>
+      <c r="C179" t="s">
+        <v>936</v>
+      </c>
+      <c r="D179" t="s">
+        <v>534</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F179" t="s">
+        <v>188</v>
+      </c>
+      <c r="G179" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>226</v>
+      </c>
+      <c r="B180" t="s">
+        <v>242</v>
+      </c>
+      <c r="D180" t="s">
+        <v>5</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A191:D260">
+    <sortCondition ref="A260"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E186"/>
   <sheetViews>
@@ -15472,11 +16768,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A09E5EF-45A3-45FC-9489-706089B0F397}">
   <dimension ref="A1:G184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
@@ -18966,7 +20262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4518C3-7192-4DD7-93DF-A109DE8BC3C1}">
   <dimension ref="A1:E186"/>
   <sheetViews>
@@ -21390,7 +22686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G140"/>
   <sheetViews>
@@ -23932,7 +25228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E158"/>
   <sheetViews>
@@ -25997,12 +27293,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="C90" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29106,7 +30402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E168"/>
   <sheetViews>
@@ -31318,547 +32614,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.36328125" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" customWidth="1"/>
-    <col min="6" max="6" width="31.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.36328125" customWidth="1"/>
-    <col min="8" max="8" width="25.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.8">
-      <c r="B1" s="12" t="s">
-        <v>645</v>
-      </c>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>655</v>
-      </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>643</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3" s="9"/>
-      <c r="F3"/>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>644</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>397</v>
-      </c>
-      <c r="B8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" t="s">
-        <v>509</v>
-      </c>
-      <c r="D11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" t="s">
-        <v>376</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>408</v>
-      </c>
-      <c r="B12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" t="s">
-        <v>394</v>
-      </c>
-      <c r="D12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" t="s">
-        <v>376</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>226</v>
-      </c>
-      <c r="B23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>226</v>
-      </c>
-      <c r="B24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>226</v>
-      </c>
-      <c r="B25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>226</v>
-      </c>
-      <c r="B26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>226</v>
-      </c>
-      <c r="B27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" t="s">
-        <v>514</v>
-      </c>
-      <c r="D27" t="s">
-        <v>372</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" t="s">
-        <v>376</v>
-      </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>226</v>
-      </c>
-      <c r="B28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" t="s">
-        <v>513</v>
-      </c>
-      <c r="D28" t="s">
-        <v>372</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" t="s">
-        <v>376</v>
-      </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>226</v>
-      </c>
-      <c r="B29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" t="s">
-        <v>395</v>
-      </c>
-      <c r="D29" t="s">
-        <v>396</v>
-      </c>
-      <c r="E29" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" t="s">
-        <v>376</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>226</v>
-      </c>
-      <c r="B30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" t="s">
-        <v>527</v>
-      </c>
-      <c r="D30" t="s">
-        <v>203</v>
-      </c>
-      <c r="E30" t="s">
-        <v>151</v>
-      </c>
-      <c r="F30" t="s">
-        <v>376</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="7"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:F30">
-    <sortCondition ref="A10"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Resources/Variable_description_full.xlsx
+++ b/Resources/Variable_description_full.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFAA5C8-F247-4664-80D3-EE0745860E31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2940B1FB-72E4-4F44-90D5-EDC63A843231}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14970" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="729" firstSheet="22" activeTab="30" xr2:uid="{09413DCB-0A34-4F52-B390-10AFD0613767}"/>
+    <workbookView xWindow="-12180" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="729" firstSheet="19" activeTab="19" xr2:uid="{09413DCB-0A34-4F52-B390-10AFD0613767}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge_cs" sheetId="1" r:id="rId1"/>
@@ -10561,7 +10561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB9821B-1BC2-45BD-B89E-C1772FBECAE2}">
   <dimension ref="A1:G243"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11084,7 +11084,7 @@
         <v>1350</v>
       </c>
       <c r="B34" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>1360</v>
@@ -11093,7 +11093,7 @@
         <v>142</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>1170</v>
+        <v>1362</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>1361</v>
@@ -11104,7 +11104,7 @@
         <v>1353</v>
       </c>
       <c r="B35" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>1360</v>
@@ -11113,7 +11113,7 @@
         <v>142</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>1170</v>
+        <v>1362</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>1361</v>
@@ -11124,7 +11124,7 @@
         <v>1356</v>
       </c>
       <c r="B36" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>1360</v>
@@ -11133,7 +11133,7 @@
         <v>142</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>1362</v>
+        <v>1170</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>1361</v>
@@ -11144,7 +11144,7 @@
         <v>1359</v>
       </c>
       <c r="B37" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>1360</v>
@@ -11153,7 +11153,7 @@
         <v>142</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>1362</v>
+        <v>1170</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>1361</v>
@@ -11184,7 +11184,7 @@
         <v>1340</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>1250</v>
+        <v>1304</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>449</v>
@@ -11193,7 +11193,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>1170</v>
+        <v>1362</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>454</v>
@@ -11204,7 +11204,7 @@
         <v>1340</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>1320</v>
+        <v>1253</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>449</v>
@@ -11213,7 +11213,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>1170</v>
+        <v>1362</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>454</v>
@@ -11221,10 +11221,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>1251</v>
+        <v>1319</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>449</v>
@@ -11233,7 +11233,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>1170</v>
+        <v>1362</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>454</v>
@@ -11244,7 +11244,7 @@
         <v>1344</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>1321</v>
+        <v>1303</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>449</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>1170</v>
+        <v>1362</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>454</v>
@@ -11261,10 +11261,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>1303</v>
+        <v>1252</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>449</v>
@@ -11281,10 +11281,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>1252</v>
+        <v>1318</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>449</v>
@@ -11304,7 +11304,7 @@
         <v>1345</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>1318</v>
+        <v>1251</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>449</v>
@@ -11313,7 +11313,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>1362</v>
+        <v>1170</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>454</v>
@@ -11321,10 +11321,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>1304</v>
+        <v>1321</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>449</v>
@@ -11333,7 +11333,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>1362</v>
+        <v>1170</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>454</v>
@@ -11344,7 +11344,7 @@
         <v>1347</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>449</v>
@@ -11353,7 +11353,7 @@
         <v>2</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>1362</v>
+        <v>1170</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>454</v>
@@ -11364,7 +11364,7 @@
         <v>1347</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>449</v>
@@ -11373,7 +11373,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>1362</v>
+        <v>1170</v>
       </c>
       <c r="F48" s="14" t="s">
         <v>454</v>
@@ -11424,7 +11424,7 @@
         <v>1341</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>207</v>
@@ -11433,7 +11433,7 @@
         <v>142</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>1170</v>
+        <v>1362</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>453</v>
@@ -11444,7 +11444,7 @@
         <v>1341</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>207</v>
@@ -11453,7 +11453,7 @@
         <v>142</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>1170</v>
+        <v>1362</v>
       </c>
       <c r="F52" s="14" t="s">
         <v>453</v>
@@ -11464,7 +11464,7 @@
         <v>1346</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>207</v>
@@ -11473,7 +11473,7 @@
         <v>142</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>1170</v>
+        <v>1362</v>
       </c>
       <c r="F53" s="14" t="s">
         <v>453</v>
@@ -11484,7 +11484,7 @@
         <v>1346</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>207</v>
@@ -11493,7 +11493,7 @@
         <v>142</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>1170</v>
+        <v>1362</v>
       </c>
       <c r="F54" s="14" t="s">
         <v>453</v>
@@ -11504,7 +11504,7 @@
         <v>1348</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>207</v>
@@ -11513,7 +11513,7 @@
         <v>142</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>1362</v>
+        <v>1170</v>
       </c>
       <c r="F55" s="14" t="s">
         <v>453</v>
@@ -11524,7 +11524,7 @@
         <v>1348</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>1328</v>
+        <v>1335</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>207</v>
@@ -11533,7 +11533,7 @@
         <v>142</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>1362</v>
+        <v>1170</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>453</v>
@@ -11544,7 +11544,7 @@
         <v>1349</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>207</v>
@@ -11553,7 +11553,7 @@
         <v>142</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>1362</v>
+        <v>1170</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>453</v>
@@ -11564,7 +11564,7 @@
         <v>1349</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>207</v>
@@ -11573,7 +11573,7 @@
         <v>142</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>1362</v>
+        <v>1170</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>453</v>
@@ -11624,7 +11624,7 @@
         <v>1342</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>450</v>
@@ -11633,7 +11633,7 @@
         <v>142</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>1170</v>
+        <v>1362</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>453</v>
@@ -11641,10 +11641,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>1259</v>
+        <v>1332</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>450</v>
@@ -11653,7 +11653,7 @@
         <v>142</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>1170</v>
+        <v>1362</v>
       </c>
       <c r="F62" s="14" t="s">
         <v>453</v>
@@ -11661,7 +11661,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>1260</v>
@@ -11681,7 +11681,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>1329</v>
@@ -11701,10 +11701,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>450</v>
@@ -11713,7 +11713,7 @@
         <v>142</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>1362</v>
+        <v>1170</v>
       </c>
       <c r="F65" s="14" t="s">
         <v>453</v>
@@ -11724,7 +11724,7 @@
         <v>1357</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>1332</v>
+        <v>1258</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>450</v>
@@ -11733,7 +11733,7 @@
         <v>142</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>1362</v>
+        <v>1170</v>
       </c>
       <c r="F66" s="14" t="s">
         <v>453</v>
@@ -11744,7 +11744,7 @@
         <v>1343</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>451</v>
@@ -11753,7 +11753,7 @@
         <v>142</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>1170</v>
+        <v>1362</v>
       </c>
       <c r="F67" s="14" t="s">
         <v>453</v>
@@ -11761,10 +11761,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>1352</v>
+        <v>1343</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>1263</v>
+        <v>1333</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>451</v>
@@ -11773,7 +11773,7 @@
         <v>142</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>1170</v>
+        <v>1362</v>
       </c>
       <c r="F68" s="14" t="s">
         <v>453</v>
@@ -11781,7 +11781,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>1264</v>
@@ -11801,7 +11801,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>1330</v>
@@ -11821,10 +11821,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>451</v>
@@ -11833,7 +11833,7 @@
         <v>142</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>1362</v>
+        <v>1170</v>
       </c>
       <c r="F71" s="14" t="s">
         <v>453</v>
@@ -11844,7 +11844,7 @@
         <v>1358</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>1333</v>
+        <v>1262</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>451</v>
@@ -11853,7 +11853,7 @@
         <v>142</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>1362</v>
+        <v>1170</v>
       </c>
       <c r="F72" s="14" t="s">
         <v>453</v>
@@ -12485,7 +12485,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>910</v>
+        <v>1480</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>364</v>
@@ -12505,7 +12505,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>905</v>
+        <v>1479</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>365</v>
@@ -12525,7 +12525,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>911</v>
+        <v>1484</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>363</v>
@@ -17466,10 +17466,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>1340</v>
+        <v>1345</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>449</v>
@@ -17486,10 +17486,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>449</v>
@@ -17546,10 +17546,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>1341</v>
+        <v>1348</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>207</v>
@@ -17566,10 +17566,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>207</v>
@@ -18070,7 +18070,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>910</v>
+        <v>1474</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>364</v>
@@ -18090,7 +18090,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>905</v>
+        <v>1476</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>365</v>
@@ -18110,7 +18110,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>911</v>
+        <v>1475</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>363</v>
@@ -20569,8 +20569,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A75:G190">
-    <sortCondition ref="B75:B190"/>
+  <sortState ref="A34:F67">
+    <sortCondition ref="A34:A67"/>
+    <sortCondition ref="B34:B67"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22262,12 +22263,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" style="14" customWidth="1"/>
     <col min="8" max="8" width="25.140625" style="14" customWidth="1"/>
     <col min="9" max="16384" width="10.85546875" style="14"/>
@@ -22372,34 +22373,34 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>395</v>
+        <v>1164</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>1202</v>
+        <v>148</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>374</v>
+        <v>147</v>
       </c>
       <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>148</v>
@@ -22414,55 +22415,55 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>1165</v>
+        <v>1091</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>142</v>
@@ -22477,16 +22478,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>146</v>
@@ -22497,73 +22498,73 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>132</v>
+        <v>1245</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>138</v>
+        <v>1246</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>142</v>
@@ -22577,62 +22578,62 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1245</v>
+        <v>131</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>1086</v>
+        <v>395</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>1246</v>
+        <v>188</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>143</v>
+        <v>202</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>1202</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>144</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -22878,6 +22879,10 @@
       <c r="H37" s="32"/>
     </row>
   </sheetData>
+  <sortState ref="A7:F21">
+    <sortCondition ref="A7:A21"/>
+    <sortCondition ref="B7:B21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -28079,7 +28084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251006A7-CAC6-41DC-A9D9-6097BCFF0FC3}">
   <dimension ref="A1:I354"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29768,10 +29773,10 @@
         <v>1164</v>
       </c>
       <c r="B92" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>148</v>
@@ -29788,10 +29793,10 @@
         <v>1164</v>
       </c>
       <c r="B93" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>148</v>
@@ -29808,10 +29813,10 @@
         <v>1165</v>
       </c>
       <c r="B94" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>148</v>
@@ -29828,10 +29833,10 @@
         <v>1165</v>
       </c>
       <c r="B95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>148</v>
@@ -29888,10 +29893,10 @@
         <v>1089</v>
       </c>
       <c r="B98" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>142</v>
@@ -29908,10 +29913,10 @@
         <v>1089</v>
       </c>
       <c r="B99" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>142</v>
@@ -29928,10 +29933,10 @@
         <v>1090</v>
       </c>
       <c r="B100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>142</v>
@@ -29948,10 +29953,10 @@
         <v>1090</v>
       </c>
       <c r="B101" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D101" s="14" t="s">
         <v>142</v>
@@ -30048,10 +30053,10 @@
         <v>1087</v>
       </c>
       <c r="B106" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>145</v>
@@ -30068,10 +30073,10 @@
         <v>1087</v>
       </c>
       <c r="B107" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D107" s="14" t="s">
         <v>145</v>
@@ -30088,10 +30093,10 @@
         <v>1088</v>
       </c>
       <c r="B108" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>145</v>
@@ -30108,10 +30113,10 @@
         <v>1088</v>
       </c>
       <c r="B109" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>145</v>
@@ -34994,7 +34999,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A34:I116">
+  <sortState ref="A34:F116">
     <sortCondition ref="A34:A116"/>
     <sortCondition ref="B34:B116"/>
   </sortState>
@@ -42975,7 +42980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G314"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -48934,7 +48939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2384FCFF-CB97-4058-855E-633E2146E15F}">
   <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -55290,10 +55295,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="14" customWidth="1"/>
     <col min="6" max="6" width="31.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" style="14" customWidth="1"/>
@@ -55400,28 +55405,28 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>395</v>
+        <v>1164</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>1202</v>
+        <v>148</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>374</v>
+        <v>147</v>
       </c>
       <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>133</v>
@@ -55442,49 +55447,49 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>1165</v>
+        <v>1091</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>136</v>
@@ -55505,16 +55510,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>146</v>
@@ -55525,73 +55530,73 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>132</v>
+        <v>1245</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>138</v>
+        <v>1246</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>142</v>
@@ -55605,62 +55610,62 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1245</v>
+        <v>132</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>1086</v>
+        <v>395</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>1246</v>
+        <v>188</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>143</v>
+        <v>202</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>1202</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>144</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -55906,6 +55911,10 @@
       <c r="H37" s="32"/>
     </row>
   </sheetData>
+  <sortState ref="A7:F21">
+    <sortCondition ref="A7:A21"/>
+    <sortCondition ref="B7:B21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -56450,7 +56459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -62541,7 +62550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:CX136"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Resources/Variable_description_full.xlsx
+++ b/Resources/Variable_description_full.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{2940B1FB-72E4-4F44-90D5-EDC63A843231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C62815C9-BEA9-4469-8B37-768E361D805D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="729" xr2:uid="{09413DCB-0A34-4F52-B390-10AFD0613767}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="729" activeTab="1" xr2:uid="{09413DCB-0A34-4F52-B390-10AFD0613767}"/>
   </bookViews>
   <sheets>
     <sheet name="Berge_cs" sheetId="1" r:id="rId1"/>
@@ -5852,10 +5852,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6123,7 +6119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -25683,7 +25679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
